--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B22CB123-8A84-4CC9-92AE-94A44B510964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCCCD6E4-ED9C-438E-B3BA-AACCB9E19DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -959,6 +950,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2152,6 +2152,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3577,29 +3578,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>45591</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,23 +3616,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3639,7 +3641,7 @@
         <v>1043691480</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3671,15 +3673,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3693,25 +3695,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3720,16 +3722,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3738,7 +3740,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3905,7 +3907,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>270</v>
@@ -4355,11 +4357,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2024291497975706E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4404,7 +4406,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4804,7 +4806,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4812,21 +4814,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="237" t="s">
         <v>253</v>
-      </c>
-      <c r="C87" s="237" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4840,10 +4842,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4892,7 +4894,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4913,7 +4915,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4931,7 +4933,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -5038,7 +5040,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -5074,8 +5076,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5118,17 +5120,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>1475.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.9400000000000004</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5138,40 +5140,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>NISSIN FOODS</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>1043691480</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>5155.8359112000007</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>15425.759795704307</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5194,11 +5196,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5261,7 +5263,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5311,7 +5313,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5351,7 +5353,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5385,7 +5387,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4063452057813648</v>
+        <v>4.2076481307517986</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5401,12 +5403,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.2661719760745055E-2</v>
+        <v>2.0943768688137361E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5433,7 +5435,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2024291497975706E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5450,12 +5452,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5463,22 +5465,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.0193502387169828</v>
+        <v>2.5452353722307812</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.9498783711894268</v>
+        <v>4.9502644332228245</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5521767514317446</v>
-      </c>
-      <c r="G29" s="271">
+        <v>2.9943945555656248</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1738072792951542</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>4.3045777680198478</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5526,7 +5528,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5536,7 +5538,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5563,7 +5565,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6509,12 +6511,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -7000,7 +6999,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7051,7 +7050,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7102,7 +7101,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7153,7 +7152,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7255,7 +7254,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7408,7 +7407,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8479,7 +8478,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8548,7 +8547,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8752,7 +8751,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10575,11 +10574,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1104789.4761286944</v>
+        <v>977013.64581201808</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69864917931616755</v>
+        <v>0.73350229129947109</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10600,7 +10599,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0585402844609733</v>
+        <v>0.93611346315868937</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11666,11 +11665,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4063452057813648</v>
+        <v>4.2076481307517986</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>64147.62387130539</v>
+        <v>191923.45418798178</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11702,11 +11701,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11717,11 +11716,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11733,11 +11732,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11951,19 +11950,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11973,18 +11972,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12061,7 +12060,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12121,7 +12120,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12184,7 +12183,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12214,7 +12213,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12351,17 +12350,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7220173880075207E-2</v>
+        <v>9.0979473204997E-3</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.150971434585247E-2</v>
+        <v>1.7216373035573669E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2661719760745055E-2</v>
+        <v>2.0943768688137361E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12402,17 +12401,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2024291497975706E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2024291497975706E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2024291497975706E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12443,15 +12442,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12472,14 +12471,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.5430763991500784</v>
+        <v>3.8490212039158549</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.8260196339053429</v>
+        <v>4.7687645056481145</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12497,14 +12496,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5723116301033633</v>
+        <v>2.3173581589912424</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5723116301033633</v>
+        <v>2.3173581589912424</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12530,7 +12529,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12547,21 +12546,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3023116.4767793026</v>
+        <v>2474507.718272367</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2587118923401466</v>
+        <v>1.9136437962567781</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8965614213687965</v>
+        <v>2.370918768324493</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.1152669948341805</v>
+        <v>3.3684643048611584</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12571,14 +12570,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>64147.62387130539</v>
+        <v>191923.45418798178</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.1462247321694523E-2</v>
+        <v>0.18388906862397861</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12610,27 +12609,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4127905.9529079972</v>
+        <v>3451521.3640843853</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0193502387169828</v>
+        <v>2.5452353722307812</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1492517970337199</v>
+        <v>2.6817568796480673</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5521767514317446</v>
+        <v>2.9943945555656248</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9551017058297697</v>
+        <v>3.3070322314831824</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.1738072792951542</v>
+        <v>4.3045777680198478</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12654,7 +12653,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12671,27 +12670,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1334770.2481331613</v>
+        <v>1202475.1156475761</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0870594736609205</v>
+        <v>0.97931607940350307</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2788934984246123</v>
+        <v>1.1521365640041212</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2788934984246123</v>
+        <v>1.1521365640041212</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2788934984246123</v>
+        <v>1.1521365640041212</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.816977939824854</v>
+        <v>1.6368890162001988</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12715,7 +12714,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12732,27 +12731,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2310808.7585359723</v>
+        <v>2000700.9611838246</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0532048561889518</v>
+        <v>1.7622757258171422</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2140726477291661</v>
+        <v>1.9169467218260943</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4155351249281782</v>
+        <v>2.0732655597848728</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.6169976021271912</v>
+        <v>2.2295843977436518</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.4953926095600041</v>
+        <v>2.9707333921100232</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCCCD6E4-ED9C-438E-B3BA-AACCB9E19DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CF8DCE-1F8C-4B5E-BAD9-41BB918830CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>263</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>1043691480</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>264</v>
@@ -3692,7 +3696,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>265</v>
@@ -3701,16 +3705,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>266</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>266</v>
@@ -3728,7 +3732,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>265</v>
@@ -3737,7 +3741,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>267</v>
@@ -3907,7 +3911,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>270</v>
@@ -4339,7 +4343,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0.15820000000000001</v>
@@ -4357,11 +4361,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.1326732673267327E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4406,13 +4410,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4786,7 +4790,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>3620511</v>
@@ -4806,7 +4810,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4814,26 +4818,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4842,10 +4846,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4894,7 +4898,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4915,7 +4919,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4933,7 +4937,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4990,7 +4994,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -5077,7 +5081,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5118,19 +5122,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1475.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>5.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5138,42 +5142,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>NISSIN FOODS</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>1043691480</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>15425.759795704307</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>5270.6419740000001</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5196,16 +5200,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5230,40 +5234,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5276,29 +5280,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5308,12 +5312,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5323,7 +5327,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5331,7 +5335,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5345,7 +5349,7 @@
         <v>0.66005868735054896</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5353,7 +5357,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5364,14 +5368,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.0365594158118095E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5383,11 +5387,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>4.2076481307517986</v>
+        <v>1.4376605848574679</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5399,16 +5403,16 @@
         <v>7.0437342852983705E-5</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>2.0943768688137361E-2</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>16.314062403345343</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5431,11 +5435,11 @@
         <v>0.11237749163404374</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.1326732673267327E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5452,12 +5456,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5465,42 +5469,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.5452353722307812</v>
+        <v>3.0051907581084785</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.9502644332228245</v>
+        <v>5.9179894036649658</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.9943945555656248</v>
-      </c>
-      <c r="G29" s="272">
+        <v>3.535518538951151</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.3045777680198478</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>5.1460777423173623</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5510,7 +5514,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5521,14 +5525,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5538,7 +5542,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5548,14 +5552,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5565,7 +5569,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5580,14 +5584,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6572,16 +6576,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6599,7 +6603,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6632,7 +6636,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6999,7 +7003,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7050,7 +7054,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7101,7 +7105,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7152,7 +7156,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7254,7 +7258,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7407,7 +7411,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8478,7 +8482,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8547,7 +8551,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8751,7 +8755,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10574,11 +10578,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>977013.64581201808</v>
+        <v>1103361.0877428963</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.73350229129947109</v>
+        <v>0.69903879744850528</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10599,7 +10603,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.93611346315868937</v>
+        <v>1.057171691909276</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10649,7 +10653,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11665,11 +11669,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>4.2076481307517986</v>
+        <v>1.4376605848574682</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>191923.45418798178</v>
+        <v>65576.012257103692</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11701,11 +11705,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11716,11 +11720,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11732,11 +11736,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11950,19 +11954,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11972,18 +11976,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12060,7 +12064,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12120,7 +12124,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12183,7 +12187,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12213,7 +12217,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12346,28 +12350,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0979473204997E-3</v>
+        <v>2.6627259201499318E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7216373035573669E-2</v>
+        <v>5.0387720568022029E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0943768688137361E-2</v>
+        <v>6.1296811013481306E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12397,21 +12401,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.1326732673267327E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.1326732673267327E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.1326732673267327E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12442,15 +12446,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12467,24 +12471,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.8490212039158549</v>
+        <v>4.5188900458575887</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.7687645056481145</v>
+        <v>5.7887002133215759</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12492,18 +12496,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.3173581589912424</v>
+        <v>2.5636300772713794</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.3173581589912424</v>
+        <v>2.5636300772713794</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12522,14 +12526,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12546,21 +12550,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2474507.718272367</v>
+        <v>3003751.462179272</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9136437962567781</v>
+        <v>2.2466870001714154</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.370918768324493</v>
+        <v>2.8780070736797354</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.3684643048611584</v>
+        <v>4.0889060504080863</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12570,14 +12574,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>191923.45418798178</v>
+        <v>65576.012257103692</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.18388906862397861</v>
+        <v>6.2830839873392177E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12609,27 +12613,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3451521.3640843853</v>
+        <v>4107112.5499221683</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.5452353722307812</v>
+        <v>3.0051907581084785</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.6817568796480673</v>
+        <v>3.135858312313291</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.9943945555656248</v>
+        <v>3.535518538951151</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3070322314831824</v>
+        <v>3.9351787655890114</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.3045777680198478</v>
+        <v>5.1460777423173623</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12646,14 +12650,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12670,27 +12674,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1202475.1156475761</v>
+        <v>1330265.3979851012</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.97931607940350307</v>
+        <v>1.083390647480744</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1521365640041212</v>
+        <v>1.2745772323302871</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1521365640041212</v>
+        <v>1.2745772323302871</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1521365640041212</v>
+        <v>1.2745772323302871</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6368890162001988</v>
+        <v>1.8108456385148044</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12700,21 +12704,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12727,31 +12731,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2000700.9611838246</v>
+        <v>2301567.0005168309</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7622757258171422</v>
+        <v>2.0442907027946111</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.9169467218260943</v>
+        <v>2.2052177723217889</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0732655597848728</v>
+        <v>2.4050478856407191</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2295843977436518</v>
+        <v>2.6048779989596493</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9707333921100232</v>
+        <v>3.4784616904160832</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CF8DCE-1F8C-4B5E-BAD9-41BB918830CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4038259-1FEF-4A19-83F4-6518CDCD3902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -960,6 +960,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4365,7 +4369,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1326732673267327E-2</v>
+        <v>3.0718446601941746E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5134,10 +5138,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.05</v>
+        <v>5.15</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5175,7 +5179,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>5270.6419740000001</v>
+        <v>5375.0111219999999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5391,7 +5395,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4376605848574679</v>
+        <v>1.4661291112902892</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5407,7 +5411,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.314062403345343</v>
+        <v>16.637113144005646</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5439,7 +5443,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1326732673267327E-2</v>
+        <v>3.0718446601941746E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5469,20 +5473,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.0051907581084785</v>
+        <v>2.992851086217498</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.9179894036649658</v>
+        <v>5.890250188863682</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.535518538951151</v>
+        <v>3.5210012779029389</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1460777423173623</v>
+        <v>5.1219566859684198</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10578,11 +10582,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1103361.0877428963</v>
+        <v>1102062.5528467158</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69903879744850528</v>
+        <v>0.69939299575063041</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10603,7 +10607,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.057171691909276</v>
+        <v>1.0559275168622777</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11669,11 +11673,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4376605848574682</v>
+        <v>1.4661291112902892</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>65576.012257103692</v>
+        <v>66874.547153283958</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12354,17 +12358,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6627259201499318E-2</v>
+        <v>2.6110225042246898E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0387720568022029E-2</v>
+        <v>4.9409318226895378E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1296811013481306E-2</v>
+        <v>6.0106581673413699E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12405,17 +12409,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1326732673267327E-2</v>
+        <v>3.0718446601941746E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1326732673267327E-2</v>
+        <v>3.0718446601941746E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1326732673267327E-2</v>
+        <v>3.0718446601941746E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12475,14 +12479,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.5188900458575887</v>
+        <v>4.4978832138141023</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.7887002133215759</v>
+        <v>5.7563132115073667</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12500,14 +12504,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5636300772713794</v>
+        <v>2.5560787262686899</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5636300772713794</v>
+        <v>2.5560787262686899</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12550,21 +12554,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3003751.462179272</v>
+        <v>2986945.8753514802</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2466870001714154</v>
+        <v>2.2362428919970752</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8780070736797354</v>
+        <v>2.8619050098516472</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.0889060504080863</v>
+        <v>4.0660291691061419</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12574,14 +12578,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>65576.012257103692</v>
+        <v>66874.547153283958</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.2830839873392177E-2</v>
+        <v>6.4075014920390042E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12613,27 +12617,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4107112.5499221683</v>
+        <v>4089008.428198196</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0051907581084785</v>
+        <v>2.992851086217498</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.135858312313291</v>
+        <v>3.1241700290919527</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.535518538951151</v>
+        <v>3.5210012779029389</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9351787655890114</v>
+        <v>3.9178325267139251</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.1460777423173623</v>
+        <v>5.1219566859684198</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12674,27 +12678,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1330265.3979851012</v>
+        <v>1326347.0085747186</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.083390647480744</v>
+        <v>1.0801994448479266</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2745772323302871</v>
+        <v>1.2708228762916784</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2745772323302871</v>
+        <v>1.2708228762916784</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2745772323302871</v>
+        <v>1.2708228762916784</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8108456385148044</v>
+        <v>1.8055116665235453</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12735,27 +12739,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2301567.0005168309</v>
+        <v>2293508.3250046712</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0442907027946111</v>
+        <v>2.0365252655327124</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2052177723217889</v>
+        <v>2.1974964526918157</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4050478856407191</v>
+        <v>2.3959120770973086</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.6048779989596493</v>
+        <v>2.5943277015028019</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.4784616904160832</v>
+        <v>3.4637341762459828</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4038259-1FEF-4A19-83F4-6518CDCD3902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E547AB59-2653-4BA4-9A32-F722D2968E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0718446601941746E-2</v>
+        <v>3.0778210116731521E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5048,7 +5048,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.15</v>
+        <v>5.14</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>5375.0111219999999</v>
+        <v>5364.5742071999994</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4661291112902892</v>
+        <v>1.4632822586470069</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.637113144005646</v>
+        <v>16.604808069939615</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0718446601941746E-2</v>
+        <v>3.0778210116731521E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5473,20 +5473,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.992851086217498</v>
+        <v>2.9940632059834291</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.890250188863682</v>
+        <v>5.8929728164823612</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5210012779029389</v>
+        <v>3.5224273011569758</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1219566859684198</v>
+        <v>5.1243241882455317</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10582,11 +10582,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1102062.5528467158</v>
+        <v>1102192.4063363338</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69939299575063041</v>
+        <v>0.69935757592041792</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10607,7 +10607,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0559275168622777</v>
+        <v>1.0560519343669776</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11673,11 +11673,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4661291112902892</v>
+        <v>1.4632822586470069</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>66874.547153283958</v>
+        <v>66744.693663665923</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12358,17 +12358,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6110225042246898E-2</v>
+        <v>2.6161023145441935E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9409318226895378E-2</v>
+        <v>4.9505445305157832E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0106581673413699E-2</v>
+        <v>6.0223520548264707E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12409,17 +12409,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0718446601941746E-2</v>
+        <v>3.0778210116731521E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0718446601941746E-2</v>
+        <v>3.0778210116731521E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0718446601941746E-2</v>
+        <v>3.0778210116731521E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12479,14 +12479,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.4978832138141023</v>
+        <v>4.4999436471565399</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.7563132115073667</v>
+        <v>5.7594887663233703</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12504,14 +12504,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5560787262686899</v>
+        <v>2.5568198499242314</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5560787262686899</v>
+        <v>2.5568198499242314</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12554,21 +12554,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2986945.8753514802</v>
+        <v>2988593.6679595429</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2362428919970752</v>
+        <v>2.2372672915195682</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8619050098516472</v>
+        <v>2.8634838218278285</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.0660291691061419</v>
+        <v>4.0682722538785541</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12578,14 +12578,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>66874.547153283958</v>
+        <v>66744.693663665923</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.4075014920390042E-2</v>
+        <v>6.3950597415690244E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12617,27 +12617,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4089008.428198196</v>
+        <v>4090786.0742958765</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.992851086217498</v>
+        <v>2.9940632059834291</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1241700290919527</v>
+        <v>3.1253188461191455</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5210012779029389</v>
+        <v>3.5224273011569758</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9178325267139251</v>
+        <v>3.9195357561948061</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.1219566859684198</v>
+        <v>5.1243241882455317</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12678,27 +12678,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1326347.0085747186</v>
+        <v>1326731.5769893804</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0801994448479266</v>
+        <v>1.080512643871514</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2708228762916784</v>
+        <v>1.271191345731193</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2708228762916784</v>
+        <v>1.271191345731193</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2708228762916784</v>
+        <v>1.271191345731193</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8055116665235453</v>
+        <v>1.8060351665991359</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12739,27 +12739,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2293508.3250046712</v>
+        <v>2294300.1144836815</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0365252655327124</v>
+        <v>2.0372879249274716</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1974964526918157</v>
+        <v>2.1982550959251692</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3959120770973086</v>
+        <v>2.3968093234440841</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5943277015028019</v>
+        <v>2.5953635509629995</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.4637341762459828</v>
+        <v>3.4651796774223338</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E547AB59-2653-4BA4-9A32-F722D2968E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCAA60E-CA8D-4837-94F7-F1193C152BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0599613152804645E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.14</v>
+        <v>5.17</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>5364.5742071999994</v>
+        <v>5395.8849516</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4632822586470069</v>
+        <v>1.4718228165768534</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.604808069939615</v>
+        <v>16.701723292137707</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0599613152804645E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5473,20 +5473,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9940632059834291</v>
+        <v>2.9904410396658316</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8929728164823612</v>
+        <v>5.8848382508423418</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5224273011569758</v>
+        <v>3.5181659290186258</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1243241882455317</v>
+        <v>5.1172506529063844</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10582,11 +10582,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1102192.4063363338</v>
+        <v>1101802.8458674799</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69935757592041792</v>
+        <v>0.69946383541105539</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10607,7 +10607,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0560519343669776</v>
+        <v>1.0556786818528785</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11673,11 +11673,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4632822586470069</v>
+        <v>1.4718228165768534</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>66744.693663665923</v>
+        <v>67134.254132520015</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12358,17 +12358,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6161023145441935E-2</v>
+        <v>2.6009218368969352E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9505445305157832E-2</v>
+        <v>4.9218179665089214E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0223520548264707E-2</v>
+        <v>5.9874061047984636E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12409,17 +12409,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0599613152804645E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0599613152804645E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0599613152804645E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12479,14 +12479,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.4999436471565399</v>
+        <v>4.493788501704377</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.7594887663233703</v>
+        <v>5.7500031170713415</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12504,14 +12504,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5568198499242314</v>
+        <v>2.554605590607252</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5568198499242314</v>
+        <v>2.554605590607252</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12554,21 +12554,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2988593.6679595429</v>
+        <v>2983671.5728845666</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2372672915195682</v>
+        <v>2.2342070963983756</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8634838218278285</v>
+        <v>2.8587677777005203</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.0682722538785541</v>
+        <v>4.0615719710535059</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12578,14 +12578,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>66744.693663665923</v>
+        <v>67134.254132520015</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.3950597415690244E-2</v>
+        <v>6.4323849929789609E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12617,27 +12617,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4090786.0742958765</v>
+        <v>4085474.4187520463</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9940632059834291</v>
+        <v>2.9904410396658316</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1253188461191455</v>
+        <v>3.1218853984838537</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5224273011569758</v>
+        <v>3.5181659290186258</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9195357561948061</v>
+        <v>3.9144464595533979</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.1243241882455317</v>
+        <v>5.1172506529063844</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12678,27 +12678,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1326731.5769893804</v>
+        <v>1325582.5997724026</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.080512643871514</v>
+        <v>1.0795768973859423</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.271191345731193</v>
+        <v>1.2700904675128732</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.271191345731193</v>
+        <v>1.2700904675128732</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.271191345731193</v>
+        <v>1.2700904675128732</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8060351665991359</v>
+        <v>1.8044711024768423</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12739,27 +12739,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2294300.1144836815</v>
+        <v>2291933.8958532028</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0372879249274716</v>
+        <v>2.035008968525887</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1982550959251692</v>
+        <v>2.1959879329983636</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3968093234440841</v>
+        <v>2.3941281982657494</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5953635509629995</v>
+        <v>2.5922684635331357</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.4651796774223338</v>
+        <v>3.4608608776916134</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCAA60E-CA8D-4837-94F7-F1193C152BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F02681-4D4C-413F-B7E1-8EDFFD8AEC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F02681-4D4C-413F-B7E1-8EDFFD8AEC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9126AF3A-B76E-46E2-9636-D7724AD8AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4840,7 +4840,7 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9126AF3A-B76E-46E2-9636-D7724AD8AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD58B65-4B2B-4C6E-AE71-550A79D950D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5277,7 +5277,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5324,7 +5324,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5473,20 +5473,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9904410396658316</v>
+        <v>3.0845503579915734</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8848382508423418</v>
+        <v>6.1566912041182178</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5181659290186258</v>
+        <v>3.6288827741077334</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1172506529063844</v>
+        <v>5.3536445253201901</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12479,14 +12479,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.493788501704377</v>
+        <v>4.6891706104741333</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.7500031170713415</v>
+        <v>6.0000032525961826</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12504,14 +12504,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.554605590607252</v>
+        <v>2.6656753988945239</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.554605590607252</v>
+        <v>2.6656753988945239</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12554,21 +12554,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2983671.5728845666</v>
+        <v>3113396.423879548</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2342070963983756</v>
+        <v>2.3313465353722185</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8587677777005203</v>
+        <v>2.9830620289048908</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.0615719710535059</v>
+        <v>4.2979658434673116</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12617,27 +12617,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4085474.4187520463</v>
+        <v>4215199.2697470281</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9904410396658316</v>
+        <v>3.0845503579915734</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1218853984838537</v>
+        <v>3.2190248374576966</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5181659290186258</v>
+        <v>3.6288827741077334</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9144464595533979</v>
+        <v>4.0387407107577697</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.1172506529063844</v>
+        <v>5.3536445253201901</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12678,27 +12678,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1325582.5997724026</v>
+        <v>1383216.6258494637</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0795768973859423</v>
+        <v>1.126515023359244</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2700904675128732</v>
+        <v>1.3253117921873461</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2700904675128732</v>
+        <v>1.3253117921873461</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2700904675128732</v>
+        <v>1.3253117921873461</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8044711024768423</v>
+        <v>1.9094959339000965</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12739,27 +12739,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2291933.8958532028</v>
+        <v>2371442.7113062232</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.035008968525887</v>
+        <v>2.1055326906754086</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1959879329983636</v>
+        <v>2.2721683148225216</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3941281982657494</v>
+        <v>2.4770972831475397</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5922684635331357</v>
+        <v>2.6820262514725579</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.4608608776916134</v>
+        <v>3.6315702296101433</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD58B65-4B2B-4C6E-AE71-550A79D950D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{537020C6-21F3-4EB0-BE25-913D27AC341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45591</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>1043691480</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>267</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,609 +3809,609 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>3833194</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>4067732</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>3866335</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="149">
         <v>3518847</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="149">
         <v>3087781</v>
       </c>
-      <c r="H25" s="150">
+      <c r="H25" s="149">
         <v>2998828</v>
       </c>
-      <c r="I25" s="150">
+      <c r="I25" s="149">
         <v>2902271</v>
       </c>
-      <c r="J25" s="150">
+      <c r="J25" s="149">
         <v>2629905</v>
       </c>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>2530133</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>2764937</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>2639016</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="150">
         <v>2360170</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>2074351</v>
       </c>
-      <c r="H26" s="151">
+      <c r="H26" s="150">
         <v>2065429</v>
       </c>
-      <c r="I26" s="151">
+      <c r="I26" s="150">
         <v>1867706</v>
       </c>
-      <c r="J26" s="151">
+      <c r="J26" s="150">
         <v>1588722</v>
       </c>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>829721</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>842779</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>769862</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="150">
         <v>714686</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>676867</v>
       </c>
-      <c r="H27" s="151">
+      <c r="H27" s="150">
         <v>648594</v>
       </c>
-      <c r="I27" s="151">
+      <c r="I27" s="150">
         <v>767003</v>
       </c>
-      <c r="J27" s="151">
+      <c r="J27" s="150">
         <v>750812</v>
       </c>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>270</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>259</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>365</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>116</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <v>64</v>
       </c>
-      <c r="H29" s="151">
+      <c r="H29" s="150">
         <v>0</v>
       </c>
-      <c r="I29" s="151">
+      <c r="I29" s="150">
         <v>0</v>
       </c>
-      <c r="J29" s="151">
+      <c r="J29" s="150">
         <v>0</v>
       </c>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>2980</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>30135</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>35414</v>
       </c>
-      <c r="F30" s="151">
+      <c r="F30" s="150">
         <v>30652</v>
       </c>
-      <c r="G30" s="151">
+      <c r="G30" s="150">
         <v>27954</v>
       </c>
-      <c r="H30" s="151">
+      <c r="H30" s="150">
         <v>25134</v>
       </c>
-      <c r="I30" s="151">
+      <c r="I30" s="150">
         <v>25097</v>
       </c>
-      <c r="J30" s="151">
+      <c r="J30" s="150">
         <v>16390</v>
       </c>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-212109</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>-63909</v>
       </c>
-      <c r="E31" s="151">
+      <c r="E31" s="150">
         <v>-85212</v>
       </c>
-      <c r="F31" s="151">
+      <c r="F31" s="150">
         <v>-137953</v>
       </c>
-      <c r="G31" s="151">
+      <c r="G31" s="150">
         <v>-184857</v>
       </c>
-      <c r="H31" s="151">
+      <c r="H31" s="150">
         <v>-59025</v>
       </c>
-      <c r="I31" s="151">
+      <c r="I31" s="150">
         <v>-13114</v>
       </c>
-      <c r="J31" s="151">
+      <c r="J31" s="150">
         <v>-55207</v>
       </c>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>47627</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>45913</v>
       </c>
-      <c r="E32" s="151">
+      <c r="E32" s="150">
         <v>50573</v>
       </c>
-      <c r="F32" s="151">
+      <c r="F32" s="150">
         <v>36563</v>
       </c>
-      <c r="G32" s="151">
+      <c r="G32" s="150">
         <v>23174</v>
       </c>
-      <c r="H32" s="151">
+      <c r="H32" s="150">
         <v>17650</v>
       </c>
-      <c r="I32" s="151">
+      <c r="I32" s="150">
         <v>20113</v>
       </c>
-      <c r="J32" s="151">
+      <c r="J32" s="150">
         <v>21618</v>
       </c>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>329600</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>634000</v>
       </c>
-      <c r="E33" s="151">
+      <c r="E33" s="150">
         <v>315900</v>
       </c>
-      <c r="F33" s="151">
+      <c r="F33" s="150">
         <v>259700</v>
       </c>
-      <c r="G33" s="151">
+      <c r="G33" s="150">
         <v>283600</v>
       </c>
-      <c r="H33" s="151">
+      <c r="H33" s="150">
         <v>215300</v>
       </c>
-      <c r="I33" s="151">
+      <c r="I33" s="150">
         <v>259700</v>
       </c>
-      <c r="J33" s="151">
+      <c r="J33" s="150">
         <v>467600</v>
       </c>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>2504156</v>
       </c>
-      <c r="E34" s="151">
+      <c r="E34" s="150">
         <v>3108899</v>
       </c>
-      <c r="F34" s="151">
+      <c r="F34" s="150">
         <v>3296593</v>
       </c>
-      <c r="G34" s="151">
+      <c r="G34" s="150">
         <v>2995218</v>
       </c>
-      <c r="H34" s="151">
+      <c r="H34" s="150">
         <v>2922746</v>
       </c>
-      <c r="I34" s="151">
+      <c r="I34" s="150">
         <v>2928529</v>
       </c>
-      <c r="J34" s="151">
+      <c r="J34" s="150">
         <v>2035257</v>
       </c>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <v>372854</v>
       </c>
-      <c r="E35" s="151">
+      <c r="E35" s="150">
         <v>475382</v>
       </c>
-      <c r="F35" s="151">
+      <c r="F35" s="150">
         <v>508545</v>
       </c>
-      <c r="G35" s="151">
+      <c r="G35" s="150">
         <v>421056</v>
       </c>
-      <c r="H35" s="151">
+      <c r="H35" s="150">
         <v>449932</v>
       </c>
-      <c r="I35" s="151">
+      <c r="I35" s="150">
         <v>420626</v>
       </c>
-      <c r="J35" s="151">
+      <c r="J35" s="150">
         <v>296371</v>
       </c>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>415015</v>
       </c>
-      <c r="E36" s="151">
+      <c r="E36" s="150">
         <v>464999</v>
       </c>
-      <c r="F36" s="151">
+      <c r="F36" s="150">
         <v>363144</v>
       </c>
-      <c r="G36" s="151">
+      <c r="G36" s="150">
         <v>326593</v>
       </c>
-      <c r="H36" s="151">
+      <c r="H36" s="150">
         <v>294086</v>
       </c>
-      <c r="I36" s="151">
+      <c r="I36" s="150">
         <v>290728</v>
       </c>
-      <c r="J36" s="151">
+      <c r="J36" s="150">
         <v>215131</v>
       </c>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>896185</v>
       </c>
-      <c r="E37" s="151">
+      <c r="E37" s="150">
         <v>1060434</v>
       </c>
-      <c r="F37" s="151">
+      <c r="F37" s="150">
         <v>1065331</v>
       </c>
-      <c r="G37" s="151">
+      <c r="G37" s="150">
         <v>859227</v>
       </c>
-      <c r="H37" s="151">
+      <c r="H37" s="150">
         <v>796096</v>
       </c>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>112845</v>
       </c>
-      <c r="E38" s="151">
+      <c r="E38" s="150">
         <v>82874</v>
       </c>
-      <c r="F38" s="151">
+      <c r="F38" s="150">
         <v>75361</v>
       </c>
-      <c r="G38" s="151">
+      <c r="G38" s="150">
         <v>62385</v>
       </c>
-      <c r="H38" s="151">
+      <c r="H38" s="150">
         <v>53103</v>
       </c>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <v>8558</v>
       </c>
-      <c r="E39" s="151">
+      <c r="E39" s="150">
         <v>5576</v>
       </c>
-      <c r="F39" s="151">
+      <c r="F39" s="150">
         <v>7278</v>
       </c>
-      <c r="G39" s="151">
+      <c r="G39" s="150">
         <v>1660</v>
       </c>
-      <c r="H39" s="151">
+      <c r="H39" s="150">
         <v>0</v>
       </c>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>1113</v>
       </c>
-      <c r="E40" s="151">
+      <c r="E40" s="150">
         <v>5636</v>
       </c>
-      <c r="F40" s="151">
+      <c r="F40" s="150">
         <v>9396</v>
       </c>
-      <c r="G40" s="151">
+      <c r="G40" s="150">
         <v>131</v>
       </c>
-      <c r="H40" s="151">
+      <c r="H40" s="150">
         <v>0</v>
       </c>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>3674703</v>
       </c>
-      <c r="E41" s="151">
+      <c r="E41" s="150">
         <v>4116261</v>
       </c>
-      <c r="F41" s="151">
+      <c r="F41" s="150">
         <v>4043183</v>
       </c>
-      <c r="G41" s="151">
+      <c r="G41" s="150">
         <v>3712318</v>
       </c>
-      <c r="H41" s="151">
+      <c r="H41" s="150">
         <v>3595173</v>
       </c>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>43262</v>
       </c>
-      <c r="E42" s="151">
+      <c r="E42" s="150">
         <v>165622</v>
       </c>
-      <c r="F42" s="151">
+      <c r="F42" s="150">
         <v>143504</v>
       </c>
-      <c r="G42" s="151">
+      <c r="G42" s="150">
         <v>122753</v>
       </c>
-      <c r="H42" s="151">
+      <c r="H42" s="150">
         <v>114637</v>
       </c>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <v>1696980</v>
       </c>
-      <c r="E43" s="151">
+      <c r="E43" s="150">
         <v>2130407</v>
       </c>
-      <c r="F43" s="151">
+      <c r="F43" s="150">
         <v>2344902</v>
       </c>
-      <c r="G43" s="151">
+      <c r="G43" s="150">
         <v>2164713</v>
       </c>
-      <c r="H43" s="151">
+      <c r="H43" s="150">
         <v>2079261</v>
       </c>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.15820000000000001</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0599613152804645E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>3.0778210116731521E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4416,10 +4420,10 @@
       <c r="B47" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4528,7 +4532,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4540,7 +4544,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4562,7 +4566,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4646,7 +4650,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4659,7 +4663,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4713,16 +4717,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>62618</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4816,7 +4820,7 @@
       <c r="B86" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4824,19 +4828,20 @@
       <c r="B87" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>252</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4850,14 +4855,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4869,12 +4874,12 @@
         <f>C25</f>
         <v>3833194</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>3833194</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>3833194</v>
       </c>
@@ -4887,15 +4892,15 @@
         <f>C26</f>
         <v>2530133</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>2530133</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>2530133</v>
       </c>
@@ -4908,15 +4913,15 @@
         <f>C27+C28</f>
         <v>829721</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>829721</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>829721</v>
       </c>
@@ -4929,12 +4934,12 @@
         <f>C29</f>
         <v>270</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>270</v>
       </c>
@@ -4947,15 +4952,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>281973</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*0.03</f>
         <v>114995.81999999999</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*0.01</f>
         <v>38331.94</v>
       </c>
@@ -4968,12 +4973,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4986,12 +4991,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>3973.3333333333335</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>1.0365594158118095E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>3973.3333333333335</v>
       </c>
@@ -5000,16 +5005,16 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.15820000000000001</v>
       </c>
@@ -5128,17 +5133,17 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1475.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.17</v>
+        <v>5.14</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5148,40 +5153,40 @@
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>NISSIN FOODS</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>1043691480</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5395.8849516</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>5364.5742071999994</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5189,11 +5194,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5204,22 +5209,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -5248,7 +5253,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5259,7 +5264,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5273,11 +5278,11 @@
       <c r="B12" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5286,7 +5291,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5297,7 +5302,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5308,10 +5313,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5323,10 +5328,10 @@
       <c r="B17" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5348,14 +5353,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.66005868735054896</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5363,7 +5368,7 @@
       <c r="B21" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.21645682425674254</v>
       </c>
@@ -5374,7 +5379,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.0365594158118095E-3</v>
       </c>
@@ -5386,46 +5391,46 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4718228165768534</v>
+        <v>1.4632822586470069</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.701723292137707</v>
+        <v>16.604808069939615</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0.01</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.51106627172460062</v>
       </c>
@@ -5434,16 +5439,16 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.11237749163404374</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0599613152804645E-2</v>
+        <v>3.0778210116731521E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5462,10 +5467,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5473,22 +5478,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.0845503579915734</v>
+        <v>2.9940632059834291</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.1566912041182178</v>
+        <v>5.8929728164823612</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.6288827741077334</v>
-      </c>
-      <c r="G29" s="273">
+        <v>3.5224273011569758</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.3536445253201901</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>5.1243241882455317</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5500,17 +5505,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5520,7 +5525,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5528,17 +5533,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5548,24 +5553,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5575,7 +5580,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5594,10 +5599,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6579,16 +6584,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6602,11 +6607,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85">
@@ -6639,7 +6644,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93">
@@ -6703,47 +6708,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3833194</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>4067732</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>3866335</v>
       </c>
-      <c r="F6" s="201">
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>3518847</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>3087781</v>
       </c>
-      <c r="H6" s="201">
+      <c r="H6" s="200">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2998828</v>
       </c>
-      <c r="I6" s="201">
+      <c r="I6" s="200">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>2902271</v>
       </c>
-      <c r="J6" s="201">
+      <c r="J6" s="200">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>2629905</v>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6805,47 +6810,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2530133</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2764937</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2639016</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>2360170</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>2074351</v>
       </c>
-      <c r="H8" s="200">
+      <c r="H8" s="199">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>2065429</v>
       </c>
-      <c r="I8" s="200">
+      <c r="I8" s="199">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>1867706</v>
       </c>
-      <c r="J8" s="200">
+      <c r="J8" s="199">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>1588722</v>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6856,47 +6861,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1303061</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>1302795</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>1227319</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
         <v>1158677</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
         <v>1013430</v>
       </c>
-      <c r="H9" s="152">
+      <c r="H9" s="151">
         <f t="shared" si="2"/>
         <v>933399</v>
       </c>
-      <c r="I9" s="152">
+      <c r="I9" s="151">
         <f t="shared" si="2"/>
         <v>1034565</v>
       </c>
-      <c r="J9" s="152">
+      <c r="J9" s="151">
         <f t="shared" si="2"/>
         <v>1041183</v>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6907,47 +6912,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>829721</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>842779</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>769862</v>
       </c>
-      <c r="F10" s="200">
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>714686</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>676867</v>
       </c>
-      <c r="H10" s="200">
+      <c r="H10" s="199">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>648594</v>
       </c>
-      <c r="I10" s="200">
+      <c r="I10" s="199">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>767003</v>
       </c>
-      <c r="J10" s="200">
+      <c r="J10" s="199">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>750812</v>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6958,47 +6963,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -7009,47 +7014,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3973.3333333333335</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>40180</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>47218.666666666664</v>
       </c>
-      <c r="F12" s="200">
+      <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>40869.333333333336</v>
       </c>
-      <c r="G12" s="200">
+      <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>37272</v>
       </c>
-      <c r="H12" s="200">
+      <c r="H12" s="199">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>33512</v>
       </c>
-      <c r="I12" s="200">
+      <c r="I12" s="199">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>33462.666666666664</v>
       </c>
-      <c r="J12" s="200">
+      <c r="J12" s="199">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>21853.333333333332</v>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -7057,50 +7062,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.12244792897689673</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.10321132267317512</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>0.10610522195653851</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
         <v>0.11456072590444162</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
         <v>9.6927534692389128E-2</v>
       </c>
-      <c r="H13" s="230">
+      <c r="H13" s="229">
         <f t="shared" si="3"/>
         <v>8.3797070055368295E-2</v>
       </c>
-      <c r="I13" s="230">
+      <c r="I13" s="229">
         <f t="shared" si="3"/>
         <v>8.066074234050967E-2</v>
       </c>
-      <c r="J13" s="230">
+      <c r="J13" s="229">
         <f t="shared" si="3"/>
         <v>0.10210166019938617</v>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7108,50 +7113,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>469366.66666666669</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>419836</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>410238.33333333331</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
         <v>403121.66666666669</v>
       </c>
-      <c r="G14" s="231">
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
         <v>299291</v>
       </c>
-      <c r="H14" s="231">
+      <c r="H14" s="230">
         <f t="shared" si="4"/>
         <v>251293</v>
       </c>
-      <c r="I14" s="231">
+      <c r="I14" s="230">
         <f t="shared" si="4"/>
         <v>234099.33333333334</v>
       </c>
-      <c r="J14" s="231">
+      <c r="J14" s="230">
         <f t="shared" si="4"/>
         <v>268517.66666666669</v>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7159,50 +7164,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.11797622563731239</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>2.3395343357316731E-2</v>
       </c>
-      <c r="E15" s="233">
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
         <v>1.7653892745366273E-2</v>
       </c>
-      <c r="F15" s="233">
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
         <v>0.34692211482024748</v>
       </c>
-      <c r="G15" s="233">
+      <c r="G15" s="232">
         <f t="shared" si="5"/>
         <v>0.19100412665693037</v>
       </c>
-      <c r="H15" s="233">
+      <c r="H15" s="232">
         <f t="shared" si="5"/>
         <v>7.3446030032835022E-2</v>
       </c>
-      <c r="I15" s="233">
+      <c r="I15" s="232">
         <f t="shared" si="5"/>
         <v>-0.12817902732656947</v>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7213,47 +7218,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-212109</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-63909</v>
       </c>
-      <c r="E16" s="200">
+      <c r="E16" s="199">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>-85212</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="199">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-137953</v>
       </c>
-      <c r="G16" s="200">
+      <c r="G16" s="199">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>-184857</v>
       </c>
-      <c r="H16" s="200">
+      <c r="H16" s="199">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-59025</v>
       </c>
-      <c r="I16" s="200">
+      <c r="I16" s="199">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v>-13114</v>
       </c>
-      <c r="J16" s="200">
+      <c r="J16" s="199">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v>-55207</v>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7264,47 +7269,47 @@
       <c r="B17" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>270</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>259</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>365</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>116</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>64</v>
       </c>
-      <c r="H17" s="200">
+      <c r="H17" s="199">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="200">
+      <c r="I17" s="199">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="200">
+      <c r="J17" s="199">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7315,47 +7320,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.2424886400218721E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>1.1287125110503839E-2</v>
       </c>
-      <c r="E18" s="153">
+      <c r="E18" s="152">
         <f t="shared" si="6"/>
         <v>1.3080346115895286E-2</v>
       </c>
-      <c r="F18" s="153">
+      <c r="F18" s="152">
         <f t="shared" si="6"/>
         <v>1.0390619427329464E-2</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="152">
         <f t="shared" si="6"/>
         <v>7.5050659356994554E-3</v>
       </c>
-      <c r="H18" s="153">
+      <c r="H18" s="152">
         <f t="shared" si="6"/>
         <v>5.8856326538234268E-3</v>
       </c>
-      <c r="I18" s="153">
+      <c r="I18" s="152">
         <f t="shared" si="6"/>
         <v>6.9300902637968679E-3</v>
       </c>
-      <c r="J18" s="153">
+      <c r="J18" s="152">
         <f t="shared" si="6"/>
         <v>8.2200687857546181E-3</v>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7366,47 +7371,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>47627</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>45913</v>
       </c>
-      <c r="E19" s="200">
+      <c r="E19" s="199">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>50573</v>
       </c>
-      <c r="F19" s="200">
+      <c r="F19" s="199">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>36563</v>
       </c>
-      <c r="G19" s="200">
+      <c r="G19" s="199">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>23174</v>
       </c>
-      <c r="H19" s="200">
+      <c r="H19" s="199">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>17650</v>
       </c>
-      <c r="I19" s="200">
+      <c r="I19" s="199">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v>20113</v>
       </c>
-      <c r="J19" s="200">
+      <c r="J19" s="199">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v>21618</v>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7417,47 +7422,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>8.5985734090160845E-2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0.15586080892251505</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>8.1705284203257095E-2</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
         <v>7.3802583630376659E-2</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
         <v>9.1845891920443845E-2</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="152">
         <f t="shared" si="7"/>
         <v>7.1794714468452342E-2</v>
       </c>
-      <c r="I20" s="153">
+      <c r="I20" s="152">
         <f t="shared" si="7"/>
         <v>8.9481650748672328E-2</v>
       </c>
-      <c r="J20" s="153">
+      <c r="J20" s="152">
         <f t="shared" si="7"/>
         <v>0.17780109927925153</v>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7468,47 +7473,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>329600</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>634000</v>
       </c>
-      <c r="E21" s="200">
+      <c r="E21" s="199">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>315900</v>
       </c>
-      <c r="F21" s="200">
+      <c r="F21" s="199">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>259700</v>
       </c>
-      <c r="G21" s="200">
+      <c r="G21" s="199">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>283600</v>
       </c>
-      <c r="H21" s="200">
+      <c r="H21" s="199">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>215300</v>
       </c>
-      <c r="I21" s="200">
+      <c r="I21" s="199">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v>259700</v>
       </c>
-      <c r="J21" s="200">
+      <c r="J21" s="199">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v>467600</v>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7519,47 +7524,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>187123.66666666669</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-168510</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>144546.33333333331</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
         <v>179868.66666666669</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
         <v>38801</v>
       </c>
-      <c r="H22" s="162">
+      <c r="H22" s="161">
         <f t="shared" si="8"/>
         <v>53643</v>
       </c>
-      <c r="I22" s="162">
+      <c r="I22" s="161">
         <f t="shared" si="8"/>
         <v>-5487.666666666657</v>
       </c>
-      <c r="J22" s="162">
+      <c r="J22" s="161">
         <f t="shared" si="8"/>
         <v>-177464.33333333331</v>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7570,47 +7575,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.6612482958076217E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-3.1069524737617916E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>2.8039409414859287E-2</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
         <v>3.8336847268437647E-2</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
         <v>9.424486386826008E-3</v>
       </c>
-      <c r="H23" s="154">
+      <c r="H23" s="153">
         <f t="shared" si="9"/>
         <v>1.3415991180554537E-2</v>
       </c>
-      <c r="I23" s="154">
+      <c r="I23" s="153">
         <f t="shared" si="9"/>
         <v>-1.4181136082743453E-3</v>
       </c>
-      <c r="J23" s="154">
+      <c r="J23" s="153">
         <f t="shared" si="9"/>
         <v>-5.060952772058306E-2</v>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7621,7 +7626,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>140342.75</v>
       </c>
@@ -7669,50 +7674,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234" t="str">
+      <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="234">
+      <c r="E25" s="233">
         <f t="shared" si="10"/>
         <v>-0.19637846873459536</v>
       </c>
-      <c r="F25" s="234">
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
         <v>3.6356709019526989</v>
       </c>
-      <c r="G25" s="234">
+      <c r="G25" s="233">
         <f t="shared" si="10"/>
         <v>-0.27668102082284735</v>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="I25" s="234">
+      <c r="I25" s="233">
         <f t="shared" si="10"/>
         <v>0.96907735451067167</v>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7829,43 +7834,43 @@
         <f>Fin_Analysis!C28</f>
         <v>2422539</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>2504156</v>
       </c>
-      <c r="E28" s="200">
+      <c r="E28" s="199">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v>3108899</v>
       </c>
-      <c r="F28" s="200">
+      <c r="F28" s="199">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v>3296593</v>
       </c>
-      <c r="G28" s="200">
+      <c r="G28" s="199">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v>2995218</v>
       </c>
-      <c r="H28" s="200">
+      <c r="H28" s="199">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v>2922746</v>
       </c>
-      <c r="I28" s="200">
+      <c r="I28" s="199">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v>2928529</v>
       </c>
-      <c r="J28" s="200">
+      <c r="J28" s="199">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v>2035257</v>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7880,43 +7885,43 @@
         <f>Fin_Analysis!C13</f>
         <v>422018</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>372854</v>
       </c>
-      <c r="E29" s="200">
+      <c r="E29" s="199">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v>475382</v>
       </c>
-      <c r="F29" s="200">
+      <c r="F29" s="199">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v>508545</v>
       </c>
-      <c r="G29" s="200">
+      <c r="G29" s="199">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v>421056</v>
       </c>
-      <c r="H29" s="200">
+      <c r="H29" s="199">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v>449932</v>
       </c>
-      <c r="I29" s="200">
+      <c r="I29" s="199">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v>420626</v>
       </c>
-      <c r="J29" s="200">
+      <c r="J29" s="199">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v>296371</v>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7931,43 +7936,43 @@
         <f>Fin_Analysis!C18</f>
         <v>370793</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>415015</v>
       </c>
-      <c r="E30" s="200">
+      <c r="E30" s="199">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v>464999</v>
       </c>
-      <c r="F30" s="200">
+      <c r="F30" s="199">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v>363144</v>
       </c>
-      <c r="G30" s="200">
+      <c r="G30" s="199">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v>326593</v>
       </c>
-      <c r="H30" s="200">
+      <c r="H30" s="199">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v>294086</v>
       </c>
-      <c r="I30" s="200">
+      <c r="I30" s="199">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v>290728</v>
       </c>
-      <c r="J30" s="200">
+      <c r="J30" s="199">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v>215131</v>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7982,43 +7987,43 @@
         <f>Fin_Analysis!I28</f>
         <v>803015</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>896185</v>
       </c>
-      <c r="E31" s="200">
+      <c r="E31" s="199">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>1060434</v>
       </c>
-      <c r="F31" s="200">
+      <c r="F31" s="199">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>1065331</v>
       </c>
-      <c r="G31" s="200">
+      <c r="G31" s="199">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>859227</v>
       </c>
-      <c r="H31" s="200">
+      <c r="H31" s="199">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v>796096</v>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -8033,43 +8038,43 @@
         <f>Fin_Analysis!I48</f>
         <v>100207</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>112845</v>
       </c>
-      <c r="E32" s="200">
+      <c r="E32" s="199">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v>82874</v>
       </c>
-      <c r="F32" s="200">
+      <c r="F32" s="199">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v>75361</v>
       </c>
-      <c r="G32" s="200">
+      <c r="G32" s="199">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v>62385</v>
       </c>
-      <c r="H32" s="200">
+      <c r="H32" s="199">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v>53103</v>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -8084,43 +8089,43 @@
         <f>Fin_Analysis!I15</f>
         <v>5523</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>8558</v>
       </c>
-      <c r="E33" s="200">
+      <c r="E33" s="199">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>5576</v>
       </c>
-      <c r="F33" s="200">
+      <c r="F33" s="199">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>7278</v>
       </c>
-      <c r="G33" s="200">
+      <c r="G33" s="199">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>1660</v>
       </c>
-      <c r="H33" s="200">
+      <c r="H33" s="199">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -8135,43 +8140,43 @@
         <f>Fin_Analysis!I34</f>
         <v>2115</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1113</v>
       </c>
-      <c r="E34" s="200">
+      <c r="E34" s="199">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>5636</v>
       </c>
-      <c r="F34" s="200">
+      <c r="F34" s="199">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>9396</v>
       </c>
-      <c r="G34" s="200">
+      <c r="G34" s="199">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>131</v>
       </c>
-      <c r="H34" s="200">
+      <c r="H34" s="199">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8237,43 +8242,43 @@
         <f>Fin_Analysis!D3</f>
         <v>3666124</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>3674703</v>
       </c>
-      <c r="E36" s="200">
+      <c r="E36" s="199">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>4116261</v>
       </c>
-      <c r="F36" s="200">
+      <c r="F36" s="199">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>4043183</v>
       </c>
-      <c r="G36" s="200">
+      <c r="G36" s="199">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>3712318</v>
       </c>
-      <c r="H36" s="200">
+      <c r="H36" s="199">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v>3595173</v>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8288,43 +8293,43 @@
         <f>Fin_Analysis!D4</f>
         <v>45613</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>43262</v>
       </c>
-      <c r="E37" s="200">
+      <c r="E37" s="199">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>165622</v>
       </c>
-      <c r="F37" s="200">
+      <c r="F37" s="199">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>143504</v>
       </c>
-      <c r="G37" s="200">
+      <c r="G37" s="199">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>122753</v>
       </c>
-      <c r="H37" s="200">
+      <c r="H37" s="199">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v>114637</v>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8339,43 +8344,43 @@
         <f>Fin_Analysis!C63</f>
         <v>1668632</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>1696980</v>
       </c>
-      <c r="E38" s="200">
+      <c r="E38" s="199">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v>2130407</v>
       </c>
-      <c r="F38" s="200">
+      <c r="F38" s="199">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v>2344902</v>
       </c>
-      <c r="G38" s="200">
+      <c r="G38" s="199">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v>2164713</v>
       </c>
-      <c r="H38" s="200">
+      <c r="H38" s="199">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v>2079261</v>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8437,47 +8442,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>0.1618107357935552</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>0.1405660260490238</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>0.13110166023150394</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v>0.14199559723416413</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="33"/>
         <v>0.12120886904634141</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="33"/>
         <v>0.10624998150192529</v>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8506,47 +8511,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.67972447545708514</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.68256268533378506</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
         <v>0.67072254065038917</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
         <v>0.67179343353689913</v>
       </c>
-      <c r="H42" s="157">
+      <c r="H42" s="156">
         <f t="shared" si="34"/>
         <v>0.68874540320418509</v>
       </c>
-      <c r="I42" s="157">
+      <c r="I42" s="156">
         <f t="shared" si="34"/>
         <v>0.64353259912668392</v>
       </c>
-      <c r="J42" s="157">
+      <c r="J42" s="156">
         <f t="shared" si="34"/>
         <v>0.60409862713672169</v>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8557,47 +8562,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.20718646164496579</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.19911932101072463</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
         <v>0.2031023230052344</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
         <v>0.21920822752649879</v>
       </c>
-      <c r="H43" s="154">
+      <c r="H43" s="153">
         <f t="shared" si="35"/>
         <v>0.21628249436113042</v>
       </c>
-      <c r="I43" s="154">
+      <c r="I43" s="153">
         <f t="shared" si="35"/>
         <v>0.26427683700109328</v>
       </c>
-      <c r="J43" s="154">
+      <c r="J43" s="153">
         <f t="shared" si="35"/>
         <v>0.28549016029096108</v>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8608,47 +8613,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H44" s="154">
+      <c r="H44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I44" s="154">
+      <c r="I44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J44" s="154">
+      <c r="J44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8659,47 +8664,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>6.3671844654465925E-5</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>9.440464936432048E-5</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
         <v>3.2965343477565238E-5</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
         <v>2.0726858543400585E-5</v>
       </c>
-      <c r="H45" s="154">
+      <c r="H45" s="153">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I45" s="154">
+      <c r="I45" s="153">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="J45" s="154">
+      <c r="J45" s="153">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8710,47 +8715,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0365594158118095E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>9.8777402247739038E-3</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>1.2212771698951764E-2</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
         <v>1.1614410439934823E-2</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
         <v>1.2070804244212915E-2</v>
       </c>
-      <c r="H46" s="154">
+      <c r="H46" s="153">
         <f t="shared" si="38"/>
         <v>1.1175032379316186E-2</v>
       </c>
-      <c r="I46" s="154">
+      <c r="I46" s="153">
         <f t="shared" si="38"/>
         <v>1.1529821531713154E-2</v>
       </c>
-      <c r="J46" s="154">
+      <c r="J46" s="153">
         <f t="shared" si="38"/>
         <v>8.3095523729310884E-3</v>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8761,47 +8766,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0.14457368381201122</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>6.8624938087361809E-2</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
         <v>6.3411964203047191E-2</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
         <v>8.4340825984744378E-2</v>
       </c>
-      <c r="H47" s="154">
+      <c r="H47" s="153">
         <f t="shared" si="39"/>
         <v>6.5909081814628914E-2</v>
       </c>
-      <c r="I47" s="154">
+      <c r="I47" s="153">
         <f t="shared" si="39"/>
         <v>8.2551560484875469E-2</v>
       </c>
-      <c r="J47" s="154">
+      <c r="J47" s="153">
         <f t="shared" si="39"/>
         <v>0.1695810304934969</v>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8812,47 +8817,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>4.8816643944101623E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-4.1426032983490554E-2</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>3.7385879219812387E-2</v>
       </c>
-      <c r="F48" s="154">
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
         <v>5.1115796357916868E-2</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
         <v>1.2565981849101345E-2</v>
       </c>
-      <c r="H48" s="154">
+      <c r="H48" s="153">
         <f t="shared" si="40"/>
         <v>1.7887988240739384E-2</v>
       </c>
-      <c r="I48" s="154">
+      <c r="I48" s="153">
         <f t="shared" si="40"/>
         <v>-1.8908181443657939E-3</v>
       </c>
-      <c r="J48" s="154">
+      <c r="J48" s="153">
         <f t="shared" si="40"/>
         <v>-6.7479370294110746E-2</v>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8881,47 +8886,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0.11009565391159436</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>9.1661397555197838E-2</v>
       </c>
-      <c r="E50" s="157">
+      <c r="E50" s="156">
         <f t="shared" si="41"/>
         <v>0.12295416718934081</v>
       </c>
-      <c r="F50" s="157">
+      <c r="F50" s="156">
         <f t="shared" si="41"/>
         <v>0.1445203499896415</v>
       </c>
-      <c r="G50" s="157">
+      <c r="G50" s="156">
         <f t="shared" si="41"/>
         <v>0.13636200235703244</v>
       </c>
-      <c r="H50" s="157">
+      <c r="H50" s="156">
         <f t="shared" si="41"/>
         <v>0.1500359473767752</v>
       </c>
-      <c r="I50" s="157">
+      <c r="I50" s="156">
         <f t="shared" si="41"/>
         <v>0.14492995312980766</v>
       </c>
-      <c r="J50" s="157">
+      <c r="J50" s="156">
         <f t="shared" si="41"/>
         <v>0.11269266380344538</v>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8932,47 +8937,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>9.6732124698097721E-2</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>0.10202614134854508</v>
       </c>
-      <c r="E51" s="154">
+      <c r="E51" s="153">
         <f t="shared" si="42"/>
         <v>0.12026867821851961</v>
       </c>
-      <c r="F51" s="154">
+      <c r="F51" s="153">
         <f t="shared" si="42"/>
         <v>0.10319971286049096</v>
       </c>
-      <c r="G51" s="154">
+      <c r="G51" s="153">
         <f t="shared" si="42"/>
         <v>0.10576948300413792</v>
       </c>
-      <c r="H51" s="154">
+      <c r="H51" s="153">
         <f t="shared" si="42"/>
         <v>9.8066978166136909E-2</v>
       </c>
-      <c r="I51" s="154">
+      <c r="I51" s="153">
         <f t="shared" si="42"/>
         <v>0.10017258898290339</v>
       </c>
-      <c r="J51" s="154">
+      <c r="J51" s="153">
         <f t="shared" si="42"/>
         <v>8.1801814133970613E-2</v>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -9000,47 +9005,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.19766986347718032</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.21543286092524916</v>
       </c>
-      <c r="E53" s="157">
+      <c r="E53" s="156">
         <f t="shared" si="43"/>
         <v>0.21737674703003232</v>
       </c>
-      <c r="F53" s="157">
+      <c r="F53" s="156">
         <f t="shared" si="43"/>
         <v>0.22004620095970678</v>
       </c>
-      <c r="G53" s="157">
+      <c r="G53" s="156">
         <f t="shared" si="43"/>
         <v>0.19888345313804912</v>
       </c>
-      <c r="H53" s="157">
+      <c r="H53" s="156">
         <f t="shared" si="43"/>
         <v>0.19107288948809867</v>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -9050,47 +9055,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>24.49903988827791</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>-17.424258091200496</v>
       </c>
-      <c r="E54" s="158">
+      <c r="E54" s="157">
         <f t="shared" si="44"/>
         <v>12.892109644428587</v>
       </c>
-      <c r="F54" s="158">
+      <c r="F54" s="157">
         <f t="shared" si="44"/>
         <v>10.787373555635522</v>
       </c>
-      <c r="G54" s="158">
+      <c r="G54" s="157">
         <f t="shared" si="44"/>
         <v>21.664433277498603</v>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v>-</v>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -9100,47 +9105,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.4428960526995515E-3</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>-1.5370007714675686E-3</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>2.5251418806887761E-3</v>
       </c>
-      <c r="F55" s="154">
+      <c r="F55" s="153">
         <f t="shared" si="45"/>
         <v>6.4491499353231795E-4</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="153">
         <f t="shared" si="45"/>
         <v>1.6494420246900854E-3</v>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9150,47 +9155,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>3.0168041692869996</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>2.7942400285655307</v>
       </c>
-      <c r="E56" s="159">
+      <c r="E56" s="158">
         <f t="shared" si="46"/>
         <v>2.9317232378441278</v>
       </c>
-      <c r="F56" s="159">
+      <c r="F56" s="158">
         <f t="shared" si="46"/>
         <v>3.0944307449985029</v>
       </c>
-      <c r="G56" s="159">
+      <c r="G56" s="158">
         <f t="shared" si="46"/>
         <v>3.4859449249150689</v>
       </c>
-      <c r="H56" s="159">
+      <c r="H56" s="158">
         <f t="shared" si="46"/>
         <v>3.6713486815660423</v>
       </c>
-      <c r="I56" s="159" t="e">
+      <c r="I56" s="158" t="e">
         <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J56" s="159" t="e">
+      <c r="J56" s="158" t="e">
         <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10488,8 +10493,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10538,7 +10543,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>3620511</v>
       </c>
@@ -10582,11 +10587,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1101802.8458674799</v>
+        <v>1102192.4063363338</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69946383541105539</v>
+        <v>0.69935757592041792</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10607,7 +10612,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0556786818528785</v>
+        <v>1.0560519343669776</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10635,7 +10640,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10682,7 +10687,7 @@
         <f>Inputs!C48</f>
         <v>1322113</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10710,7 +10715,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10738,7 +10743,7 @@
         <f>Inputs!C50</f>
         <v>422018</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10766,7 +10771,7 @@
         <f>Inputs!C51</f>
         <v>221617</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10779,7 +10784,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10794,7 +10799,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10821,7 +10826,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10843,7 +10848,7 @@
         <f>Inputs!C54</f>
         <v>63587</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10865,7 +10870,7 @@
         <f>Inputs!C55</f>
         <v>370793</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10886,7 +10891,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10911,7 +10916,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10938,7 +10943,7 @@
         <f>Inputs!C58</f>
         <v>22411</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10959,7 +10964,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -11124,7 +11129,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>803015</v>
       </c>
@@ -11153,7 +11158,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11179,7 +11184,7 @@
         <f>Inputs!C61</f>
         <v>39731</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11206,7 +11211,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11233,7 +11238,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11249,7 +11254,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11263,7 +11268,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11290,7 +11295,7 @@
         <f>Inputs!C65</f>
         <v>85171</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11316,7 +11321,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11343,7 +11348,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11370,7 +11375,7 @@
         <f>Inputs!C68</f>
         <v>1863998</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11391,7 +11396,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11412,7 +11417,7 @@
         <f>Inputs!C70</f>
         <v>23958</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11433,7 +11438,7 @@
         <f>Inputs!C71</f>
         <v>71331</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11454,7 +11459,7 @@
         <f>Inputs!C72</f>
         <v>62618</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11600,7 +11605,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>100207</v>
       </c>
@@ -11673,11 +11678,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4718228165768534</v>
+        <v>1.4632822586470069</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>67134.254132520015</v>
+        <v>66744.693663665923</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11709,11 +11714,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11724,11 +11729,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11740,11 +11745,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11840,8 +11845,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>7638</v>
@@ -11921,8 +11926,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>895584</v>
@@ -11958,19 +11963,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11980,18 +11985,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12002,17 +12007,17 @@
         <f>Data!C6</f>
         <v>3833194</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>3833194</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>3833194</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12023,23 +12028,23 @@
         <f>Data!C8</f>
         <v>2530133</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>2530133</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>2530133</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.66005868735054896</v>
       </c>
@@ -12049,21 +12054,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>1303061</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>1303061</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>1303061</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12074,23 +12079,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>829721</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>829721</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>829721</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.21645682425674254</v>
       </c>
@@ -12104,54 +12109,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>3973.3333333333335</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>1.0365594158118095E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>3973.3333333333335</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>1.0365594158118095E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>3973.3333333333335</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>1.0365594158118095E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>469366.66666666669</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.12244792897689673</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>469366.66666666669</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.12244792897689673</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>469366.66666666669</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.12244792897689673</v>
       </c>
@@ -12165,27 +12170,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12197,23 +12202,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>270</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>270</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>270</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>7.0437342852983705E-5</v>
       </c>
@@ -12227,23 +12232,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>281973</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>114995.81999999999</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0.03</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>38331.94</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0.01</v>
       </c>
@@ -12253,27 +12258,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>187123.66666666669</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>4.8816643944101623E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>354100.84666666668</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>9.237749163404374E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>430764.72666666668</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.11237749163404374</v>
       </c>
@@ -12283,49 +12288,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>140342.75</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>3.6612482958076217E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>265575.63500000001</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>6.9283118725532805E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>323073.54500000004</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>8.4283118725532818E-2</v>
       </c>
@@ -12335,69 +12340,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.13446765896757154</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.25445798886851123</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.30954889561808058</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6009218368969352E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>2.6161023145441935E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9218179665089214E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>4.9505445305157832E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9874061047984636E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>6.0223520548264707E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>1.1764910701550311</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.62171363022816462</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.51106627172460062</v>
       </c>
@@ -12407,21 +12412,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0599613152804645E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>3.0778210116731521E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0599613152804645E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>3.0778210116731521E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0599613152804645E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>3.0778210116731521E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12443,22 +12448,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12468,9 +12473,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12478,15 +12483,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.6891706104741333</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>4.4999436471565399</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.0000032525961826</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>5.7594887663233703</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12494,24 +12499,27 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.6656753988945239</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.5568198499242314</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.6656753988945239</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.5568198499242314</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12532,14 +12540,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12554,21 +12562,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3113396.423879548</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>2988593.6679595429</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.3313465353722185</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>2.2372672915195682</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.9830620289048908</v>
+        <v>2.8634838218278285</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.2979658434673116</v>
+        <v>4.0682722538785541</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12578,16 +12586,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>67134.254132520015</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>66744.693663665923</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.4323849929789609E-2</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>6.3950597415690244E-2</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12598,17 +12606,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>1168937.0999999999</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0.95200215201526783</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>1.1200025317826681</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12617,27 +12625,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4215199.2697470281</v>
+        <v>4090786.0742958765</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0845503579915734</v>
+        <v>2.9940632059834291</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.2190248374576966</v>
+        <v>3.1253188461191455</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.6288827741077334</v>
+        <v>3.5224273011569758</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.0387407107577697</v>
+        <v>3.9195357561948061</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.3536445253201901</v>
+        <v>5.1243241882455317</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12656,14 +12664,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12678,27 +12686,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1383216.6258494637</v>
+        <v>1326731.5769893804</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.126515023359244</v>
+        <v>1.080512643871514</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3253117921873461</v>
+        <v>1.271191345731193</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3253117921873461</v>
+        <v>1.271191345731193</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3253117921873461</v>
+        <v>1.271191345731193</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9094959339000965</v>
+        <v>1.8060351665991359</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12717,14 +12725,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12739,27 +12747,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2371442.7113062232</v>
+        <v>2294300.1144836815</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1055326906754086</v>
+        <v>2.0372879249274716</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2721683148225216</v>
+        <v>2.1982550959251692</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4770972831475397</v>
+        <v>2.3968093234440841</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.6820262514725579</v>
+        <v>2.5953635509629995</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.6315702296101433</v>
+        <v>3.4651796774223338</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537020C6-21F3-4EB0-BE25-913D27AC341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{462D87FB-2383-43E8-813D-798473722106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>NISSIN FOODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0002</t>
@@ -3580,7 +3583,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3633,7 +3636,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3645,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3693,7 @@
         <v>257</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3710,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3728,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3737,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3746,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4373,7 +4376,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0481695568400771E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4831,7 +4834,9 @@
       <c r="C87" s="236" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -5143,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.14</v>
+        <v>5.19</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5184,7 +5189,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5364.5742071999994</v>
+        <v>5416.7587812000011</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5222,7 +5227,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5279,10 +5284,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5329,7 +5334,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5400,7 +5405,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4632822586470069</v>
+        <v>1.4775165218634176</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5416,7 +5421,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.604808069939615</v>
+        <v>16.766333440269769</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5448,7 +5453,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0481695568400771E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5478,20 +5483,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9940632059834291</v>
+        <v>2.9880497165451261</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8929728164823612</v>
+        <v>5.4675726606388242</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5224273011569758</v>
+        <v>3.5153526077001485</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1243241882455317</v>
+        <v>4.754411009251152</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10587,11 +10592,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1102192.4063363338</v>
+        <v>1101543.1388882438</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69935757592041792</v>
+        <v>0.69953467507148037</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10612,7 +10617,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0560519343669776</v>
+        <v>1.0554298468434791</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11678,11 +11683,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4632822586470069</v>
+        <v>1.4775165218634176</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>66744.693663665923</v>
+        <v>67393.961111756071</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12363,17 +12368,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6161023145441935E-2</v>
+        <v>2.5908990167162145E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9505445305157832E-2</v>
+        <v>4.9028514232853801E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0223520548264707E-2</v>
+        <v>5.9643332489032863E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12414,17 +12419,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0481695568400771E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0481695568400771E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0778210116731521E-2</v>
+        <v>3.0481695568400771E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12473,7 +12478,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12484,14 +12489,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4999436471565399</v>
+        <v>4.4897282963670309</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7594887663233703</v>
+        <v>5.7437471264686684</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12505,21 +12510,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5568198499242314</v>
+        <v>2.5531444800441951</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5568198499242314</v>
+        <v>2.5531444800441951</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12562,21 +12567,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2988593.6679595429</v>
+        <v>2980425.3448493136</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2372672915195682</v>
+        <v>2.2321884567641135</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8634838218278285</v>
+        <v>2.8556574447166261</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.0682722538785541</v>
+        <v>3.6989811624076729</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12586,14 +12591,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>66744.693663665923</v>
+        <v>67393.961111756071</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.3950597415690244E-2</v>
+        <v>6.457268493918919E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12625,27 +12630,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4090786.0742958765</v>
+        <v>4081968.4837375572</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9940632059834291</v>
+        <v>2.9880497165451261</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1253188461191455</v>
+        <v>3.1196179238401922</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5224273011569758</v>
+        <v>3.5153526077001485</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9195357561948061</v>
+        <v>3.9110872915601047</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.1243241882455317</v>
+        <v>4.754411009251152</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12686,27 +12691,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1326731.5769893804</v>
+        <v>1324824.4307830865</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.080512643871514</v>
+        <v>1.0789594317332392</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.271191345731193</v>
+        <v>1.2693640373332227</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.271191345731193</v>
+        <v>1.2693640373332227</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.271191345731193</v>
+        <v>1.2693640373332227</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8060351665991359</v>
+        <v>1.6442286069781988</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12747,27 +12752,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2294300.1144836815</v>
+        <v>2290371.539375192</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0372879249274716</v>
+        <v>2.0335045741391826</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1982550959251692</v>
+        <v>2.1944909805867074</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3968093234440841</v>
+        <v>2.3923583225166856</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5953635509629995</v>
+        <v>2.5902256644466637</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.4651796774223338</v>
+        <v>3.1993198081146756</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{462D87FB-2383-43E8-813D-798473722106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1609323E-9875-BC49-9520-B9FDAE26F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -974,19 +985,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1523,7 +1534,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1579,8 +1590,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,14 +1614,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1640,7 +1651,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1742,7 +1753,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1770,7 +1781,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,10 +1834,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1862,7 +1873,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1892,16 +1903,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1922,7 +1933,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1944,10 +1955,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1956,10 +1967,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1976,7 +1987,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1988,13 +1999,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2032,7 +2043,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,19 +2087,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2113,7 +2124,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2125,10 +2136,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2159,19 +2170,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2180,7 +2191,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2194,7 +2205,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2207,14 +2218,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2410,7 +2421,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2472,7 +2483,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2675,7 +2686,7 @@
                   <c:v>0.21645682425674254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0365594158118095E-3</c:v>
+                  <c:v>9.8097105597332122E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2684,10 +2695,10 @@
                   <c:v>7.0437342852983705E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11237749163404374</c:v>
+                  <c:v>0.12243307999388223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,7 +2755,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2774,7 +2785,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3582,24 +3593,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
@@ -3607,7 +3618,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
@@ -3615,7 +3626,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3623,7 +3634,7 @@
         <v>45591</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +3642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
@@ -3640,7 +3651,7 @@
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
@@ -3648,7 +3659,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
@@ -3656,7 +3667,7 @@
         <v>1043691480</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
@@ -3672,7 +3683,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
@@ -3680,7 +3691,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
@@ -3688,7 +3699,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="218" t="s">
         <v>257</v>
       </c>
@@ -3696,16 +3707,17 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="223">
-        <v>0.25</v>
+        <f>(16.5%+25%)/2</f>
+        <v>0.20750000000000002</v>
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
@@ -3714,7 +3726,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
@@ -3723,7 +3735,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
@@ -3732,7 +3744,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
@@ -3741,7 +3753,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
@@ -3750,7 +3762,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
@@ -3759,7 +3771,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="115" t="s">
         <v>134</v>
       </c>
@@ -3808,7 +3820,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
@@ -3840,7 +3852,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
@@ -3872,7 +3884,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
@@ -3904,7 +3916,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
@@ -3920,7 +3932,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
@@ -3952,7 +3964,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
@@ -3984,7 +3996,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
@@ -4016,7 +4028,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
@@ -4048,7 +4060,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
@@ -4080,7 +4092,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
@@ -4110,7 +4122,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
@@ -4140,7 +4152,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4170,7 +4182,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
@@ -4196,7 +4208,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
@@ -4222,7 +4234,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
@@ -4248,7 +4260,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
@@ -4274,7 +4286,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
@@ -4300,7 +4312,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
@@ -4326,7 +4338,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
@@ -4352,7 +4364,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
@@ -4370,7 +4382,7 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="74" t="s">
         <v>254</v>
       </c>
@@ -4419,7 +4431,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
         <v>250</v>
       </c>
@@ -4433,7 +4445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4445,7 +4457,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
@@ -4455,7 +4467,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4468,7 +4480,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4480,7 +4492,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4490,7 +4502,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4501,7 +4513,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
@@ -4513,7 +4525,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4526,7 +4538,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
@@ -4551,7 +4563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4564,7 +4576,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="35" t="s">
         <v>51</v>
       </c>
@@ -4575,7 +4587,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4599,7 +4611,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
@@ -4610,7 +4622,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>160</v>
       </c>
@@ -4621,7 +4633,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
@@ -4631,7 +4643,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4670,7 +4682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
@@ -4683,7 +4695,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -4694,7 +4706,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
@@ -4706,7 +4718,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4719,7 +4731,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
@@ -4731,13 +4743,13 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>40</v>
       </c>
@@ -4745,19 +4757,19 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B76" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
@@ -4765,13 +4777,13 @@
         <v>803015</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
@@ -4779,19 +4791,19 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B82" s="80" t="s">
         <v>85</v>
       </c>
@@ -4799,7 +4811,7 @@
         <v>100207</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B83" s="73" t="s">
         <v>221</v>
       </c>
@@ -4807,19 +4819,19 @@
         <v>3620511</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="10" t="s">
         <v>251</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="10" t="s">
         <v>249</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
@@ -4855,7 +4867,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -4871,7 +4883,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>127</v>
       </c>
@@ -4889,7 +4901,7 @@
         <v>3833194</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B92" s="104" t="s">
         <v>106</v>
       </c>
@@ -4910,7 +4922,7 @@
         <v>2530133</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B93" s="104" t="s">
         <v>248</v>
       </c>
@@ -4931,7 +4943,7 @@
         <v>829721</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B94" s="104" t="s">
         <v>258</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B95" s="28" t="s">
         <v>247</v>
       </c>
@@ -4962,15 +4974,15 @@
         <v>7.3560847689942116E-2</v>
       </c>
       <c r="E95" s="252">
-        <f>E91*0.03</f>
-        <v>114995.81999999999</v>
+        <f>E91*0.01</f>
+        <v>38331.94</v>
       </c>
       <c r="F95" s="252">
-        <f>F91*0.01</f>
-        <v>38331.94</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <f>F91*0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>110</v>
       </c>
@@ -4988,25 +5000,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B97" s="73" t="s">
         <v>173</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
-        <v>3973.3333333333335</v>
+        <v>3760.2523659305994</v>
       </c>
       <c r="D97" s="159">
         <f>C97/C91</f>
-        <v>1.0365594158118095E-3</v>
+        <v>9.8097105597332122E-4</v>
       </c>
       <c r="E97" s="253"/>
       <c r="F97" s="252">
         <f>F91*D97</f>
-        <v>3973.3333333333335</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+        <v>3760.2523659305989</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
@@ -5094,23 +5106,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -5119,7 +5131,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -5134,7 +5146,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
@@ -5174,7 +5186,7 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
@@ -5195,7 +5207,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -5221,7 +5233,7 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
@@ -5245,8 +5257,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="139" t="s">
         <v>191</v>
       </c>
@@ -5254,7 +5266,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
@@ -5279,7 +5291,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>255</v>
       </c>
@@ -5291,8 +5303,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
@@ -5303,7 +5315,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
@@ -5314,7 +5326,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
@@ -5329,7 +5341,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>256</v>
       </c>
@@ -5338,8 +5350,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="142" t="s">
         <v>184</v>
       </c>
@@ -5354,7 +5366,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="137" t="s">
         <v>245</v>
       </c>
@@ -5380,19 +5392,19 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
-        <v>1.0365594158118095E-3</v>
+        <v>9.8097105597332122E-4</v>
       </c>
       <c r="F22" s="142" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
@@ -5408,7 +5420,7 @@
         <v>1.4775165218634176</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
@@ -5421,32 +5433,32 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.766333440269769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>14.563999336699531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="137" t="s">
         <v>244</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.51106627172460062</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.44393539403966586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
-        <v>0.11237749163404374</v>
+        <v>0.12243307999388223</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
@@ -5456,8 +5468,8 @@
         <v>3.0481695568400771E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -5477,45 +5489,45 @@
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>169</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9880497165451261</v>
+        <v>3.5872234053754544</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.4675726606388242</v>
+        <v>6.3228116428691763</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5153526077001485</v>
+        <v>4.2202628298534757</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.754411009251152</v>
+        <v>5.4980970807558061</v>
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
@@ -5525,7 +5537,7 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>226</v>
@@ -5536,14 +5548,14 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
@@ -5553,7 +5565,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>240</v>
@@ -5563,14 +5575,14 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
@@ -5580,7 +5592,7 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>232</v>
@@ -5590,19 +5602,19 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>231</v>
@@ -5612,886 +5624,886 @@
         <v>Consumer Monopoly</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6560,13 +6572,13 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6574,7 +6586,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6582,7 +6594,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6607,7 +6619,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6621,11 +6633,11 @@
       </c>
       <c r="F3" s="85">
         <f>H14</f>
-        <v>251293</v>
+        <v>253090.17350157729</v>
       </c>
       <c r="G3" s="85">
         <f>C14</f>
-        <v>469366.66666666669</v>
+        <v>469579.74763406941</v>
       </c>
       <c r="H3" s="85">
         <v>6</v>
@@ -6636,7 +6648,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6654,11 +6666,11 @@
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
-        <v>0.10974187866738938</v>
+        <v>0.10850846122502222</v>
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>134</v>
@@ -6708,7 +6720,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6759,7 +6771,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6810,7 +6822,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6861,7 +6873,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6912,7 +6924,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6963,7 +6975,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -7014,42 +7026,42 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>3973.3333333333335</v>
+        <v>3760.2523659305994</v>
       </c>
       <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>40180</v>
+        <v>38025.236593059941</v>
       </c>
       <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>47218.666666666664</v>
+        <v>44686.435331230285</v>
       </c>
       <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>40869.333333333336</v>
+        <v>38677.602523659305</v>
       </c>
       <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>37272</v>
+        <v>35273.186119873819</v>
       </c>
       <c r="H12" s="199">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>33512</v>
+        <v>31714.826498422713</v>
       </c>
       <c r="I12" s="199">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>33462.666666666664</v>
+        <v>31668.13880126183</v>
       </c>
       <c r="J12" s="199">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>21853.333333333332</v>
+        <v>20681.388012618296</v>
       </c>
       <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7065,42 +7077,42 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
-        <v>0.12244792897689673</v>
+        <v>0.12250351733673522</v>
       </c>
       <c r="D13" s="229">
         <f t="shared" si="3"/>
-        <v>0.10321132267317512</v>
+        <v>0.10374104375778445</v>
       </c>
       <c r="E13" s="229">
         <f t="shared" si="3"/>
-        <v>0.10610522195653851</v>
+        <v>0.10676016554922678</v>
       </c>
       <c r="F13" s="229">
         <f t="shared" si="3"/>
-        <v>0.11456072590444162</v>
+        <v>0.11518358072298703</v>
       </c>
       <c r="G13" s="229">
         <f t="shared" si="3"/>
-        <v>9.6927534692389128E-2</v>
+        <v>9.7574864888451018E-2</v>
       </c>
       <c r="H13" s="229">
         <f t="shared" si="3"/>
-        <v>8.3797070055368295E-2</v>
+        <v>8.4396362012618686E-2</v>
       </c>
       <c r="I13" s="229">
         <f t="shared" si="3"/>
-        <v>8.066074234050967E-2</v>
+        <v>8.1279060845364945E-2</v>
       </c>
       <c r="J13" s="229">
         <f t="shared" si="3"/>
-        <v>0.10210166019938617</v>
+        <v>0.1025472828818462</v>
       </c>
       <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
@@ -7116,42 +7128,42 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
-        <v>469366.66666666669</v>
+        <v>469579.74763406941</v>
       </c>
       <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
-        <v>419836</v>
+        <v>421990.76340694004</v>
       </c>
       <c r="E14" s="230">
         <f t="shared" si="4"/>
-        <v>410238.33333333331</v>
+        <v>412770.56466876972</v>
       </c>
       <c r="F14" s="230">
         <f t="shared" si="4"/>
-        <v>403121.66666666669</v>
+        <v>405313.3974763407</v>
       </c>
       <c r="G14" s="230">
         <f t="shared" si="4"/>
-        <v>299291</v>
+        <v>301289.81388012617</v>
       </c>
       <c r="H14" s="230">
         <f t="shared" si="4"/>
-        <v>251293</v>
+        <v>253090.17350157729</v>
       </c>
       <c r="I14" s="230">
         <f t="shared" si="4"/>
-        <v>234099.33333333334</v>
+        <v>235893.86119873816</v>
       </c>
       <c r="J14" s="230">
         <f t="shared" si="4"/>
-        <v>268517.66666666669</v>
+        <v>269689.61198738171</v>
       </c>
       <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
@@ -7167,38 +7179,38 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>0.11797622563731239</v>
+        <v>0.11277257313150643</v>
       </c>
       <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v>2.3395343357316731E-2</v>
+        <v>2.2337345555560939E-2</v>
       </c>
       <c r="E15" s="232">
         <f t="shared" si="5"/>
-        <v>1.7653892745366273E-2</v>
+        <v>1.8398521338945647E-2</v>
       </c>
       <c r="F15" s="232">
         <f t="shared" si="5"/>
-        <v>0.34692211482024748</v>
+        <v>0.34526087110798337</v>
       </c>
       <c r="G15" s="232">
         <f t="shared" si="5"/>
-        <v>0.19100412665693037</v>
+        <v>0.19044453489320673</v>
       </c>
       <c r="H15" s="232">
         <f t="shared" si="5"/>
-        <v>7.3446030032835022E-2</v>
+        <v>7.2898515524960655E-2</v>
       </c>
       <c r="I15" s="232">
         <f t="shared" si="5"/>
-        <v>-0.12817902732656947</v>
+        <v>-0.12531350592111345</v>
       </c>
       <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
@@ -7218,7 +7230,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -7269,7 +7281,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>258</v>
@@ -7320,7 +7332,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -7371,7 +7383,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -7422,7 +7434,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>236</v>
@@ -7473,7 +7485,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -7524,42 +7536,42 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
-        <v>187123.66666666669</v>
+        <v>187336.74763406941</v>
       </c>
       <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
-        <v>-168510</v>
+        <v>-166355.23659305996</v>
       </c>
       <c r="E22" s="161">
         <f t="shared" si="8"/>
-        <v>144546.33333333331</v>
+        <v>147078.56466876972</v>
       </c>
       <c r="F22" s="161">
         <f t="shared" si="8"/>
-        <v>179868.66666666669</v>
+        <v>182060.3974763407</v>
       </c>
       <c r="G22" s="161">
         <f t="shared" si="8"/>
-        <v>38801</v>
+        <v>40799.813880126167</v>
       </c>
       <c r="H22" s="161">
         <f t="shared" si="8"/>
-        <v>53643</v>
+        <v>55440.173501577287</v>
       </c>
       <c r="I22" s="161">
         <f t="shared" si="8"/>
-        <v>-5487.666666666657</v>
+        <v>-3693.1388012618409</v>
       </c>
       <c r="J22" s="161">
         <f t="shared" si="8"/>
-        <v>-177464.33333333331</v>
+        <v>-176292.38801261829</v>
       </c>
       <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
@@ -7575,42 +7587,42 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
-        <v>3.6612482958076217E-2</v>
+        <v>3.8731244100872537E-2</v>
       </c>
       <c r="D23" s="153">
         <f t="shared" si="9"/>
-        <v>-3.1069524737617916E-2</v>
+        <v>-3.2410327179863377E-2</v>
       </c>
       <c r="E23" s="153">
         <f t="shared" si="9"/>
-        <v>2.8039409414859287E-2</v>
+        <v>3.0147352078906769E-2</v>
       </c>
       <c r="F23" s="153">
         <f t="shared" si="9"/>
-        <v>3.8336847268437647E-2</v>
+        <v>4.1002881057346341E-2</v>
       </c>
       <c r="G23" s="153">
         <f t="shared" si="9"/>
-        <v>9.424486386826008E-3</v>
+        <v>1.047154979579186E-2</v>
       </c>
       <c r="H23" s="153">
         <f t="shared" si="9"/>
-        <v>1.3415991180554537E-2</v>
+        <v>1.4651169556906899E-2</v>
       </c>
       <c r="I23" s="153">
         <f t="shared" si="9"/>
-        <v>-1.4181136082743453E-3</v>
+        <v>-1.0084559643120882E-3</v>
       </c>
       <c r="J23" s="153">
         <f t="shared" si="9"/>
-        <v>-5.060952772058306E-2</v>
+        <v>-5.3124244982233199E-2</v>
       </c>
       <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
@@ -7626,42 +7638,42 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
-        <v>140342.75</v>
+        <v>148464.3725</v>
       </c>
       <c r="D24" s="77">
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
-        <v>-126382.5</v>
+        <v>-131836.52500000002</v>
       </c>
       <c r="E24" s="77">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
-        <v>108409.74999999999</v>
+        <v>116559.7625</v>
       </c>
       <c r="F24" s="77">
         <f>IF(F6="","",F22*(1-Fin_Analysis!$I$84))</f>
-        <v>134901.5</v>
+        <v>144282.86499999999</v>
       </c>
       <c r="G24" s="77">
         <f>IF(G6="","",G22*(1-Fin_Analysis!$I$84))</f>
-        <v>29100.75</v>
+        <v>32333.852499999986</v>
       </c>
       <c r="H24" s="77">
         <f>IF(H6="","",H22*(1-Fin_Analysis!$I$84))</f>
-        <v>40232.25</v>
+        <v>43936.337500000001</v>
       </c>
       <c r="I24" s="77">
         <f>IF(I6="","",I22*(1-Fin_Analysis!$I$84))</f>
-        <v>-4115.7499999999927</v>
+        <v>-2926.8125000000086</v>
       </c>
       <c r="J24" s="77">
         <f>IF(J6="","",J22*(1-Fin_Analysis!$I$84))</f>
-        <v>-133098.25</v>
+        <v>-139711.7175</v>
       </c>
       <c r="K24" s="77" t="str">
         <f>IF(K6="","",K22*(1-Fin_Analysis!$I$84))</f>
@@ -7677,7 +7689,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>129</v>
@@ -7692,15 +7704,15 @@
       </c>
       <c r="E25" s="233">
         <f t="shared" si="10"/>
-        <v>-0.19637846873459536</v>
+        <v>-0.19214410872697874</v>
       </c>
       <c r="F25" s="233">
         <f t="shared" si="10"/>
-        <v>3.6356709019526989</v>
+        <v>3.4622849999083796</v>
       </c>
       <c r="G25" s="233">
         <f t="shared" si="10"/>
-        <v>-0.27668102082284735</v>
+        <v>-0.26407492431520979</v>
       </c>
       <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
@@ -7708,7 +7720,7 @@
       </c>
       <c r="I25" s="233">
         <f t="shared" si="10"/>
-        <v>0.96907735451067167</v>
+        <v>0.979051059192655</v>
       </c>
       <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
@@ -7728,7 +7740,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>135</v>
@@ -7779,7 +7791,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7830,7 +7842,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7881,7 +7893,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7932,7 +7944,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>149</v>
@@ -7983,7 +7995,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -8034,7 +8046,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -8085,7 +8097,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -8136,7 +8148,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -8187,7 +8199,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -8238,7 +8250,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>138</v>
@@ -8289,7 +8301,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>139</v>
@@ -8340,7 +8352,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>137</v>
@@ -8391,7 +8403,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>141</v>
@@ -8442,34 +8454,34 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.1618107357935552</v>
+        <v>0.1618841939033181</v>
       </c>
       <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>0.1405660260490238</v>
+        <v>0.1412874661570408</v>
       </c>
       <c r="E40" s="155">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>0.13110166023150394</v>
+        <v>0.1319108964856309</v>
       </c>
       <c r="F40" s="155">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v>0.14199559723416413</v>
+        <v>0.14276761261073659</v>
       </c>
       <c r="G40" s="155">
         <f t="shared" si="33"/>
-        <v>0.12120886904634141</v>
+        <v>0.12201836204761517</v>
       </c>
       <c r="H40" s="155">
         <f t="shared" si="33"/>
-        <v>0.10624998150192529</v>
+        <v>0.10700985006690057</v>
       </c>
       <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
@@ -8493,7 +8505,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>253</v>
@@ -8511,7 +8523,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8562,7 +8574,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>235</v>
@@ -8613,7 +8625,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8664,7 +8676,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8715,42 +8727,42 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.0365594158118095E-3</v>
+        <v>9.8097105597332122E-4</v>
       </c>
       <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>9.8777402247739038E-3</v>
+        <v>9.3480191401645787E-3</v>
       </c>
       <c r="E46" s="153">
         <f t="shared" si="38"/>
-        <v>1.2212771698951764E-2</v>
+        <v>1.1557828106263499E-2</v>
       </c>
       <c r="F46" s="153">
         <f t="shared" si="38"/>
-        <v>1.1614410439934823E-2</v>
+        <v>1.0991555621389423E-2</v>
       </c>
       <c r="G46" s="153">
         <f t="shared" si="38"/>
-        <v>1.2070804244212915E-2</v>
+        <v>1.1423474048151024E-2</v>
       </c>
       <c r="H46" s="153">
         <f t="shared" si="38"/>
-        <v>1.1175032379316186E-2</v>
+        <v>1.0575740422065792E-2</v>
       </c>
       <c r="I46" s="153">
         <f t="shared" si="38"/>
-        <v>1.1529821531713154E-2</v>
+        <v>1.0911503026857875E-2</v>
       </c>
       <c r="J46" s="153">
         <f t="shared" si="38"/>
-        <v>8.3095523729310884E-3</v>
+        <v>7.8639296904710609E-3</v>
       </c>
       <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
@@ -8766,7 +8778,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>237</v>
@@ -8817,42 +8829,42 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>4.8816643944101623E-2</v>
+        <v>4.8872232303940111E-2</v>
       </c>
       <c r="D48" s="153">
         <f t="shared" si="40"/>
-        <v>-4.1426032983490554E-2</v>
+        <v>-4.0896311898881238E-2</v>
       </c>
       <c r="E48" s="153">
         <f t="shared" si="40"/>
-        <v>3.7385879219812387E-2</v>
+        <v>3.8040822812500652E-2</v>
       </c>
       <c r="F48" s="153">
         <f t="shared" si="40"/>
-        <v>5.1115796357916868E-2</v>
+        <v>5.1738651176462265E-2</v>
       </c>
       <c r="G48" s="153">
         <f t="shared" si="40"/>
-        <v>1.2565981849101345E-2</v>
+        <v>1.321331204516323E-2</v>
       </c>
       <c r="H48" s="153">
         <f t="shared" si="40"/>
-        <v>1.7887988240739384E-2</v>
+        <v>1.8487280197989776E-2</v>
       </c>
       <c r="I48" s="153">
         <f t="shared" si="40"/>
-        <v>-1.8908181443657939E-3</v>
+        <v>-1.2724996395105214E-3</v>
       </c>
       <c r="J48" s="153">
         <f t="shared" si="40"/>
-        <v>-6.7479370294110746E-2</v>
+        <v>-6.7033747611650721E-2</v>
       </c>
       <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
@@ -8868,7 +8880,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>150</v>
@@ -8886,7 +8898,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>147</v>
@@ -8937,7 +8949,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>148</v>
@@ -8988,7 +9000,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>125</v>
@@ -9005,7 +9017,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -9055,30 +9067,30 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
       <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>24.49903988827791</v>
+        <v>24.526937370263081</v>
       </c>
       <c r="D54" s="157">
         <f t="shared" si="44"/>
-        <v>-17.424258091200496</v>
+        <v>-17.20145141071864</v>
       </c>
       <c r="E54" s="157">
         <f t="shared" si="44"/>
-        <v>12.892109644428587</v>
+        <v>13.117959745698334</v>
       </c>
       <c r="F54" s="157">
         <f t="shared" si="44"/>
-        <v>10.787373555635522</v>
+        <v>10.918819567970536</v>
       </c>
       <c r="G54" s="157">
         <f t="shared" si="44"/>
-        <v>21.664433277498603</v>
+        <v>22.780465594710311</v>
       </c>
       <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
@@ -9105,30 +9117,30 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
       <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.4428960526995515E-3</v>
+        <v>1.4412548707603233E-3</v>
       </c>
       <c r="D55" s="153">
         <f t="shared" si="45"/>
-        <v>-1.5370007714675686E-3</v>
+        <v>-1.5569092100994012E-3</v>
       </c>
       <c r="E55" s="153">
         <f t="shared" si="45"/>
-        <v>2.5251418806887761E-3</v>
+        <v>2.4816668616667779E-3</v>
       </c>
       <c r="F55" s="153">
         <f t="shared" si="45"/>
-        <v>6.4491499353231795E-4</v>
+        <v>6.3715119602040062E-4</v>
       </c>
       <c r="G55" s="153">
         <f t="shared" si="45"/>
-        <v>1.6494420246900854E-3</v>
+        <v>1.5686346067175269E-3</v>
       </c>
       <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
@@ -9155,7 +9167,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -9205,1260 +9217,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10498,11 +10510,11 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10510,11 +10522,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10530,7 +10542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10554,7 +10566,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10570,7 +10582,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10585,7 +10597,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -10610,7 +10622,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -10633,13 +10645,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10659,7 +10671,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10684,7 +10696,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10712,7 +10724,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
@@ -10740,7 +10752,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
@@ -10768,7 +10780,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10796,7 +10808,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10823,7 +10835,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>159</v>
       </c>
@@ -10845,7 +10857,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
@@ -10867,7 +10879,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10888,7 +10900,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10913,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
@@ -10940,7 +10952,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10961,7 +10973,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10987,7 +10999,7 @@
         <v>797492</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10996,7 +11008,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -11018,7 +11030,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -11047,7 +11059,7 @@
         <v>2.2266181827238594</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -11080,7 +11092,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -11113,7 +11125,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -11143,7 +11155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -11155,7 +11167,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -11181,7 +11193,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -11208,7 +11220,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -11235,7 +11247,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>160</v>
       </c>
@@ -11265,7 +11277,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -11292,7 +11304,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -11318,7 +11330,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -11345,7 +11357,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -11372,7 +11384,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
@@ -11393,7 +11405,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -11414,7 +11426,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11435,7 +11447,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11456,7 +11468,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11482,7 +11494,7 @@
         <v>98092</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11491,7 +11503,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11510,7 +11522,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11529,7 +11541,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11559,7 +11571,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11589,7 +11601,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11616,7 +11628,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11643,20 +11655,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11673,7 +11685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11694,7 +11706,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11703,7 +11715,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>151</v>
       </c>
@@ -11714,7 +11726,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -11729,7 +11741,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -11745,7 +11757,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -11760,7 +11772,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11769,7 +11781,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>154</v>
       </c>
@@ -11783,7 +11795,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11804,7 +11816,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>140</v>
       </c>
@@ -11825,7 +11837,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>142</v>
       </c>
@@ -11846,7 +11858,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
@@ -11861,7 +11873,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>143</v>
       </c>
@@ -11882,7 +11894,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11892,7 +11904,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>155</v>
       </c>
@@ -11906,7 +11918,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>141</v>
       </c>
@@ -11927,7 +11939,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
@@ -11942,7 +11954,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>144</v>
       </c>
@@ -11963,7 +11975,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>128</v>
@@ -11985,7 +11997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -12004,7 +12016,7 @@
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>127</v>
       </c>
@@ -12025,7 +12037,7 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="104" t="s">
         <v>106</v>
       </c>
@@ -12055,7 +12067,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -12076,7 +12088,7 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="104" t="s">
         <v>248</v>
       </c>
@@ -12106,68 +12118,68 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="73" t="s">
         <v>173</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
-        <v>3973.3333333333335</v>
+        <v>3760.2523659305994</v>
       </c>
       <c r="D78" s="159">
         <f>C78/$C$74</f>
-        <v>1.0365594158118095E-3</v>
+        <v>9.8097105597332122E-4</v>
       </c>
       <c r="E78" s="180">
         <f>E74*F78</f>
-        <v>3973.3333333333335</v>
+        <v>3760.2523659305989</v>
       </c>
       <c r="F78" s="160">
         <f>I78</f>
-        <v>1.0365594158118095E-3</v>
+        <v>9.8097105597332122E-4</v>
       </c>
       <c r="H78" s="238">
         <f>Inputs!F97</f>
-        <v>3973.3333333333335</v>
+        <v>3760.2523659305989</v>
       </c>
       <c r="I78" s="160">
         <f>H78/$H$74</f>
-        <v>1.0365594158118095E-3</v>
+        <v>9.8097105597332122E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
-        <v>469366.66666666669</v>
+        <v>469579.74763406941</v>
       </c>
       <c r="D79" s="258">
         <f>C79/C74</f>
-        <v>0.12244792897689673</v>
+        <v>0.12250351733673522</v>
       </c>
       <c r="E79" s="259">
         <f>E76-E77-E78</f>
-        <v>469366.66666666669</v>
+        <v>469579.74763406941</v>
       </c>
       <c r="F79" s="258">
         <f>E79/E74</f>
-        <v>0.12244792897689673</v>
+        <v>0.12250351733673522</v>
       </c>
       <c r="G79" s="260"/>
       <c r="H79" s="259">
         <f>H76-H77-H78</f>
-        <v>469366.66666666669</v>
+        <v>469579.74763406941</v>
       </c>
       <c r="I79" s="258">
         <f>H79/H74</f>
-        <v>0.12244792897689673</v>
+        <v>0.12250351733673522</v>
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>110</v>
       </c>
@@ -12199,7 +12211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="104" t="s">
         <v>258</v>
       </c>
@@ -12229,7 +12241,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="28" t="s">
         <v>247</v>
       </c>
@@ -12243,147 +12255,147 @@
       </c>
       <c r="E82" s="238">
         <f>Inputs!E95</f>
-        <v>114995.81999999999</v>
+        <v>38331.94</v>
       </c>
       <c r="F82" s="160">
         <f>E82/E74</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H82" s="238">
         <f>Inputs!F95</f>
-        <v>38331.94</v>
+        <v>0</v>
       </c>
       <c r="I82" s="160">
         <f>H82/$H$74</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
-        <v>187123.66666666669</v>
+        <v>187336.74763406941</v>
       </c>
       <c r="D83" s="164">
         <f>C83/$C$74</f>
-        <v>4.8816643944101623E-2</v>
+        <v>4.8872232303940111E-2</v>
       </c>
       <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
-        <v>354100.84666666668</v>
+        <v>430977.80763406941</v>
       </c>
       <c r="F83" s="164">
         <f>E83/E74</f>
-        <v>9.237749163404374E-2</v>
+        <v>0.11243307999388223</v>
       </c>
       <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
-        <v>430764.72666666668</v>
+        <v>469309.74763406941</v>
       </c>
       <c r="I83" s="164">
         <f>H83/$H$74</f>
-        <v>0.11237749163404374</v>
+        <v>0.12243307999388223</v>
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
         <f>I84</f>
-        <v>0.25</v>
+        <v>0.20750000000000002</v>
       </c>
       <c r="E84" s="212"/>
       <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
-        <v>0.25</v>
+        <v>0.20750000000000002</v>
       </c>
       <c r="H84" s="212"/>
       <c r="I84" s="202">
         <f>Inputs!C16</f>
-        <v>0.25</v>
+        <v>0.20750000000000002</v>
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
-        <v>140342.75</v>
+        <v>148464.3725</v>
       </c>
       <c r="D85" s="258">
         <f>C85/$C$74</f>
-        <v>3.6612482958076217E-2</v>
+        <v>3.8731244100872537E-2</v>
       </c>
       <c r="E85" s="264">
         <f>E83*(1-F84)</f>
-        <v>265575.63500000001</v>
+        <v>341549.91255000001</v>
       </c>
       <c r="F85" s="258">
         <f>E85/E74</f>
-        <v>6.9283118725532805E-2</v>
+        <v>8.9103215895151675E-2</v>
       </c>
       <c r="G85" s="260"/>
       <c r="H85" s="264">
         <f>H83*(1-I84)</f>
-        <v>323073.54500000004</v>
+        <v>371927.97499999998</v>
       </c>
       <c r="I85" s="258">
         <f>H85/$H$74</f>
-        <v>8.4283118725532818E-2</v>
+        <v>9.7028215895151662E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
-        <v>0.13446765896757154</v>
+        <v>0.14224929047039839</v>
       </c>
       <c r="D86" s="209"/>
       <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>0.25445798886851123</v>
+        <v>0.32725179719776959</v>
       </c>
       <c r="F86" s="209"/>
       <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>0.30954889561808058</v>
+        <v>0.35635815959712541</v>
       </c>
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5908990167162145E-2</v>
+        <v>2.7408341131097955E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9028514232853801E-2</v>
+        <v>6.3054296184541336E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9643332489032863E-2</v>
+        <v>6.8662458496555945E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
@@ -12393,7 +12405,7 @@
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>1.1764910701550311</v>
+        <v>1.1121320849956782</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
@@ -12401,7 +12413,7 @@
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.62171363022816462</v>
+        <v>0.48341980503897514</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
@@ -12409,11 +12421,11 @@
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.51106627172460062</v>
+        <v>0.44393539403966586</v>
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
@@ -12434,11 +12446,11 @@
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12449,7 +12461,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
@@ -12471,7 +12483,7 @@
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -12489,18 +12501,18 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4897282963670309</v>
+        <v>6.1705912451917078</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7437471264686684</v>
+        <v>6.8985366613846217</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
@@ -12528,11 +12540,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12561,31 +12573,31 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2980425.3448493136</v>
+        <v>3579644.6214030678</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2321884567641135</v>
+        <v>3.0678744101446225</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8556574447166261</v>
+        <v>3.4297919356427706</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.6989811624076729</v>
+        <v>4.442667233912327</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>145</v>
       </c>
@@ -12603,7 +12615,7 @@
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="105" t="s">
         <v>146</v>
       </c>
@@ -12624,41 +12636,41 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4081968.4837375572</v>
+        <v>4681187.7602913119</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9880497165451261</v>
+        <v>3.5872234053754544</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1196179238401922</v>
+        <v>3.9553038772207012</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5153526077001485</v>
+        <v>4.2202628298534757</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9110872915601047</v>
+        <v>4.4852217824862501</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.754411009251152</v>
+        <v>5.4980970807558061</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>163</v>
       </c>
@@ -12685,7 +12697,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>162</v>
       </c>
@@ -12715,11 +12727,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>198</v>
       </c>
@@ -12746,40 +12758,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2290371.539375192</v>
+        <v>2726470.6941246497</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0335045741391826</v>
+        <v>2.3330914185543468</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1944909805867074</v>
+        <v>2.6123339572769622</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3923583225166856</v>
+        <v>2.7448134335933494</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5902256644466637</v>
+        <v>2.8772929099097366</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1993198081146756</v>
+        <v>3.5711628438670022</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>166</v>
       </c>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1609323E-9875-BC49-9520-B9FDAE26F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C12D30F-3EC7-4E38-87D1-0CA03524277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,17 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -985,19 +974,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1534,7 +1523,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1590,8 +1579,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1614,14 +1603,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1651,7 +1640,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1753,7 +1742,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1781,7 +1770,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,10 +1823,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1873,7 +1862,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1903,16 +1892,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,7 +1922,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1955,10 +1944,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1967,10 +1956,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1987,7 +1976,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1999,13 +1988,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2043,7 +2032,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,19 +2076,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2124,7 +2113,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2136,10 +2125,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2170,19 +2159,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2180,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2205,7 +2194,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2218,14 +2207,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2421,7 +2410,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2483,7 +2472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2755,7 +2744,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2785,7 +2774,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3597,20 +3586,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
@@ -3618,7 +3607,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
@@ -3626,7 +3615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3634,7 +3623,7 @@
         <v>45591</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3642,7 +3631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
@@ -3651,7 +3640,7 @@
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
@@ -3659,7 +3648,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
@@ -3667,7 +3656,7 @@
         <v>1043691480</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
@@ -3675,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3672,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
@@ -3691,7 +3680,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
@@ -3699,7 +3688,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
         <v>257</v>
       </c>
@@ -3707,7 +3696,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
@@ -3717,7 +3706,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
@@ -3726,7 +3715,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
@@ -3735,7 +3724,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
@@ -3744,7 +3733,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
@@ -3753,7 +3742,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
@@ -3762,7 +3751,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
@@ -3771,7 +3760,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
         <v>134</v>
       </c>
@@ -3820,7 +3809,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
@@ -3852,7 +3841,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
@@ -3884,7 +3873,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
@@ -3916,7 +3905,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
@@ -3932,7 +3921,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
@@ -3964,7 +3953,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
@@ -3996,7 +3985,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
@@ -4028,7 +4017,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
@@ -4060,7 +4049,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
@@ -4092,7 +4081,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
@@ -4122,7 +4111,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
@@ -4152,7 +4141,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4182,7 +4171,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
@@ -4208,7 +4197,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
@@ -4234,7 +4223,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
@@ -4260,7 +4249,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
@@ -4286,7 +4275,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
@@ -4312,7 +4301,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
@@ -4338,7 +4327,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
@@ -4364,7 +4353,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
@@ -4382,13 +4371,13 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>254</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0481695568400771E-2</v>
+        <v>3.030651340996169E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4431,7 +4420,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>250</v>
       </c>
@@ -4445,7 +4434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4457,7 +4446,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
@@ -4467,7 +4456,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4480,7 +4469,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4492,7 +4481,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4502,7 +4491,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4513,7 +4502,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
@@ -4525,7 +4514,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4538,7 +4527,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4551,7 +4540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
@@ -4563,7 +4552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4576,7 +4565,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>51</v>
       </c>
@@ -4587,7 +4576,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
@@ -4598,7 +4587,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4611,7 +4600,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
@@ -4622,7 +4611,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>160</v>
       </c>
@@ -4633,7 +4622,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
@@ -4643,7 +4632,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4657,7 +4646,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4669,7 +4658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4682,7 +4671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
@@ -4695,7 +4684,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -4706,7 +4695,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
@@ -4718,7 +4707,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4731,7 +4720,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
@@ -4743,13 +4732,13 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>40</v>
       </c>
@@ -4757,19 +4746,19 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
@@ -4777,13 +4766,13 @@
         <v>803015</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
@@ -4791,19 +4780,19 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>85</v>
       </c>
@@ -4811,7 +4800,7 @@
         <v>100207</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>221</v>
       </c>
@@ -4819,19 +4808,19 @@
         <v>3620511</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
         <v>251</v>
       </c>
@@ -4839,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
         <v>249</v>
       </c>
@@ -4850,7 +4839,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
@@ -4867,7 +4856,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -4883,7 +4872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>127</v>
       </c>
@@ -4901,7 +4890,7 @@
         <v>3833194</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
         <v>106</v>
       </c>
@@ -4922,7 +4911,7 @@
         <v>2530133</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
         <v>248</v>
       </c>
@@ -4943,7 +4932,7 @@
         <v>829721</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
         <v>258</v>
       </c>
@@ -4961,7 +4950,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
         <v>247</v>
       </c>
@@ -4982,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>110</v>
       </c>
@@ -5000,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
         <v>173</v>
       </c>
@@ -5018,7 +5007,7 @@
         <v>3760.2523659305989</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
@@ -5110,19 +5099,19 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -5131,7 +5120,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -5146,7 +5135,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
@@ -5160,13 +5149,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
@@ -5186,7 +5175,7 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
@@ -5201,13 +5190,13 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5416.7587812000011</v>
+        <v>5448.069525599999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -5233,7 +5222,7 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
@@ -5257,8 +5246,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
         <v>191</v>
       </c>
@@ -5266,7 +5255,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
@@ -5277,7 +5266,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
@@ -5291,7 +5280,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
         <v>255</v>
       </c>
@@ -5303,8 +5292,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
@@ -5315,7 +5304,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
@@ -5326,7 +5315,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
@@ -5341,7 +5330,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
         <v>256</v>
       </c>
@@ -5350,8 +5339,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
         <v>184</v>
       </c>
@@ -5366,7 +5355,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
@@ -5381,7 +5370,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
         <v>245</v>
       </c>
@@ -5392,7 +5381,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
@@ -5404,7 +5393,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
@@ -5417,10 +5406,10 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4775165218634176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.486057079793264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
@@ -5433,10 +5422,10 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.563999336699531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14.648184303963689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>244</v>
       </c>
@@ -5452,7 +5441,7 @@
         <v>0.44393539403966586</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
@@ -5465,11 +5454,11 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0481695568400771E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.030651340996169E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -5489,45 +5478,45 @@
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
         <v>169</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5872234053754544</v>
+        <v>3.5819960589157436</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.3228116428691763</v>
+        <v>6.3129565542103983</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.2202628298534757</v>
+        <v>4.2141130104891102</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.4980970807558061</v>
+        <v>5.4895274384438251</v>
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
@@ -5537,7 +5526,7 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>226</v>
@@ -5548,14 +5537,14 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
@@ -5565,7 +5554,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>240</v>
@@ -5575,14 +5564,14 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
@@ -5592,7 +5581,7 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>232</v>
@@ -5602,19 +5591,19 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>231</v>
@@ -5624,886 +5613,886 @@
         <v>Consumer Monopoly</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6578,7 +6567,7 @@
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6586,7 +6575,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6594,7 +6583,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6619,7 +6608,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6648,7 +6637,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6670,7 +6659,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>134</v>
@@ -6720,7 +6709,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6771,7 +6760,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6822,7 +6811,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6873,7 +6862,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6924,7 +6913,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6975,7 +6964,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -7026,7 +7015,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>241</v>
@@ -7077,7 +7066,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>242</v>
@@ -7128,7 +7117,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>234</v>
@@ -7179,7 +7168,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>243</v>
@@ -7230,7 +7219,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -7281,7 +7270,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>258</v>
@@ -7332,7 +7321,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -7383,7 +7372,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -7434,7 +7423,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>236</v>
@@ -7485,7 +7474,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -7536,7 +7525,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
@@ -7587,7 +7576,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
@@ -7638,7 +7627,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
@@ -7689,7 +7678,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>129</v>
@@ -7740,7 +7729,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>135</v>
@@ -7791,7 +7780,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7842,7 +7831,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7893,7 +7882,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7944,7 +7933,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>149</v>
@@ -7995,7 +7984,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -8046,7 +8035,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -8097,7 +8086,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -8148,7 +8137,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -8199,7 +8188,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -8250,7 +8239,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>138</v>
@@ -8301,7 +8290,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>139</v>
@@ -8352,7 +8341,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>137</v>
@@ -8403,7 +8392,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>141</v>
@@ -8454,7 +8443,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>158</v>
@@ -8505,7 +8494,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>253</v>
@@ -8523,7 +8512,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8574,7 +8563,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>235</v>
@@ -8625,7 +8614,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8676,7 +8665,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8727,7 +8716,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>130</v>
@@ -8778,7 +8767,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>237</v>
@@ -8829,7 +8818,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>124</v>
@@ -8880,7 +8869,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>150</v>
@@ -8898,7 +8887,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>147</v>
@@ -8949,7 +8938,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>148</v>
@@ -9000,7 +8989,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>125</v>
@@ -9017,7 +9006,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -9067,7 +9056,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
@@ -9117,7 +9106,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
@@ -9167,7 +9156,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -9217,1260 +9206,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10514,7 +10503,7 @@
       <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10522,11 +10511,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10542,7 +10531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10566,7 +10555,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10582,7 +10571,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10597,18 +10586,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1101543.1388882438</v>
+        <v>1101153.5784193897</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69953467507148037</v>
+        <v>0.69964093456211796</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10622,14 +10611,14 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0554298468434791</v>
+        <v>1.0550565943293795</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10645,13 +10634,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10671,7 +10660,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10696,7 +10685,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10724,7 +10713,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
@@ -10752,7 +10741,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
@@ -10780,7 +10769,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10808,7 +10797,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10835,7 +10824,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>159</v>
       </c>
@@ -10857,7 +10846,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
@@ -10879,7 +10868,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10900,7 +10889,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10925,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
@@ -10952,7 +10941,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10973,7 +10962,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10999,7 +10988,7 @@
         <v>797492</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -11008,7 +10997,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -11030,7 +11019,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -11059,7 +11048,7 @@
         <v>2.2266181827238594</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -11092,7 +11081,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -11125,7 +11114,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -11155,7 +11144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -11167,7 +11156,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -11193,7 +11182,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -11220,7 +11209,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -11247,7 +11236,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>160</v>
       </c>
@@ -11277,7 +11266,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -11304,7 +11293,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -11330,7 +11319,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -11357,7 +11346,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -11384,7 +11373,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
@@ -11405,7 +11394,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -11426,7 +11415,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11447,7 +11436,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11468,7 +11457,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11494,7 +11483,7 @@
         <v>98092</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11503,7 +11492,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11522,7 +11511,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11541,7 +11530,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11571,7 +11560,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11601,7 +11590,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11628,7 +11617,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11655,20 +11644,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11685,7 +11674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11695,18 +11684,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4775165218634176</v>
+        <v>1.486057079793264</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>67393.961111756071</v>
+        <v>67783.521580610148</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11715,7 +11704,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>151</v>
       </c>
@@ -11726,7 +11715,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -11741,7 +11730,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -11757,7 +11746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -11772,7 +11761,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11781,7 +11770,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>154</v>
       </c>
@@ -11795,7 +11784,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11816,7 +11805,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>140</v>
       </c>
@@ -11837,7 +11826,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>142</v>
       </c>
@@ -11858,7 +11847,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11862,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>143</v>
       </c>
@@ -11894,7 +11883,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11904,7 +11893,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>155</v>
       </c>
@@ -11918,7 +11907,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>141</v>
       </c>
@@ -11939,7 +11928,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
@@ -11954,7 +11943,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>144</v>
       </c>
@@ -11975,7 +11964,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>128</v>
@@ -11997,7 +11986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -12016,7 +12005,7 @@
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>127</v>
       </c>
@@ -12037,7 +12026,7 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
         <v>106</v>
       </c>
@@ -12067,7 +12056,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -12088,7 +12077,7 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
         <v>248</v>
       </c>
@@ -12118,7 +12107,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
         <v>173</v>
       </c>
@@ -12148,7 +12137,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
@@ -12179,7 +12168,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>110</v>
       </c>
@@ -12211,7 +12200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
         <v>258</v>
       </c>
@@ -12241,7 +12230,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
         <v>247</v>
       </c>
@@ -12271,7 +12260,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
@@ -12301,7 +12290,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
@@ -12322,7 +12311,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
@@ -12353,7 +12342,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
@@ -12374,28 +12363,28 @@
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7408341131097955E-2</v>
+        <v>2.7250821929195094E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3054296184541336E-2</v>
+        <v>6.2691915171986509E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8662458496555945E-2</v>
+        <v>6.8267846666115989E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
@@ -12425,32 +12414,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0481695568400771E-2</v>
+        <v>3.030651340996169E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0481695568400771E-2</v>
+        <v>3.030651340996169E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0481695568400771E-2</v>
+        <v>3.030651340996169E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12461,7 +12450,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
@@ -12483,7 +12472,7 @@
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -12501,18 +12490,18 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.1705912451917078</v>
+        <v>6.1600810524650527</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8985366613846217</v>
+        <v>6.8858093756045671</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
@@ -12529,22 +12518,22 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5531444800441951</v>
+        <v>2.5509750416245867</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5531444800441951</v>
+        <v>2.5509750416245867</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12573,49 +12562,49 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3579644.6214030678</v>
+        <v>3573040.4439776358</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.0678744101446225</v>
+        <v>3.0626489868374285</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4297919356427706</v>
+        <v>3.4234642252494347</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.442667233912327</v>
+        <v>4.4344708441144451</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
         <v>145</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>67393.961111756071</v>
+        <v>67783.521580610148</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.457268493918919E-2</v>
+        <v>6.4945937453288541E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
         <v>146</v>
       </c>
@@ -12636,41 +12625,41 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4681187.7602913119</v>
+        <v>4674194.0223970255</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5872234053754544</v>
+        <v>3.5819960589157436</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9553038772207012</v>
+        <v>3.9497052013994076</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.2202628298534757</v>
+        <v>4.2141130104891102</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4852217824862501</v>
+        <v>4.4785208195788133</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.4980970807558061</v>
+        <v>5.4895274384438251</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>163</v>
       </c>
@@ -12697,41 +12686,41 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1324824.4307830865</v>
+        <v>1323698.7110904325</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0789594317332392</v>
+        <v>1.0780426265689815</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2693640373332227</v>
+        <v>1.2682854430223311</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2693640373332227</v>
+        <v>1.2682854430223311</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2693640373332227</v>
+        <v>1.2682854430223311</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6442286069781988</v>
+        <v>1.6428314856094401</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
         <v>198</v>
       </c>
@@ -12758,40 +12747,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2726470.6941246497</v>
+        <v>2722986.1891513392</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3330914185543468</v>
+        <v>2.3300193427423626</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.6123339572769622</v>
+        <v>2.6089953222108693</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7448134335933494</v>
+        <v>2.7411992267557208</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.8772929099097366</v>
+        <v>2.8734031313005723</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.5711628438670022</v>
+        <v>3.5661794620266325</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>166</v>
       </c>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C12D30F-3EC7-4E38-87D1-0CA03524277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{051FB57C-2C46-467D-B12F-5E7B71185571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1475.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>C0002</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3582,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3604,7 +3612,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3612,7 +3620,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3636,7 +3644,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3645,7 +3653,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3693,7 +3701,7 @@
         <v>257</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3711,7 +3719,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3729,7 +3737,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3738,7 +3746,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3747,7 +3755,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3756,7 +3764,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4377,7 +4385,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.030651340996169E-2</v>
+        <v>2.9962121212121211E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4504,7 +4512,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59">
         <v>63587</v>
@@ -4624,7 +4632,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -5095,8 +5103,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5149,10 +5157,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.22</v>
+        <v>5.28</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5190,7 +5198,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5448.069525599999</v>
+        <v>5510.6910144000003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5285,10 +5293,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5335,7 +5343,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5406,7 +5414,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.486057079793264</v>
+        <v>1.5031381956529566</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5422,7 +5430,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.648184303963689</v>
+        <v>14.816554238492008</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5454,7 +5462,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.030651340996169E-2</v>
+        <v>2.9962121212121211E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5484,20 +5492,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5819960589157436</v>
+        <v>4.0938796607833101</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.3129565542103983</v>
+        <v>7.588167499958848</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.2141130104891102</v>
+        <v>4.8163290126862472</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.4895274384438251</v>
+        <v>6.598406521703347</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -6561,10 +6569,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10499,8 +10507,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10593,11 +10601,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1101153.5784193897</v>
+        <v>1100374.4574816816</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69964093456211796</v>
+        <v>0.69985345354339312</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10618,7 +10626,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0550565943293795</v>
+        <v>1.0543100893011808</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11684,11 +11692,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.486057079793264</v>
+        <v>1.5031381956529564</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>67783.521580610148</v>
+        <v>68562.642518318302</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12369,17 +12377,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7250821929195094E-2</v>
+        <v>2.6941153498181512E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2691915171986509E-2</v>
+        <v>6.1979507045032113E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8267846666115989E-2</v>
+        <v>6.7492075681273744E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12420,17 +12428,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.030651340996169E-2</v>
+        <v>2.9962121212121211E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.030651340996169E-2</v>
+        <v>2.9962121212121211E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.030651340996169E-2</v>
+        <v>2.9962121212121211E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12479,7 +12487,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12490,14 +12498,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.1600810524650527</v>
+        <v>7.3064656518849755</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8858093756045671</v>
+        <v>8.1649707215860392</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12518,14 +12526,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5509750416245867</v>
+        <v>3.030800634762199</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5509750416245867</v>
+        <v>3.030800634762199</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12568,21 +12576,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3573040.4439776358</v>
+        <v>4236796.1441800371</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.0626489868374285</v>
+        <v>3.6326047393732637</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4234642252494347</v>
+        <v>4.0594334871642692</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.4344708441144451</v>
+        <v>5.5440964324021662</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12592,14 +12600,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>67783.521580610148</v>
+        <v>68562.642518318302</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.4945937453288541E-2</v>
+        <v>6.5692442481487243E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12631,27 +12639,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4674194.0223970255</v>
+        <v>5337170.6016617185</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5819960589157436</v>
+        <v>4.0938796607833101</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9497052013994076</v>
+        <v>4.5189144489070445</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.2141130104891102</v>
+        <v>4.8163290126862472</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4785208195788133</v>
+        <v>5.11374357646545</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.4895274384438251</v>
+        <v>6.598406521703347</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12692,27 +12700,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1323698.7110904325</v>
+        <v>1572679.7904113687</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0780426265689815</v>
+        <v>1.2808170301913966</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2682854430223311</v>
+        <v>1.5068435649310548</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2682854430223311</v>
+        <v>1.5068435649310548</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2682854430223311</v>
+        <v>1.5068435649310548</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6428314856094401</v>
+        <v>2.0579438138197448</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12753,27 +12761,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2722986.1891513392</v>
+        <v>3144516.1497922731</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3300193427423626</v>
+        <v>2.6873483454873535</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.6089953222108693</v>
+        <v>3.0128790069190496</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7411992267557208</v>
+        <v>3.161586288808651</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.8734031313005723</v>
+        <v>3.3102935706982524</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.5661794620266325</v>
+        <v>4.3281751677615459</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{051FB57C-2C46-467D-B12F-5E7B71185571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2E8F0A-24F2-4E9B-92AE-83A800A0380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3590,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3612,7 +3616,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3620,7 +3624,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3653,7 +3657,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3719,7 +3723,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3737,7 +3741,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3746,7 +3750,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3755,7 +3759,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3764,7 +3768,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4385,7 +4389,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9962121212121211E-2</v>
+        <v>2.9681050656660414E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5157,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.28</v>
+        <v>5.33</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5202,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5510.6910144000003</v>
+        <v>5562.8755883999993</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5268,7 +5272,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5279,7 +5283,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5306,7 +5310,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5414,7 +5418,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5031381956529566</v>
+        <v>1.5173724588693671</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5430,7 +5434,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.816554238492008</v>
+        <v>14.956862517265607</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5462,7 +5466,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9962121212121211E-2</v>
+        <v>2.9681050656660414E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5492,20 +5496,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0938796607833101</v>
+        <v>4.0840190676812069</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.588167499958848</v>
+        <v>7.5685672128926615</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8163290126862472</v>
+        <v>4.8047283149190676</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.598406521703347</v>
+        <v>6.5813627938197063</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5540,8 +5544,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6567,12 +6571,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8998,118 +9002,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>0.90436944119929397</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>-0.31732846070199655</v>
+      </c>
+      <c r="E52" s="153">
+        <f t="shared" si="43"/>
+        <v>-0.24522285661663137</v>
+      </c>
+      <c r="F52" s="153">
+        <f t="shared" si="43"/>
+        <v>-0.32002755958484314</v>
+      </c>
+      <c r="G52" s="153">
+        <f t="shared" si="43"/>
+        <v>-2.0781423898013558</v>
+      </c>
+      <c r="H52" s="153">
+        <f t="shared" si="43"/>
+        <v>-0.61129695413072072</v>
+      </c>
+      <c r="I52" s="153">
+        <f t="shared" si="43"/>
+        <v>-4.8148447309869807E-2</v>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.19766986347718032</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.21543286092524916</v>
       </c>
-      <c r="E53" s="156">
-        <f t="shared" si="43"/>
+      <c r="E54" s="156">
+        <f t="shared" si="44"/>
         <v>0.21737674703003232</v>
       </c>
-      <c r="F53" s="156">
-        <f t="shared" si="43"/>
+      <c r="F54" s="156">
+        <f t="shared" si="44"/>
         <v>0.22004620095970678</v>
       </c>
-      <c r="G53" s="156">
-        <f t="shared" si="43"/>
+      <c r="G54" s="156">
+        <f t="shared" si="44"/>
         <v>0.19888345313804912</v>
       </c>
-      <c r="H53" s="156">
-        <f t="shared" si="43"/>
+      <c r="H54" s="156">
+        <f t="shared" si="44"/>
         <v>0.19107288948809867</v>
       </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>24.526937370263081</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>-17.20145141071864</v>
-      </c>
-      <c r="E54" s="157">
+        <v/>
+      </c>
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>13.117959745698334</v>
-      </c>
-      <c r="F54" s="157">
+        <v/>
+      </c>
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>10.918819567970536</v>
-      </c>
-      <c r="G54" s="157">
+        <v/>
+      </c>
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>22.780465594710311</v>
-      </c>
-      <c r="H54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v>-</v>
-      </c>
-      <c r="I54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -9117,107 +9122,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.4412548707603233E-3</v>
-      </c>
-      <c r="D55" s="153">
+        <v>121</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>24.526937370263081</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>-1.5569092100994012E-3</v>
-      </c>
-      <c r="E55" s="153">
+        <v>-17.20145141071864</v>
+      </c>
+      <c r="E55" s="157">
         <f t="shared" si="45"/>
-        <v>2.4816668616667779E-3</v>
-      </c>
-      <c r="F55" s="153">
+        <v>13.117959745698334</v>
+      </c>
+      <c r="F55" s="157">
         <f t="shared" si="45"/>
-        <v>6.3715119602040062E-4</v>
-      </c>
-      <c r="G55" s="153">
+        <v>10.918819567970536</v>
+      </c>
+      <c r="G55" s="157">
         <f t="shared" si="45"/>
-        <v>1.5686346067175269E-3</v>
-      </c>
-      <c r="H55" s="153" t="str">
+        <v>22.780465594710311</v>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
-      </c>
-      <c r="J55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
-      </c>
-      <c r="K55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.4412548707603233E-3</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-1.5569092100994012E-3</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>2.4816668616667779E-3</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>6.3715119602040062E-4</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.5686346067175269E-3</v>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v>-</v>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v>-</v>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v>-</v>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>3.0168041692869996</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>2.7942400285655307</v>
       </c>
-      <c r="E56" s="158">
-        <f t="shared" si="46"/>
+      <c r="E57" s="158">
+        <f t="shared" si="47"/>
         <v>2.9317232378441278</v>
       </c>
-      <c r="F56" s="158">
-        <f t="shared" si="46"/>
+      <c r="F57" s="158">
+        <f t="shared" si="47"/>
         <v>3.0944307449985029</v>
       </c>
-      <c r="G56" s="158">
-        <f t="shared" si="46"/>
+      <c r="G57" s="158">
+        <f t="shared" si="47"/>
         <v>3.4859449249150689</v>
       </c>
-      <c r="H56" s="158">
-        <f t="shared" si="46"/>
+      <c r="H57" s="158">
+        <f t="shared" si="47"/>
         <v>3.6713486815660423</v>
       </c>
-      <c r="I56" s="158" t="e">
-        <f t="shared" si="46"/>
+      <c r="I57" s="158" t="e">
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J56" s="158" t="e">
-        <f t="shared" si="46"/>
+      <c r="J57" s="158" t="e">
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9785,7 +9837,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10468,6 +10522,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10601,11 +10656,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1100374.4574816816</v>
+        <v>1099725.1900335914</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.69985345354339312</v>
+        <v>0.70003055269445569</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10626,7 +10681,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0543100893011808</v>
+        <v>1.0536880017776817</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11692,11 +11747,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5031381956529564</v>
+        <v>1.5173724588693669</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>68562.642518318302</v>
+        <v>69211.909966408435</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12377,17 +12432,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6941153498181512E-2</v>
+        <v>2.668842222709163E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1979507045032113E-2</v>
+        <v>6.1398085778193168E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7492075681273744E-2</v>
+        <v>6.6858941763062923E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12428,17 +12483,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9962121212121211E-2</v>
+        <v>2.9681050656660414E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9962121212121211E-2</v>
+        <v>2.9681050656660414E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9962121212121211E-2</v>
+        <v>2.9681050656660414E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12498,14 +12553,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3064656518849755</v>
+        <v>7.2864865212797962</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1649707215860392</v>
+        <v>8.140786038946441</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12526,14 +12581,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.030800634762199</v>
+        <v>3.026667453612462</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.030800634762199</v>
+        <v>3.026667453612462</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12576,21 +12631,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4236796.1441800371</v>
+        <v>4224246.7335759336</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6326047393732637</v>
+        <v>3.6226715804448824</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.0594334871642692</v>
+        <v>4.0474094256052888</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.5440964324021662</v>
+        <v>5.5276747920420242</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12600,14 +12655,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>68562.642518318302</v>
+        <v>69211.909966408435</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.5692442481487243E-2</v>
+        <v>6.6314530004986175E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12639,27 +12694,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>5337170.6016617185</v>
+        <v>5323971.923609525</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0938796607833101</v>
+        <v>4.0840190676812069</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.5189144489070445</v>
+        <v>4.5083592024551642</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.8163290126862472</v>
+        <v>4.8047283149190676</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.11374357646545</v>
+        <v>5.1010974273829701</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>6.598406521703347</v>
+        <v>6.5813627938197063</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12700,27 +12755,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1572679.7904113687</v>
+        <v>1570535.0863388716</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2808170301913966</v>
+        <v>1.2790703469075373</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5068435649310548</v>
+        <v>1.5047886434206321</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5068435649310548</v>
+        <v>1.5047886434206321</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5068435649310548</v>
+        <v>1.5047886434206321</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0579438138197448</v>
+        <v>2.0551373426579871</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12761,27 +12816,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>3144516.1497922731</v>
+        <v>3137935.5873604608</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6873483454873535</v>
+        <v>2.6815447072943721</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.0128790069190496</v>
+        <v>3.006573922937898</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.161586288808651</v>
+        <v>3.1547584791698497</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.3102935706982524</v>
+        <v>3.302943035401801</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.3281751677615459</v>
+        <v>4.3182500682388465</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2E8F0A-24F2-4E9B-92AE-83A800A0380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05459028-E915-4325-AE6B-3877D3042C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9681050656660414E-2</v>
+        <v>2.9570093457943928E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.33</v>
+        <v>5.35</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5562.8755883999993</v>
+        <v>5583.7494180000003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5173724588693671</v>
+        <v>1.5230661641559313</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.956862517265607</v>
+        <v>15.012985828775046</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9681050656660414E-2</v>
+        <v>2.9570093457943928E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5496,20 +5496,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0840190676812069</v>
+        <v>4.0801295514012343</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.5685672128926615</v>
+        <v>7.5608382663318698</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8047283149190676</v>
+        <v>4.8001524134132172</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.5813627938197063</v>
+        <v>6.5746419707233654</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10562,8 +10562,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10656,11 +10656,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1099725.1900335914</v>
+        <v>1099465.4830543553</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70003055269445569</v>
+        <v>0.70010139235488067</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10681,7 +10681,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0536880017776817</v>
+        <v>1.0534391667682821</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11747,11 +11747,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5173724588693669</v>
+        <v>1.5230661641559313</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>69211.909966408435</v>
+        <v>69471.616945644491</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12432,17 +12432,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.668842222709163E-2</v>
+        <v>2.6588652424373534E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1398085778193168E-2</v>
+        <v>6.1168560223882174E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6858941763062923E-2</v>
+        <v>6.6609001793855219E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12483,17 +12483,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9681050656660414E-2</v>
+        <v>2.9570093457943928E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9681050656660414E-2</v>
+        <v>2.9570093457943928E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9681050656660414E-2</v>
+        <v>2.9570093457943928E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12553,14 +12553,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2864865212797962</v>
+        <v>7.278611475554194</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.140786038946441</v>
+        <v>8.1312545320751894</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12581,14 +12581,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.026667453612462</v>
+        <v>3.0250370547025818</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.026667453612462</v>
+        <v>3.0250370547025818</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12631,21 +12631,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4224246.7335759336</v>
+        <v>4219300.8430225747</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6226715804448824</v>
+        <v>3.6187562909207025</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.0474094256052888</v>
+        <v>4.0426705821365667</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.5276747920420242</v>
+        <v>5.5212028039550836</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12654,15 +12654,15 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>69211.909966408435</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-69471.616945644491</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.6314530004986175E-2</v>
+        <v>-6.6563365014385756E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12693,28 +12693,28 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>5323971.923609525</v>
+        <f>C97+C98+$C$99</f>
+        <v>5318766.3260769304</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0840190676812069</v>
+        <v>4.0801295514012343</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>4.5083592024551642</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>4.5041950779215849</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.8047283149190676</v>
+        <v>4.8001524134132172</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.1010974273829701</v>
+        <v>5.0961097489048486</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>6.5813627938197063</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>6.5746419707233654</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12755,27 +12755,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1570535.0863388716</v>
+        <v>1569689.0737749082</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2790703469075373</v>
+        <v>1.2783813399613764</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5047886434206321</v>
+        <v>1.5039780470133839</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5047886434206321</v>
+        <v>1.5039780470133839</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5047886434206321</v>
+        <v>1.5039780470133839</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0551373426579871</v>
+        <v>2.0540302855615344</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12816,27 +12816,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>3137935.5873604608</v>
+        <v>3135339.550429801</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6815447072943721</v>
+        <v>2.6792554456813056</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.006573922937898</v>
+        <v>3.0040865624674842</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1547584791698497</v>
+        <v>3.1520652302133003</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.302943035401801</v>
+        <v>3.3000438979591165</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.3182500682388465</v>
+        <v>4.3143361281424504</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05459028-E915-4325-AE6B-3877D3042C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DF6805-9FAB-427A-9953-F53CA42FE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9570093457943928E-2</v>
+        <v>2.9080882352941175E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5583.7494180000003</v>
+        <v>5677.6816512000005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5230661641559313</v>
+        <v>1.5486878379454705</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.012985828775046</v>
+        <v>15.265540730567524</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9570093457943928E-2</v>
+        <v>2.9080882352941175E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5496,20 +5496,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0801295514012343</v>
+        <v>4.0630010280922617</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.5608382663318698</v>
+        <v>7.5268183270707398</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8001524134132172</v>
+        <v>4.7800012095203082</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.5746419707233654</v>
+        <v>6.5450594148441219</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10656,11 +10656,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1099465.4830543553</v>
+        <v>1098296.801647793</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70010139235488067</v>
+        <v>0.70042017082679342</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10681,7 +10681,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0534391667682821</v>
+        <v>1.0523194092259842</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11747,11 +11747,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5230661641559313</v>
+        <v>1.5486878379454707</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>69471.616945644491</v>
+        <v>70640.298352206752</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12432,17 +12432,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6588652424373534E-2</v>
+        <v>2.6148766630587936E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1168560223882174E-2</v>
+        <v>6.0156580367237054E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6609001793855219E-2</v>
+        <v>6.5507014631824526E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12483,17 +12483,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9570093457943928E-2</v>
+        <v>2.9080882352941175E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9570093457943928E-2</v>
+        <v>2.9080882352941175E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9570093457943928E-2</v>
+        <v>2.9080882352941175E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12553,14 +12553,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.278611475554194</v>
+        <v>7.2439714894694216</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1312545320751894</v>
+        <v>8.0893364453483176</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12581,14 +12581,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0250370547025818</v>
+        <v>3.0178569897666088</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0250370547025818</v>
+        <v>3.0178569897666088</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12631,21 +12631,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4219300.8430225747</v>
+        <v>4197549.5845953654</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6187562909207025</v>
+        <v>3.6015340957282973</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.0426705821365667</v>
+        <v>4.02182988462775</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.5212028039550836</v>
+        <v>5.4927400056181375</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12655,14 +12655,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-69471.616945644491</v>
+        <v>-70640.298352206752</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.6563365014385756E-2</v>
+        <v>-6.768312255668385E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12694,27 +12694,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>5318766.3260769304</v>
+        <v>5295846.386243159</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0801295514012343</v>
+        <v>4.0630010280922617</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.5041950779215849</v>
+        <v>4.4858531251868818</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.8001524134132172</v>
+        <v>4.7800012095203082</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.0961097489048486</v>
+        <v>5.0741492938537345</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.5746419707233654</v>
+        <v>6.5450594148441219</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12755,27 +12755,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1569689.0737749082</v>
+        <v>1565963.3443788101</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2783813399613764</v>
+        <v>1.275347042903894</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5039780470133839</v>
+        <v>1.5004082857692871</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5039780470133839</v>
+        <v>1.5004082857692871</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5039780470133839</v>
+        <v>1.5004082857692871</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0540302855615344</v>
+        <v>2.0491549499659389</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12816,27 +12816,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>3135339.550429801</v>
+        <v>3123905.0158338663</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6792554456813056</v>
+        <v>2.6691740354980777</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.0040865624674842</v>
+        <v>2.9931307054780847</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1520652302133003</v>
+        <v>3.1402047476447974</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.3000438979591165</v>
+        <v>3.287278789811511</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.3143361281424504</v>
+        <v>4.2971071824050302</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DF6805-9FAB-427A-9953-F53CA42FE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FDEC6B-FDFC-4E47-A92E-A405B144D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9080882352941175E-2</v>
+        <v>2.886861313868613E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.44</v>
+        <v>5.48</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5677.6816512000005</v>
+        <v>5719.4293104000008</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5297,10 +5297,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5347,7 +5347,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5486878379454705</v>
+        <v>1.5600752485185991</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.265540730567524</v>
+        <v>15.377787353586404</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9080882352941175E-2</v>
+        <v>2.886861313868613E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5496,20 +5496,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0630010280922617</v>
+        <v>3.7749849912579676</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.5268183270707398</v>
+        <v>6.8143496025297869</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7800012095203082</v>
+        <v>4.4411588132446678</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.5450594148441219</v>
+        <v>5.9255213935041633</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10656,11 +10656,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1098296.801647793</v>
+        <v>1097777.3876893211</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70042017082679342</v>
+        <v>0.70056185014764338</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10681,7 +10681,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0523194092259842</v>
+        <v>1.0518217392071851</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11747,11 +11747,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5486878379454707</v>
+        <v>1.5600752485185991</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>70640.298352206752</v>
+        <v>71159.712310678864</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12432,17 +12432,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6148766630587936E-2</v>
+        <v>2.5957899720875616E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0156580367237054E-2</v>
+        <v>5.9717481240468898E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5507014631824526E-2</v>
+        <v>6.5028861240351343E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12483,17 +12483,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9080882352941175E-2</v>
+        <v>2.886861313868613E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9080882352941175E-2</v>
+        <v>2.886861313868613E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9080882352941175E-2</v>
+        <v>2.886861313868613E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12553,14 +12553,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2439714894694216</v>
+        <v>6.6015611508283678</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0893364453483176</v>
+        <v>7.3706825899705377</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12581,14 +12581,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0178569897666088</v>
+        <v>2.7530886141141768</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0178569897666088</v>
+        <v>2.7530886141141768</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12631,21 +12631,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4197549.5845953654</v>
+        <v>3824640.7295256136</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6015340957282973</v>
+        <v>3.2821426208408693</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.02182988462775</v>
+        <v>3.6645319070014959</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.4927400056181375</v>
+        <v>4.8736996542969786</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12655,14 +12655,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-70640.298352206752</v>
+        <v>-71159.712310678864</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.768312255668385E-2</v>
+        <v>-6.8180792575482999E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12694,27 +12694,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>5295846.386243159</v>
+        <v>4922418.1172149349</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0630010280922617</v>
+        <v>3.7749849912579676</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4858531251868818</v>
+        <v>4.1659639802806545</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.7800012095203082</v>
+        <v>4.4411588132446678</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.0741492938537345</v>
+        <v>4.7163536462086819</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.5450594148441219</v>
+        <v>5.9255213935041633</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12755,27 +12755,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1565963.3443788101</v>
+        <v>1428575.2665380202</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.275347042903894</v>
+        <v>1.1634558677793527</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5004082857692871</v>
+        <v>1.3687716091521798</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5004082857692871</v>
+        <v>1.3687716091521798</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5004082857692871</v>
+        <v>1.3687716091521798</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0491549499659389</v>
+        <v>1.8204185111857929</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12816,27 +12816,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>3123905.0158338663</v>
+        <v>2888278.1893719141</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6691740354980777</v>
+        <v>2.4692204295186602</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9931307054780847</v>
+        <v>2.7673677947164173</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1402047476447974</v>
+        <v>2.9049652111984239</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.287278789811511</v>
+        <v>3.042562627680431</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.2971071824050302</v>
+        <v>3.8729699523449783</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FDEC6B-FDFC-4E47-A92E-A405B144D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FFD9E64-D2E3-4D67-94CC-DE61DA8CACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4389,7 +4400,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.886861313868613E-2</v>
+        <v>2.871143375680581E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5161,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.48</v>
+        <v>5.51</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -5202,7 +5213,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5719.4293104000008</v>
+        <v>5750.7400548000005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5418,7 +5429,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5600752485185991</v>
+        <v>1.5686158064484452</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5434,7 +5445,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.377787353586404</v>
+        <v>15.461972320850562</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5466,7 +5477,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.886861313868613E-2</v>
+        <v>2.871143375680581E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5496,20 +5507,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7749849912579676</v>
+        <v>3.7699420800890846</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8143496025297869</v>
+        <v>6.8046103064231778</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4411588132446678</v>
+        <v>4.4352259765753939</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9255213935041633</v>
+        <v>5.9170524403679812</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10656,11 +10667,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1097777.3876893211</v>
+        <v>1097387.8272204669</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70056185014764338</v>
+        <v>0.70066810963828097</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10681,7 +10692,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0518217392071851</v>
+        <v>1.0514484866930855</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11747,11 +11758,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5600752485185991</v>
+        <v>1.568615806448445</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>71159.712310678864</v>
+        <v>71549.272779532927</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12432,17 +12443,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5957899720875616E-2</v>
+        <v>2.5816568143447984E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9717481240468898E-2</v>
+        <v>5.9392340689250381E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5028861240351343E-2</v>
+        <v>6.4674802104741455E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12483,17 +12494,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.886861313868613E-2</v>
+        <v>2.871143375680581E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.886861313868613E-2</v>
+        <v>2.871143375680581E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.886861313868613E-2</v>
+        <v>2.871143375680581E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12553,14 +12564,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6015611508283678</v>
+        <v>6.5914399697449024</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3706825899705377</v>
+        <v>7.3584391519539603</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12581,14 +12592,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7530886141141768</v>
+        <v>2.750986321527491</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7530886141141768</v>
+        <v>2.750986321527491</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12631,21 +12642,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3824640.7295256136</v>
+        <v>3818287.6202801624</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2821426208408693</v>
+        <v>3.277110605072429</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6645319070014959</v>
+        <v>3.6584447544595866</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8736996542969786</v>
+        <v>4.8656039536748956</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12655,14 +12666,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-71159.712310678864</v>
+        <v>-71549.272779532927</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.8180792575482999E-2</v>
+        <v>-6.8554045089582336E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12694,27 +12705,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4922418.1172149349</v>
+        <v>4915675.4475006294</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7749849912579676</v>
+        <v>3.7699420800890846</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1659639802806545</v>
+        <v>4.1605587119981147</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.4411588132446678</v>
+        <v>4.4352259765753939</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7163536462086819</v>
+        <v>4.7098932411526722</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.9255213935041633</v>
+        <v>5.9170524403679812</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12755,27 +12766,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1428575.2665380202</v>
+        <v>1427484.3887591616</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1634558677793527</v>
+        <v>1.1625674384591962</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3687716091521798</v>
+        <v>1.3677263981872896</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3687716091521798</v>
+        <v>1.3677263981872896</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3687716091521798</v>
+        <v>1.3677263981872896</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8204185111857929</v>
+        <v>1.8190284170489346</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12816,27 +12827,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2888278.1893719141</v>
+        <v>2884912.0342556839</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.4692204295186602</v>
+        <v>2.4662547592741406</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7673677947164173</v>
+        <v>2.7641425550927021</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9049652111984239</v>
+        <v>2.9014761873813417</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.042562627680431</v>
+        <v>3.0388098196699809</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.8729699523449783</v>
+        <v>3.8680404287084578</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FFD9E64-D2E3-4D67-94CC-DE61DA8CACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07DBAF4E-48B3-451F-BA41-851C91D2A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,13 +126,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -920,10 +903,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1549,7 +1564,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2189,6 +2204,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3605,7 +3630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3619,28 +3644,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45591</v>
@@ -3656,24 +3681,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>1043691480</v>
@@ -3681,7 +3706,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3705,7 +3730,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3713,15 +3738,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <f>(16.5%+25%)/2</f>
@@ -3731,61 +3756,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3866,7 +3891,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>2530133</v>
@@ -3898,7 +3923,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <v>829721</v>
@@ -3930,7 +3955,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3946,7 +3971,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="150">
         <v>270</v>
@@ -3978,7 +4003,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>2980</v>
@@ -4010,7 +4035,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150">
         <v>-212109</v>
@@ -4042,7 +4067,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150">
         <v>47627</v>
@@ -4074,7 +4099,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150">
         <v>329600</v>
@@ -4136,7 +4161,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4166,7 +4191,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4222,7 +4247,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4300,7 +4325,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4326,7 +4351,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4352,7 +4377,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4378,7 +4403,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <v>0.15820000000000001</v>
@@ -4396,11 +4421,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.871143375680581E-2</v>
+        <v>2.8921389396709327E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4445,21 +4470,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59">
         <v>1322113</v>
@@ -4471,7 +4496,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4481,7 +4506,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59">
         <v>422018</v>
@@ -4494,7 +4519,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59">
         <v>221617</v>
@@ -4506,7 +4531,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4516,7 +4541,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4527,7 +4552,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59">
         <v>63587</v>
@@ -4539,7 +4564,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59">
         <v>370793</v>
@@ -4552,7 +4577,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4560,24 +4585,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59">
         <v>22411</v>
@@ -4590,7 +4615,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4601,7 +4626,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4612,7 +4637,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59">
         <v>39731</v>
@@ -4625,7 +4650,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4636,7 +4661,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4647,7 +4672,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4657,7 +4682,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59">
         <v>85171</v>
@@ -4666,24 +4691,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4691,12 +4716,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59">
         <v>1863998</v>
@@ -4709,7 +4734,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4720,7 +4745,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59">
         <v>23958</v>
@@ -4732,7 +4757,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59">
         <v>71331</v>
@@ -4745,7 +4770,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247">
         <v>62618</v>
@@ -4757,13 +4782,13 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59">
         <v>5523</v>
@@ -4771,13 +4796,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4791,13 +4816,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59">
         <v>2115</v>
@@ -4805,19 +4830,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83">
         <v>100207</v>
@@ -4825,7 +4850,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59">
         <v>3620511</v>
@@ -4833,19 +4858,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4853,10 +4878,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4864,18 +4889,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4884,20 +4909,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4915,7 +4940,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4936,7 +4961,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4957,7 +4982,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4975,7 +5000,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4996,7 +5021,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -5014,7 +5039,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -5032,7 +5057,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5160,62 +5185,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1475.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>NISSIN FOODS</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1043691480</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>5750.7400548000005</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>5708.9923955999993</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5238,16 +5263,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5272,40 +5297,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5318,29 +5343,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5350,12 +5375,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5365,29 +5390,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.66005868735054896</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5395,7 +5420,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5406,58 +5431,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.8097105597332122E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5686158064484452</v>
+        <v>1.5572283958753168</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.461972320850562</v>
+        <v>15.349725697831682</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5466,18 +5491,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.12243307999388223</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.871143375680581E-2</v>
+        <v>2.8921389396709327E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5487,62 +5512,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7699420800890846</v>
+        <v>3.7766788412466625</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8046103064231778</v>
+        <v>6.8176215057477823</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4352259765753939</v>
-      </c>
-      <c r="G29" s="274">
+        <v>4.4431515779372504</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9170524403679812</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>5.9283665267372028</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5552,25 +5577,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5580,7 +5605,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5590,14 +5615,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5607,7 +5632,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5622,14 +5647,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6582,12 +6607,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6614,16 +6639,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6641,7 +6666,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6674,7 +6699,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6685,7 +6710,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6837,7 +6862,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6888,7 +6913,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6939,7 +6964,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6990,7 +7015,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -7041,7 +7066,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7092,7 +7117,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7143,7 +7168,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7194,7 +7219,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7245,7 +7270,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7296,7 +7321,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7347,7 +7372,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7398,7 +7423,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7449,7 +7474,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7500,7 +7525,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7551,7 +7576,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7602,7 +7627,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7653,7 +7678,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7704,7 +7729,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7755,7 +7780,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7908,7 +7933,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7959,7 +7984,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8061,7 +8086,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8265,7 +8290,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8316,7 +8341,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8367,7 +8392,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8418,7 +8443,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8469,7 +8494,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8520,7 +8545,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8538,7 +8563,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8589,7 +8614,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8640,7 +8665,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8691,7 +8716,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8742,7 +8767,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8793,7 +8818,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8844,7 +8869,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8895,7 +8920,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8912,50 +8937,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.11009565391159436</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>1.3214656805186584</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>1.36192447115647</v>
+      </c>
+      <c r="E50" s="272">
         <f t="shared" si="41"/>
-        <v>9.1661397555197838E-2</v>
-      </c>
-      <c r="E50" s="156">
+        <v>1.2355816029978632</v>
+      </c>
+      <c r="F50" s="272">
         <f t="shared" si="41"/>
-        <v>0.12295416718934081</v>
-      </c>
-      <c r="F50" s="156">
+        <v>1.239478853796778</v>
+      </c>
+      <c r="G50" s="272">
         <f t="shared" si="41"/>
-        <v>0.1445203499896415</v>
-      </c>
-      <c r="G50" s="156">
+        <v>1.2505101819726658</v>
+      </c>
+      <c r="H50" s="272">
         <f t="shared" si="41"/>
-        <v>0.13636200235703244</v>
-      </c>
-      <c r="H50" s="156">
+        <v>1.2679438724017604</v>
+      </c>
+      <c r="I50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v>0.1500359473767752</v>
-      </c>
-      <c r="I50" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v>0.14492995312980766</v>
-      </c>
-      <c r="J50" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
-        <v>0.11269266380344538</v>
-      </c>
-      <c r="K50" s="156" t="str">
+        <v/>
+      </c>
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8964,39 +8989,39 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>9.6732124698097721E-2</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.11009565391159436</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>0.10202614134854508</v>
+        <v>9.1661397555197838E-2</v>
       </c>
       <c r="E51" s="153">
         <f t="shared" si="42"/>
-        <v>0.12026867821851961</v>
+        <v>0.12295416718934081</v>
       </c>
       <c r="F51" s="153">
         <f t="shared" si="42"/>
-        <v>0.10319971286049096</v>
+        <v>0.1445203499896415</v>
       </c>
       <c r="G51" s="153">
         <f t="shared" si="42"/>
-        <v>0.10576948300413792</v>
+        <v>0.13636200235703244</v>
       </c>
       <c r="H51" s="153">
         <f t="shared" si="42"/>
-        <v>9.8066978166136909E-2</v>
+        <v>0.1500359473767752</v>
       </c>
       <c r="I51" s="153">
         <f t="shared" si="42"/>
-        <v>0.10017258898290339</v>
+        <v>0.14492995312980766</v>
       </c>
       <c r="J51" s="153">
         <f t="shared" si="42"/>
-        <v>8.1801814133970613E-2</v>
+        <v>0.11269266380344538</v>
       </c>
       <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -9015,167 +9040,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>9.6732124698097721E-2</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10202614134854508</v>
+      </c>
+      <c r="E52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.12026867821851961</v>
+      </c>
+      <c r="F52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10319971286049096</v>
+      </c>
+      <c r="G52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10576948300413792</v>
+      </c>
+      <c r="H52" s="153">
+        <f t="shared" si="43"/>
+        <v>9.8066978166136909E-2</v>
+      </c>
+      <c r="I52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10017258898290339</v>
+      </c>
+      <c r="J52" s="153">
+        <f t="shared" si="43"/>
+        <v>8.1801814133970613E-2</v>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>0.90436944119929397</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>-0.31732846070199655</v>
       </c>
-      <c r="E52" s="153">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153">
+        <f t="shared" si="44"/>
         <v>-0.24522285661663137</v>
       </c>
-      <c r="F52" s="153">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153">
+        <f t="shared" si="44"/>
         <v>-0.32002755958484314</v>
       </c>
-      <c r="G52" s="153">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153">
+        <f t="shared" si="44"/>
         <v>-2.0781423898013558</v>
       </c>
-      <c r="H52" s="153">
-        <f t="shared" si="43"/>
+      <c r="H53" s="153">
+        <f t="shared" si="44"/>
         <v>-0.61129695413072072</v>
       </c>
-      <c r="I52" s="153">
-        <f t="shared" si="43"/>
+      <c r="I53" s="153">
+        <f t="shared" si="44"/>
         <v>-4.8148447309869807E-2</v>
       </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.19766986347718032</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.21543286092524916</v>
-      </c>
-      <c r="E54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.21737674703003232</v>
-      </c>
-      <c r="F54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.22004620095970678</v>
-      </c>
-      <c r="G54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.19888345313804912</v>
-      </c>
-      <c r="H54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.19107288948809867</v>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>24.526937370263081</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.79234774516965889</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.77533048959024775</v>
+      </c>
+      <c r="E55" s="156">
         <f t="shared" si="45"/>
-        <v>-17.20145141071864</v>
-      </c>
-      <c r="E55" s="157">
+        <v>0.75113360049083866</v>
+      </c>
+      <c r="F55" s="156">
         <f t="shared" si="45"/>
-        <v>13.117959745698334</v>
-      </c>
-      <c r="F55" s="157">
+        <v>0.75227103276988738</v>
+      </c>
+      <c r="G55" s="156">
         <f t="shared" si="45"/>
-        <v>10.918819567970536</v>
-      </c>
-      <c r="G55" s="157">
+        <v>0.77462650493209873</v>
+      </c>
+      <c r="H55" s="156">
         <f t="shared" si="45"/>
-        <v>22.780465594710311</v>
-      </c>
-      <c r="H55" s="157" t="str">
+        <v>0.78313336507385067</v>
+      </c>
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
-      </c>
-      <c r="I55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9183,112 +9209,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.4412548707603233E-3</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>24.526937370263081</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>-1.5569092100994012E-3</v>
-      </c>
-      <c r="E56" s="153">
+        <v>-17.20145141071864</v>
+      </c>
+      <c r="E56" s="157">
         <f t="shared" si="46"/>
-        <v>2.4816668616667779E-3</v>
-      </c>
-      <c r="F56" s="153">
+        <v>13.117959745698334</v>
+      </c>
+      <c r="F56" s="157">
         <f t="shared" si="46"/>
-        <v>6.3715119602040062E-4</v>
-      </c>
-      <c r="G56" s="153">
+        <v>10.918819567970536</v>
+      </c>
+      <c r="G56" s="157">
         <f t="shared" si="46"/>
-        <v>1.5686346067175269E-3</v>
-      </c>
-      <c r="H56" s="153" t="str">
+        <v>22.780465594710311</v>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="J56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="K56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.4412548707603233E-3</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.5569092100994012E-3</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>2.4816668616667779E-3</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>6.3715119602040062E-4</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.5686346067175269E-3</v>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>3.0168041692869996</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>2.7942400285655307</v>
       </c>
-      <c r="E57" s="158">
-        <f t="shared" si="47"/>
+      <c r="E58" s="158">
+        <f t="shared" si="48"/>
         <v>2.9317232378441278</v>
       </c>
-      <c r="F57" s="158">
-        <f t="shared" si="47"/>
+      <c r="F58" s="158">
+        <f t="shared" si="48"/>
         <v>3.0944307449985029</v>
       </c>
-      <c r="G57" s="158">
-        <f t="shared" si="47"/>
+      <c r="G58" s="158">
+        <f t="shared" si="48"/>
         <v>3.4859449249150689</v>
       </c>
-      <c r="H57" s="158">
-        <f t="shared" si="47"/>
+      <c r="H58" s="158">
+        <f t="shared" si="48"/>
         <v>3.6713486815660423</v>
       </c>
-      <c r="I57" s="158" t="e">
-        <f t="shared" si="47"/>
+      <c r="I58" s="158" t="e">
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J57" s="158" t="e">
-        <f t="shared" si="47"/>
+      <c r="J58" s="158" t="e">
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v>Error</v>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v>Error</v>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v>Error</v>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v>Error</v>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.12969985386981822</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>0.11620476923814542</v>
+      </c>
+      <c r="E60" s="274">
+        <f t="shared" si="50"/>
+        <v>0.10448197485742679</v>
+      </c>
+      <c r="F60" s="274">
+        <f t="shared" si="50"/>
+        <v>0.10393506682892123</v>
+      </c>
+      <c r="G60" s="274">
+        <f t="shared" si="50"/>
+        <v>8.3934909628360588E-2</v>
+      </c>
+      <c r="H60" s="274">
+        <f t="shared" si="50"/>
+        <v>7.2715861436737694E-2</v>
+      </c>
+      <c r="I60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>5.1743178693303075E-2</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>-4.5809703804374068E-2</v>
+      </c>
+      <c r="E61" s="274">
+        <f t="shared" si="51"/>
+        <v>3.7229057038309428E-2</v>
+      </c>
+      <c r="F61" s="274">
+        <f t="shared" si="51"/>
+        <v>4.668599581564039E-2</v>
+      </c>
+      <c r="G61" s="274">
+        <f t="shared" si="51"/>
+        <v>1.1366227907873562E-2</v>
+      </c>
+      <c r="H61" s="274">
+        <f t="shared" si="51"/>
+        <v>1.5928630964189793E-2</v>
+      </c>
+      <c r="I61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9851,7 +10067,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10534,6 +10752,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10573,8 +10792,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10592,7 +10811,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10607,7 +10826,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10621,7 +10840,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10631,7 +10850,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10649,10 +10868,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10661,22 +10880,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1097387.8272204669</v>
+        <f>(E49-I49-E53)</f>
+        <v>1097907.2411789391</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70066810963828097</v>
+        <v>0.70052643031743078</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10686,20 +10906,21 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0514484866930855</v>
+        <v>1.0519461567118848</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10717,7 +10938,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10736,32 +10957,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10778,7 +10999,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10789,7 +11010,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10806,7 +11027,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10817,7 +11038,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10834,7 +11055,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10845,7 +11066,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10862,7 +11083,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10873,7 +11094,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10890,7 +11111,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10900,7 +11121,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10922,7 +11143,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10944,7 +11165,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10965,7 +11186,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10990,7 +11211,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -11017,7 +11238,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -11038,7 +11259,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -11055,7 +11276,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -11067,13 +11288,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -11095,7 +11316,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -11115,7 +11336,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -11124,7 +11345,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11144,7 +11365,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11157,7 +11378,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11177,7 +11398,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11223,7 +11444,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11232,7 +11453,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11248,7 +11469,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11258,7 +11479,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11275,7 +11496,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11285,7 +11506,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11302,7 +11523,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11312,7 +11533,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11332,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11342,7 +11563,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11359,7 +11580,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11369,7 +11590,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11395,7 +11616,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11422,7 +11643,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11449,7 +11670,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11470,7 +11691,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11491,7 +11712,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11512,7 +11733,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11533,7 +11754,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11550,7 +11771,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11568,7 +11789,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11587,7 +11808,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11606,7 +11827,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11623,7 +11844,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11636,7 +11857,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11653,7 +11874,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11666,7 +11887,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11683,7 +11904,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11710,7 +11931,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11726,14 +11947,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11750,7 +11971,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11758,11 +11979,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.568615806448445</v>
+        <v>1.5572283958753168</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>71549.272779532927</v>
+        <v>71029.858821060829</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11780,7 +12001,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11791,14 +12012,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11806,30 +12027,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11846,11 +12067,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11860,7 +12081,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11881,7 +12102,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11902,7 +12123,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11923,7 +12144,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11938,7 +12159,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11969,11 +12190,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11983,7 +12204,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -12004,7 +12225,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12019,7 +12240,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -12041,21 +12262,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12065,23 +12286,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -12102,7 +12323,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -12132,7 +12353,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12153,7 +12374,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12183,7 +12404,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12213,7 +12434,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12244,7 +12465,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12271,12 +12492,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12306,7 +12527,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12336,7 +12557,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12366,7 +12587,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12387,7 +12608,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12418,7 +12639,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12439,28 +12660,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5816568143447984E-2</v>
+        <v>2.6005354747787642E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9392340689250381E-2</v>
+        <v>5.9826653966685482E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4674802104741455E-2</v>
+        <v>6.5147743984849252E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12490,21 +12711,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.871143375680581E-2</v>
+        <v>2.8921389396709327E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.871143375680581E-2</v>
+        <v>2.8921389396709327E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.871143375680581E-2</v>
+        <v>2.8921389396709327E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12521,29 +12742,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12560,24 +12781,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5914399697449024</v>
+        <v>6.6049623353526243</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3584391519539603</v>
+        <v>7.3747972325364675</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12588,18 +12809,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.750986321527491</v>
+        <v>2.7537947908805083</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.750986321527491</v>
+        <v>2.7537947908805083</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12618,69 +12839,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3818287.6202801624</v>
+        <v>3826775.8139432375</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.277110605072429</v>
+        <v>3.2838336106587862</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6584447544595866</v>
+        <v>3.6665776115593443</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8656039536748956</v>
+        <v>4.8764203700253175</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-71549.272779532927</v>
+        <v>-71029.858821060829</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.8554045089582336E-2</v>
+        <v>-6.8056375070783201E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12701,31 +12922,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4915675.4475006294</v>
+        <v>4924683.0551221762</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7699420800890846</v>
+        <v>3.7766788412466625</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1605587119981147</v>
+        <v>4.1677793876032707</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.4352259765753939</v>
+        <v>4.4431515779372504</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7098932411526722</v>
+        <v>4.7185237682712291</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.9170524403679812</v>
+        <v>5.9283665267372028</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12735,58 +12956,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1427484.3887591616</v>
+        <v>1428941.7010425301</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1625674384591962</v>
+        <v>1.1637542982396967</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3677263981872896</v>
+        <v>1.369122703811408</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3677263981872896</v>
+        <v>1.369122703811408</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3677263981872896</v>
+        <v>1.369122703811408</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8190284170489346</v>
+        <v>1.820885454839916</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12796,58 +13017,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2884912.0342556839</v>
+        <v>2889408.7692018407</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.4662547592741406</v>
+        <v>2.4702165697431795</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7641425550927021</v>
+        <v>2.7684510457073395</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9014761873813417</v>
+        <v>2.9061371408743293</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.0388098196699809</v>
+        <v>3.0438232360413187</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.8680404287084578</v>
+        <v>3.8746259907885596</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12856,7 +13077,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12865,6 +13086,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07DBAF4E-48B3-451F-BA41-851C91D2A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44F917E-C205-4CEB-AD03-A3AEE4650B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1300,7 +1298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1558,13 +1556,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2214,6 +2328,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2453,981 +2591,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.66005868735054896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21645682425674254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8097105597332122E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0437342852983705E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12243307999388223</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3630,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3644,28 +2807,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45591</v>
@@ -3681,24 +2844,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>1043691480</v>
@@ -3706,7 +2869,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3730,7 +2893,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3738,10 +2901,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3756,55 +2919,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3971,7 +3134,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C29" s="150">
         <v>270</v>
@@ -4191,7 +3354,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4351,7 +3514,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4403,7 +3566,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <v>0.15820000000000001</v>
@@ -4421,7 +3584,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4470,13 +3633,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4541,7 +3704,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4552,7 +3715,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59">
         <v>63587</v>
@@ -4661,7 +3824,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4672,7 +3835,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4850,7 +4013,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59">
         <v>3620511</v>
@@ -4870,7 +4033,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4878,10 +4041,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4891,16 +4054,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4909,10 +4072,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4961,7 +4124,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4982,7 +4145,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -5000,7 +4163,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -5039,7 +4202,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -5057,7 +4220,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5143,8 +4306,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5185,13 +4348,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1475.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -5200,47 +4363,47 @@
         <v>5.47</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>NISSIN FOODS</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1043691480</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>5708.9923955999993</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5263,16 +4426,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5297,40 +4460,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5343,29 +4506,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5375,12 +4538,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5388,9 +4551,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5398,59 +4561,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.66005868735054896</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.12969985386981822</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.21645682425674254</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.79234774516965889</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>9.8097105597332122E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.83889335585442648</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.12250351733673522</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5459,14 +4622,14 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
@@ -5475,14 +4638,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5491,14 +4654,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.12243307999388223</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5512,23 +4675,23 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5543,31 +4706,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>4.4431515779372504</v>
       </c>
-      <c r="G29" s="278">
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>5.9283665267372028</v>
       </c>
-      <c r="H29" s="278"/>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5577,7 +4740,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5588,14 +4751,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5605,7 +4768,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5615,14 +4778,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5632,7 +4795,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5647,14 +4810,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6598,7 +5761,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6612,7 +5774,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6639,16 +5801,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6666,7 +5828,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6699,7 +5861,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -7066,7 +6228,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7117,7 +6279,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7168,7 +6330,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7219,7 +6381,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7321,7 +6483,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7474,7 +6636,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7984,7 +7146,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8494,7 +7656,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8545,7 +7707,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8614,7 +7776,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8818,7 +7980,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8920,7 +8082,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8938,31 +8100,31 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>1.3214656805186584</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.83889335585442648</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>1.36192447115647</v>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>0.86848076096566562</v>
       </c>
       <c r="E50" s="272">
         <f t="shared" si="41"/>
-        <v>1.2355816029978632</v>
+        <v>0.73510491068754868</v>
       </c>
       <c r="F50" s="272">
         <f t="shared" si="41"/>
-        <v>1.239478853796778</v>
+        <v>0.67880629837717921</v>
       </c>
       <c r="G50" s="272">
         <f t="shared" si="41"/>
-        <v>1.2505101819726658</v>
+        <v>0.66634174448038708</v>
       </c>
       <c r="H50" s="272">
         <f t="shared" si="41"/>
-        <v>1.2679438724017604</v>
+        <v>0.67474729838096359</v>
       </c>
       <c r="I50" s="272" t="e">
         <f t="shared" si="41"/>
@@ -8989,7 +8151,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -9040,7 +8202,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -9091,7 +8253,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -9142,7 +8304,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9159,7 +8321,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9359,31 +8521,31 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="F59" s="273" t="str">
         <f t="shared" si="49"/>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="G59" s="273" t="str">
         <f t="shared" si="49"/>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="H59" s="273" t="str">
         <f t="shared" si="49"/>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="I59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9409,7 +8571,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9459,7 +8621,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10963,7 +10125,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -11121,7 +10283,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11533,7 +10695,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -12001,7 +11163,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -12015,11 +11177,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -12030,11 +11192,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -12046,11 +11208,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -12067,7 +11229,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -12144,7 +11306,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12190,7 +11352,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12225,7 +11387,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12264,19 +11426,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12286,18 +11448,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12374,7 +11536,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12404,7 +11566,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12434,7 +11596,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12497,7 +11659,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12527,7 +11689,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12608,7 +11770,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12639,7 +11801,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12660,7 +11822,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -12681,7 +11843,7 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12711,7 +11873,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12747,24 +11909,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12781,14 +11943,14 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>6.6049623353526243</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
@@ -12798,7 +11960,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12809,14 +11971,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>2.7537947908805083</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12839,14 +12001,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12956,21 +12118,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12983,7 +12145,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -13017,21 +12179,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -13044,7 +12206,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -13077,7 +12239,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44F917E-C205-4CEB-AD03-A3AEE4650B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C91C6D5-6A7B-4E3A-AC4D-1DB7B1DFDBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2402,7 +2406,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2499,12 +2503,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2793,7 +2813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2807,28 +2827,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45591</v>
@@ -2844,24 +2864,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1043691480</v>
@@ -2869,7 +2889,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2893,7 +2913,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2901,10 +2921,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2919,61 +2939,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3134,7 +3154,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>270</v>
@@ -3292,9 +3312,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3324,7 +3344,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3354,7 +3374,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3383,10 +3403,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>896185</v>
       </c>
@@ -3408,9 +3429,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3487,10 +3508,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>3674703</v>
       </c>
@@ -3514,9 +3536,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>43262</v>
       </c>
@@ -3540,7 +3562,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3566,7 +3588,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.15820000000000001</v>
@@ -3584,11 +3606,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8921389396709327E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3633,13 +3655,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3659,7 +3681,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3669,7 +3691,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>422018</v>
@@ -3704,7 +3726,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3715,7 +3737,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>63587</v>
@@ -3753,7 +3775,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3824,7 +3846,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3835,7 +3857,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3884,7 +3906,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>1863998</v>
@@ -4013,7 +4035,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>3620511</v>
@@ -4033,7 +4055,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4041,10 +4063,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4052,7 +4074,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -4060,10 +4082,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4085,7 +4107,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4124,7 +4146,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4145,7 +4167,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4163,7 +4185,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4202,7 +4224,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4220,7 +4242,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4243,28 +4265,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4306,8 +4333,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4348,7 +4375,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4360,15 +4387,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.47</v>
+        <v>5.59</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4388,7 +4415,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4401,7 +4428,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>5708.9923955999993</v>
+        <v>5834.2353732000001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4435,7 +4462,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4460,40 +4487,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4506,29 +4533,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4538,12 +4565,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4553,7 +4580,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4561,21 +4588,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="276">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.12969985386981822</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4583,69 +4610,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.79234774516965889</v>
+        <v>251</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.83889335585442648</v>
+        <v>258</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.12250351733673522</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5572283958753168</v>
+        <v>176</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.349725697831682</v>
+        <v>15.68646556688832</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4654,18 +4681,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8921389396709327E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4675,40 +4702,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="130">
+        <v>161</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7766788412466625</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>6.8176215057477823</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4431515779372504</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9283665267372028</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4716,21 +4743,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4740,25 +4767,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4768,7 +4795,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4778,14 +4805,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4795,7 +4822,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4810,14 +4837,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5717,27 +5744,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5769,12 +5796,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5801,16 +5828,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5828,7 +5855,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5861,7 +5888,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5872,7 +5899,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6228,7 +6255,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6279,7 +6306,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6330,7 +6357,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6381,7 +6408,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6483,7 +6510,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6636,7 +6663,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6891,7 +6918,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6942,7 +6969,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6996,28 +7023,28 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>4569346</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>4683733</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>4570888</v>
       </c>
       <c r="E27" s="65">
-        <f t="shared" si="20"/>
-        <v>5259569</v>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
+        <v>5176695</v>
       </c>
       <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v>5183875</v>
+        <v>5108514</v>
       </c>
       <c r="G27" s="65">
         <f t="shared" si="20"/>
-        <v>4633930</v>
+        <v>4571545</v>
       </c>
       <c r="H27" s="65">
         <f t="shared" si="20"/>
-        <v>4444372</v>
+        <v>4391269</v>
       </c>
       <c r="I27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -7044,50 +7071,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>2422539</v>
+        <f>Fin_Analysis!C13</f>
+        <v>422018</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>2504156</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>372854</v>
       </c>
       <c r="E28" s="199">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
-        <v>3108899</v>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <v>475382</v>
       </c>
       <c r="F28" s="199">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
-        <v>3296593</v>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <v>508545</v>
       </c>
       <c r="G28" s="199">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
-        <v>2995218</v>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <v>421056</v>
       </c>
       <c r="H28" s="199">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
-        <v>2922746</v>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <v>449932</v>
       </c>
       <c r="I28" s="199">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
-        <v>2928529</v>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <v>420626</v>
       </c>
       <c r="J28" s="199">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
-        <v>2035257</v>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <v>296371</v>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -7095,50 +7122,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>422018</v>
+        <f>Fin_Analysis!C18</f>
+        <v>370793</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>372854</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>415015</v>
       </c>
       <c r="E29" s="199">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
-        <v>475382</v>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <v>464999</v>
       </c>
       <c r="F29" s="199">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
-        <v>508545</v>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <v>363144</v>
       </c>
       <c r="G29" s="199">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
-        <v>421056</v>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <v>326593</v>
       </c>
       <c r="H29" s="199">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
-        <v>449932</v>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <v>294086</v>
       </c>
       <c r="I29" s="199">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
-        <v>420626</v>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <v>290728</v>
       </c>
       <c r="J29" s="199">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
-        <v>296371</v>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <v>215131</v>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7146,101 +7173,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>370793</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>415015</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>896185</v>
       </c>
       <c r="E30" s="199">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
-        <v>464999</v>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v>1060434</v>
       </c>
       <c r="F30" s="199">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
-        <v>363144</v>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v>1065331</v>
       </c>
       <c r="G30" s="199">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
-        <v>326593</v>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <v>859227</v>
       </c>
       <c r="H30" s="199">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
-        <v>294086</v>
-      </c>
-      <c r="I30" s="199">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
-        <v>290728</v>
-      </c>
-      <c r="J30" s="199">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
-        <v>215131</v>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <v>796096</v>
+      </c>
+      <c r="I30" s="199" t="str">
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <v/>
+      </c>
+      <c r="J30" s="199" t="str">
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>803015</v>
+        <f>Fin_Analysis!I15</f>
+        <v>5523</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>896185</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>8558</v>
       </c>
       <c r="E31" s="199">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v>1060434</v>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
+        <v>5576</v>
       </c>
       <c r="F31" s="199">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v>1065331</v>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
+        <v>7278</v>
       </c>
       <c r="G31" s="199">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
-        <v>859227</v>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
+        <v>1660</v>
       </c>
       <c r="H31" s="199">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
-        <v>796096</v>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
+        <v>0</v>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7248,101 +7275,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>100207</v>
+        <f>Fin_Analysis!I34</f>
+        <v>2115</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>112845</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>1113</v>
       </c>
       <c r="E32" s="199">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
-        <v>82874</v>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <v>5636</v>
       </c>
       <c r="F32" s="199">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
-        <v>75361</v>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <v>9396</v>
       </c>
       <c r="G32" s="199">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
-        <v>62385</v>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <v>131</v>
       </c>
       <c r="H32" s="199">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
-        <v>53103</v>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <v>0</v>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>5523</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>8558</v>
-      </c>
-      <c r="E33" s="199">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v>5576</v>
-      </c>
-      <c r="F33" s="199">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v>7278</v>
-      </c>
-      <c r="G33" s="199">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v>1660</v>
-      </c>
-      <c r="H33" s="199">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>7638</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>9671</v>
+      </c>
+      <c r="E33" s="77">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v>11212</v>
+      </c>
+      <c r="F33" s="77">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v>16674</v>
+      </c>
+      <c r="G33" s="77">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v>1791</v>
+      </c>
+      <c r="H33" s="77">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7350,50 +7377,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>2115</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>1113</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>3674703</v>
       </c>
       <c r="E34" s="199">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
-        <v>5636</v>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <v>4116261</v>
       </c>
       <c r="F34" s="199">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
-        <v>9396</v>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <v>4043183</v>
       </c>
       <c r="G34" s="199">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
-        <v>131</v>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <v>3712318</v>
       </c>
       <c r="H34" s="199">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
-        <v>0</v>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <v>3595173</v>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7401,50 +7428,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>7638</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>9671</v>
-      </c>
-      <c r="E35" s="77">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v>11212</v>
-      </c>
-      <c r="F35" s="77">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v>16674</v>
-      </c>
-      <c r="G35" s="77">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v>1791</v>
-      </c>
-      <c r="H35" s="77">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>43262</v>
+      </c>
+      <c r="E35" s="199">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v>165622</v>
+      </c>
+      <c r="F35" s="199">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v>143504</v>
+      </c>
+      <c r="G35" s="199">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v>122753</v>
+      </c>
+      <c r="H35" s="199">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v>114637</v>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7452,50 +7479,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>3666124</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>3674703</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>1696980</v>
       </c>
       <c r="E36" s="199">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v>4116261</v>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
+        <v>2130407</v>
       </c>
       <c r="F36" s="199">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v>4043183</v>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
+        <v>2344902</v>
       </c>
       <c r="G36" s="199">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
-        <v>3712318</v>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
+        <v>2164713</v>
       </c>
       <c r="H36" s="199">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
-        <v>3595173</v>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
+        <v>2079261</v>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7503,272 +7530,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>45613</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>43262</v>
-      </c>
-      <c r="E37" s="199">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v>165622</v>
-      </c>
-      <c r="F37" s="199">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v>143504</v>
-      </c>
-      <c r="G37" s="199">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v>122753</v>
-      </c>
-      <c r="H37" s="199">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v>114637</v>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>2900714</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>2873908</v>
+      </c>
+      <c r="E37" s="65">
+        <f t="shared" si="32"/>
+        <v>3046288</v>
+      </c>
+      <c r="F37" s="65">
+        <f t="shared" si="32"/>
+        <v>2763612</v>
+      </c>
+      <c r="G37" s="65">
+        <f t="shared" si="32"/>
+        <v>2406832</v>
+      </c>
+      <c r="H37" s="65">
+        <f t="shared" si="32"/>
+        <v>2312008</v>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>1668632</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>1696980</v>
-      </c>
-      <c r="E38" s="199">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v>2130407</v>
-      </c>
-      <c r="F38" s="199">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v>2344902</v>
-      </c>
-      <c r="G38" s="199">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v>2164713</v>
-      </c>
-      <c r="H38" s="199">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v>2079261</v>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.1618841939033181</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>0.14683516779484243</v>
+      </c>
+      <c r="E38" s="155">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>0.13549952094771398</v>
+      </c>
+      <c r="F38" s="155">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v>0.14666074596446271</v>
+      </c>
+      <c r="G38" s="155">
+        <f t="shared" si="33"/>
+        <v>0.12518107366036607</v>
+      </c>
+      <c r="H38" s="155">
+        <f t="shared" si="33"/>
+        <v>0.1094676893425876</v>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>2900714</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>2986753</v>
-      </c>
-      <c r="E39" s="65">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v>3129162</v>
-      </c>
-      <c r="F39" s="65">
-        <f t="shared" si="32"/>
-        <v>2838973</v>
-      </c>
-      <c r="G39" s="65">
-        <f t="shared" si="32"/>
-        <v>2469217</v>
-      </c>
-      <c r="H39" s="65">
-        <f t="shared" si="32"/>
-        <v>2365111</v>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.1618841939033181</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>0.1412874661570408</v>
-      </c>
-      <c r="E40" s="155">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>0.1319108964856309</v>
-      </c>
-      <c r="F40" s="155">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v>0.14276761261073659</v>
-      </c>
-      <c r="G40" s="155">
-        <f t="shared" si="33"/>
-        <v>0.12201836204761517</v>
-      </c>
-      <c r="H40" s="155">
-        <f t="shared" si="33"/>
-        <v>0.10700985006690057</v>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.66005868735054896</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.67972447545708514</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.68256268533378506</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.67072254065038917</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.67179343353689913</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.68874540320418509</v>
+      </c>
+      <c r="I40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.64353259912668392</v>
+      </c>
+      <c r="J40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.60409862713672169</v>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.21645682425674254</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.20718646164496579</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.19911932101072463</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.2031023230052344</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.21920822752649879</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.21628249436113042</v>
+      </c>
+      <c r="I41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.26427683700109328</v>
+      </c>
+      <c r="J41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.28549016029096108</v>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.66005868735054896</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.67972447545708514</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.68256268533378506</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.67072254065038917</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.67179343353689913</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.68874540320418509</v>
-      </c>
-      <c r="I42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.64353259912668392</v>
-      </c>
-      <c r="J42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.60409862713672169</v>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7776,50 +7803,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.21645682425674254</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.20718646164496579</v>
+        <f t="shared" si="37"/>
+        <v>6.3671844654465925E-5</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.19911932101072463</v>
+        <f t="shared" si="37"/>
+        <v>9.440464936432048E-5</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.2031023230052344</v>
+        <f t="shared" si="37"/>
+        <v>3.2965343477565238E-5</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.21920822752649879</v>
+        <f t="shared" si="37"/>
+        <v>2.0726858543400585E-5</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.21628249436113042</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="I43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.26427683700109328</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="J43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.28549016029096108</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7827,50 +7854,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>9.8097105597332122E-4</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>9.3480191401645787E-3</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.1557828106263499E-2</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.0991555621389423E-2</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.1423474048151024E-2</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.0575740422065792E-2</v>
       </c>
       <c r="I44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.0911503026857875E-2</v>
       </c>
       <c r="J44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>7.8639296904710609E-3</v>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7878,50 +7905,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>7.0437342852983705E-5</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>7.3560847689942116E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>6.3671844654465925E-5</v>
+        <f t="shared" si="39"/>
+        <v>0.14457368381201122</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>9.440464936432048E-5</v>
+        <f t="shared" si="39"/>
+        <v>6.8624938087361809E-2</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.2965343477565238E-5</v>
+        <f t="shared" si="39"/>
+        <v>6.3411964203047191E-2</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.0726858543400585E-5</v>
+        <f t="shared" si="39"/>
+        <v>8.4340825984744378E-2</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>6.5909081814628914E-2</v>
       </c>
       <c r="I45" s="153">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>8.2551560484875469E-2</v>
       </c>
       <c r="J45" s="153">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>0.1695810304934969</v>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7929,221 +7956,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>9.8097105597332122E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>4.8872232303940111E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>9.3480191401645787E-3</v>
+        <f t="shared" si="40"/>
+        <v>-4.0896311898881238E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.1557828106263499E-2</v>
+        <f t="shared" si="40"/>
+        <v>3.8040822812500652E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.0991555621389423E-2</v>
+        <f t="shared" si="40"/>
+        <v>5.1738651176462265E-2</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.1423474048151024E-2</v>
+        <f t="shared" si="40"/>
+        <v>1.321331204516323E-2</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.0575740422065792E-2</v>
+        <f t="shared" si="40"/>
+        <v>1.8487280197989776E-2</v>
       </c>
       <c r="I46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.0911503026857875E-2</v>
+        <f t="shared" si="40"/>
+        <v>-1.2724996395105214E-3</v>
       </c>
       <c r="J46" s="153">
-        <f t="shared" si="38"/>
-        <v>7.8639296904710609E-3</v>
+        <f t="shared" si="40"/>
+        <v>-6.7033747611650721E-2</v>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>7.3560847689942116E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0.14457368381201122</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>6.8624938087361809E-2</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>6.3411964203047191E-2</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>8.4340825984744378E-2</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>6.5909081814628914E-2</v>
-      </c>
-      <c r="I47" s="153">
-        <f t="shared" si="39"/>
-        <v>8.2551560484875469E-2</v>
-      </c>
-      <c r="J47" s="153">
-        <f t="shared" si="39"/>
-        <v>0.1695810304934969</v>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>4.8872232303940111E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-4.0896311898881238E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>3.8040822812500652E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>5.1738651176462265E-2</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>1.321331204516323E-2</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>1.8487280197989776E-2</v>
-      </c>
-      <c r="I48" s="153">
-        <f t="shared" si="40"/>
-        <v>-1.2724996395105214E-3</v>
-      </c>
-      <c r="J48" s="153">
-        <f t="shared" si="40"/>
-        <v>-6.7033747611650721E-2</v>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.88992160823017319</v>
+      </c>
+      <c r="E48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.74687324634733165</v>
+      </c>
+      <c r="F48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.68882007566192438</v>
+      </c>
+      <c r="G48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.67543489126761302</v>
+      </c>
+      <c r="H48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.68290692280523013</v>
+      </c>
+      <c r="I48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.11009565391159436</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>9.1661397555197838E-2</v>
+      </c>
+      <c r="E49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.12295416718934081</v>
+      </c>
+      <c r="F49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.1445203499896415</v>
+      </c>
+      <c r="G49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.13636200235703244</v>
+      </c>
+      <c r="H49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.1500359473767752</v>
+      </c>
+      <c r="I49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.14492995312980766</v>
+      </c>
+      <c r="J49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.11269266380344538</v>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.83889335585442648</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>0.86848076096566562</v>
-      </c>
-      <c r="E50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.73510491068754868</v>
-      </c>
-      <c r="F50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.67880629837717921</v>
-      </c>
-      <c r="G50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.66634174448038708</v>
-      </c>
-      <c r="H50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.67474729838096359</v>
-      </c>
-      <c r="I50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>9.6732124698097721E-2</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10202614134854508</v>
+      </c>
+      <c r="E50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.12026867821851961</v>
+      </c>
+      <c r="F50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10319971286049096</v>
+      </c>
+      <c r="G50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10576948300413792</v>
+      </c>
+      <c r="H50" s="153">
+        <f t="shared" si="43"/>
+        <v>9.8066978166136909E-2</v>
+      </c>
+      <c r="I50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10017258898290339</v>
+      </c>
+      <c r="J50" s="153">
+        <f t="shared" si="43"/>
+        <v>8.1801814133970613E-2</v>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8151,522 +8178,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.11009565391159436</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>0.90436944119929397</v>
       </c>
       <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>9.1661397555197838E-2</v>
+        <f t="shared" si="44"/>
+        <v>-0.31732846070199655</v>
       </c>
       <c r="E51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.12295416718934081</v>
+        <f t="shared" si="44"/>
+        <v>-0.24522285661663137</v>
       </c>
       <c r="F51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.1445203499896415</v>
+        <f t="shared" si="44"/>
+        <v>-0.32002755958484314</v>
       </c>
       <c r="G51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.13636200235703244</v>
+        <f t="shared" si="44"/>
+        <v>-2.0781423898013558</v>
       </c>
       <c r="H51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.1500359473767752</v>
+        <f t="shared" si="44"/>
+        <v>-0.61129695413072072</v>
       </c>
       <c r="I51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.14492995312980766</v>
-      </c>
-      <c r="J51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.11269266380344538</v>
+        <f t="shared" si="44"/>
+        <v>-4.8148447309869807E-2</v>
+      </c>
+      <c r="J51" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>9.6732124698097721E-2</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.10202614134854508</v>
-      </c>
-      <c r="E52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.12026867821851961</v>
-      </c>
-      <c r="F52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.10319971286049096</v>
-      </c>
-      <c r="G52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.10576948300413792</v>
-      </c>
-      <c r="H52" s="153">
-        <f t="shared" si="43"/>
-        <v>9.8066978166136909E-2</v>
-      </c>
-      <c r="I52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.10017258898290339</v>
-      </c>
-      <c r="J52" s="153">
-        <f t="shared" si="43"/>
-        <v>8.1801814133970613E-2</v>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>0.90436944119929397</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>-0.31732846070199655</v>
-      </c>
-      <c r="E53" s="153">
-        <f t="shared" si="44"/>
-        <v>-0.24522285661663137</v>
-      </c>
-      <c r="F53" s="153">
-        <f t="shared" si="44"/>
-        <v>-0.32002755958484314</v>
-      </c>
-      <c r="G53" s="153">
-        <f t="shared" si="44"/>
-        <v>-2.0781423898013558</v>
-      </c>
-      <c r="H53" s="153">
-        <f t="shared" si="44"/>
-        <v>-0.61129695413072072</v>
-      </c>
-      <c r="I53" s="153">
-        <f t="shared" si="44"/>
-        <v>-4.8148447309869807E-2</v>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.79447166502438915</v>
+      </c>
+      <c r="E53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.76315854034282493</v>
+      </c>
+      <c r="F53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.76336856471373082</v>
+      </c>
+      <c r="G53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.78519734575510025</v>
+      </c>
+      <c r="H53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.79260368699799533</v>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>24.526937370263081</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>-17.20145141071864</v>
+      </c>
+      <c r="E54" s="157">
+        <f t="shared" si="46"/>
+        <v>13.117959745698334</v>
+      </c>
+      <c r="F54" s="157">
+        <f t="shared" si="46"/>
+        <v>10.918819567970536</v>
+      </c>
+      <c r="G54" s="157">
+        <f t="shared" si="46"/>
+        <v>22.780465594710311</v>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v>-</v>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.79234774516965889</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.77533048959024775</v>
-      </c>
-      <c r="E55" s="156">
-        <f t="shared" si="45"/>
-        <v>0.75113360049083866</v>
-      </c>
-      <c r="F55" s="156">
-        <f t="shared" si="45"/>
-        <v>0.75227103276988738</v>
-      </c>
-      <c r="G55" s="156">
-        <f t="shared" si="45"/>
-        <v>0.77462650493209873</v>
-      </c>
-      <c r="H55" s="156">
-        <f t="shared" si="45"/>
-        <v>0.78313336507385067</v>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.4412548707603233E-3</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.5569092100994012E-3</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>2.4816668616667779E-3</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>6.3715119602040062E-4</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.5686346067175269E-3</v>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>24.526937370263081</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>-17.20145141071864</v>
-      </c>
-      <c r="E56" s="157">
-        <f t="shared" si="46"/>
-        <v>13.117959745698334</v>
-      </c>
-      <c r="F56" s="157">
-        <f t="shared" si="46"/>
-        <v>10.918819567970536</v>
-      </c>
-      <c r="G56" s="157">
-        <f t="shared" si="46"/>
-        <v>22.780465594710311</v>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.4412548707603233E-3</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-1.5569092100994012E-3</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>2.4816668616667779E-3</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>6.3715119602040062E-4</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.5686346067175269E-3</v>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>3.0168041692869996</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>2.7942400285655307</v>
-      </c>
-      <c r="E58" s="158">
-        <f t="shared" si="48"/>
-        <v>2.9317232378441278</v>
-      </c>
-      <c r="F58" s="158">
-        <f t="shared" si="48"/>
-        <v>3.0944307449985029</v>
-      </c>
-      <c r="G58" s="158">
-        <f t="shared" si="48"/>
-        <v>3.4859449249150689</v>
-      </c>
-      <c r="H58" s="158">
-        <f t="shared" si="48"/>
-        <v>3.6713486815660423</v>
-      </c>
-      <c r="I58" s="158" t="e">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>0.11620476923814542</v>
+      </c>
+      <c r="E58" s="274">
+        <f t="shared" si="49"/>
+        <v>0.10448197485742679</v>
+      </c>
+      <c r="F58" s="274">
+        <f t="shared" si="49"/>
+        <v>0.10393506682892123</v>
+      </c>
+      <c r="G58" s="274">
+        <f t="shared" si="49"/>
+        <v>8.3934909628360588E-2</v>
+      </c>
+      <c r="H58" s="274">
+        <f t="shared" si="49"/>
+        <v>7.2715861436737694E-2</v>
+      </c>
+      <c r="I58" s="274" t="e">
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="158" t="e">
-        <f t="shared" si="48"/>
+      <c r="J58" s="274" t="e">
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>-4.5809703804374068E-2</v>
+      </c>
+      <c r="E59" s="274">
+        <f t="shared" si="50"/>
+        <v>3.7229057038309428E-2</v>
+      </c>
+      <c r="F59" s="274">
+        <f t="shared" si="50"/>
+        <v>4.668599581564039E-2</v>
+      </c>
+      <c r="G59" s="274">
+        <f t="shared" si="50"/>
+        <v>1.1366227907873562E-2</v>
+      </c>
+      <c r="H59" s="274">
+        <f t="shared" si="50"/>
+        <v>1.5928630964189793E-2</v>
+      </c>
+      <c r="I59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.12969985386981822</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>0.11620476923814542</v>
-      </c>
-      <c r="E60" s="274">
-        <f t="shared" si="50"/>
-        <v>0.10448197485742679</v>
-      </c>
-      <c r="F60" s="274">
-        <f t="shared" si="50"/>
-        <v>0.10393506682892123</v>
-      </c>
-      <c r="G60" s="274">
-        <f t="shared" si="50"/>
-        <v>8.3934909628360588E-2</v>
-      </c>
-      <c r="H60" s="274">
-        <f t="shared" si="50"/>
-        <v>7.2715861436737694E-2</v>
-      </c>
-      <c r="I60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>5.1743178693303075E-2</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>-4.5809703804374068E-2</v>
-      </c>
-      <c r="E61" s="274">
-        <f t="shared" si="51"/>
-        <v>3.7229057038309428E-2</v>
-      </c>
-      <c r="F61" s="274">
-        <f t="shared" si="51"/>
-        <v>4.668599581564039E-2</v>
-      </c>
-      <c r="G61" s="274">
-        <f t="shared" si="51"/>
-        <v>1.1366227907873562E-2</v>
-      </c>
-      <c r="H61" s="274">
-        <f t="shared" si="51"/>
-        <v>1.5928630964189793E-2</v>
-      </c>
-      <c r="I61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9226,12 +9157,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9913,27 +9840,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10047,13 +9977,13 @@
         <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>1097907.2411789391</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>0.70052643031743078</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10073,9 +10003,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0519461567118848</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10125,7 +10055,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10172,7 +10102,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10200,7 +10130,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10283,7 +10213,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10305,7 +10235,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10373,7 +10303,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10695,7 +10625,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10832,7 +10762,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11119,9 +11049,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11139,13 +11069,13 @@
         <f>MAX(D4,0)</f>
         <v>45613</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5572283958753168</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>71029.858821060829</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11163,7 +11093,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11229,7 +11159,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11264,7 +11194,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11285,7 +11215,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11306,7 +11236,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11321,7 +11251,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11352,7 +11282,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11366,7 +11296,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11387,7 +11317,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11402,7 +11332,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11424,7 +11354,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11432,11 +11362,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11464,7 +11394,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11536,7 +11466,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11566,7 +11496,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11596,7 +11526,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11654,12 +11584,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11689,7 +11619,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11719,7 +11649,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11770,7 +11700,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11801,7 +11731,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11822,28 +11752,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6005354747787642E-2</v>
+        <v>2.5447100263040857E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9826653966685482E-2</v>
+        <v>5.8542360858277208E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5147743984849252E-2</v>
+        <v>6.3749223541525124E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11873,21 +11803,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8921389396709327E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8921389396709327E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8921389396709327E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11904,27 +11834,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11943,24 +11873,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6049623353526243</v>
+        <v>6.5650398920840436</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3747972325364675</v>
+        <v>7.3265092997203585</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11971,18 +11901,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7537947908805083</v>
+        <v>2.7454965914877381</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7537947908805083</v>
+        <v>2.7454965914877381</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12001,14 +11931,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12021,49 +11951,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3826775.8139432375</v>
+        <v>3801719.247968684</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2838336106587862</v>
+        <v>3.2639851006493821</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6665776115593443</v>
+        <v>3.642569974767528</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8764203700253175</v>
+        <v>4.8444910502371039</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="91">
+        <v>140</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-71029.858821060829</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.8056375070783201E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12086,29 +12016,29 @@
       <c r="B100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>4924683.0551221762</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7766788412466625</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1677793876032707</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>4.4431515779372504</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7185237682712291</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.9283665267372028</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12118,21 +12048,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12145,31 +12075,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1428941.7010425301</v>
+        <v>1424635.772657756</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1637542982396967</v>
+        <v>1.160247477309188</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.369122703811408</v>
+        <v>1.3649970321284564</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.369122703811408</v>
+        <v>1.3649970321284564</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.369122703811408</v>
+        <v>1.3649970321284564</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.820885454839916</v>
+        <v>1.8153984553635225</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12179,21 +12109,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12206,31 +12136,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="91">
+        <v>185</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2889408.7692018407</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>2.4702165697431795</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>2.7684510457073395</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>2.9061371408743293</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>3.0438232360413187</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>3.8746259907885596</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12239,7 +12169,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C91C6D5-6A7B-4E3A-AC4D-1DB7B1DFDBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6DB62F9-7C5C-4347-85A8-E2CE9C17D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1917,7 +1925,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2153,12 +2160,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2360,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2596,8 +2604,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2813,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,163 +2839,163 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45591</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1043691480</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <f>(16.5%+25%)/2</f>
         <v>0.20750000000000002</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>271</v>
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>272</v>
+      <c r="C19" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>272</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>271</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>273</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3044,623 +3052,627 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>3833194</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>4067732</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>3866335</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>3518847</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>3087781</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>2998828</v>
       </c>
-      <c r="I25" s="149">
+      <c r="I25" s="148">
         <v>2902271</v>
       </c>
-      <c r="J25" s="149">
+      <c r="J25" s="148">
         <v>2629905</v>
       </c>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>2530133</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>2764937</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>2639016</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>2360170</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>2074351</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <v>2065429</v>
       </c>
-      <c r="I26" s="150">
+      <c r="I26" s="149">
         <v>1867706</v>
       </c>
-      <c r="J26" s="150">
+      <c r="J26" s="149">
         <v>1588722</v>
       </c>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>829721</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>842779</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>769862</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>714686</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>676867</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <v>648594</v>
       </c>
-      <c r="I27" s="150">
+      <c r="I27" s="149">
         <v>767003</v>
       </c>
-      <c r="J27" s="150">
+      <c r="J27" s="149">
         <v>750812</v>
       </c>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="150">
+        <v>240</v>
+      </c>
+      <c r="C29" s="149">
         <v>270</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>259</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>365</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>116</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>64</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>0</v>
       </c>
-      <c r="I29" s="150">
+      <c r="I29" s="149">
         <v>0</v>
       </c>
-      <c r="J29" s="150">
+      <c r="J29" s="149">
         <v>0</v>
       </c>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>2980</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>30135</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>35414</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="149">
         <v>30652</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <v>27954</v>
       </c>
-      <c r="H30" s="150">
+      <c r="H30" s="149">
         <v>25134</v>
       </c>
-      <c r="I30" s="150">
+      <c r="I30" s="149">
         <v>25097</v>
       </c>
-      <c r="J30" s="150">
+      <c r="J30" s="149">
         <v>16390</v>
       </c>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-212109</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>-63909</v>
       </c>
-      <c r="E31" s="150">
+      <c r="E31" s="149">
         <v>-85212</v>
       </c>
-      <c r="F31" s="150">
+      <c r="F31" s="149">
         <v>-137953</v>
       </c>
-      <c r="G31" s="150">
+      <c r="G31" s="149">
         <v>-184857</v>
       </c>
-      <c r="H31" s="150">
+      <c r="H31" s="149">
         <v>-59025</v>
       </c>
-      <c r="I31" s="150">
+      <c r="I31" s="149">
         <v>-13114</v>
       </c>
-      <c r="J31" s="150">
+      <c r="J31" s="149">
         <v>-55207</v>
       </c>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>47627</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>45913</v>
       </c>
-      <c r="E32" s="150">
+      <c r="E32" s="149">
         <v>50573</v>
       </c>
-      <c r="F32" s="150">
+      <c r="F32" s="149">
         <v>36563</v>
       </c>
-      <c r="G32" s="150">
+      <c r="G32" s="149">
         <v>23174</v>
       </c>
-      <c r="H32" s="150">
+      <c r="H32" s="149">
         <v>17650</v>
       </c>
-      <c r="I32" s="150">
+      <c r="I32" s="149">
         <v>20113</v>
       </c>
-      <c r="J32" s="150">
+      <c r="J32" s="149">
         <v>21618</v>
       </c>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>329600</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>634000</v>
       </c>
-      <c r="E33" s="150">
+      <c r="E33" s="149">
         <v>315900</v>
       </c>
-      <c r="F33" s="150">
+      <c r="F33" s="149">
         <v>259700</v>
       </c>
-      <c r="G33" s="150">
+      <c r="G33" s="149">
         <v>283600</v>
       </c>
-      <c r="H33" s="150">
+      <c r="H33" s="149">
         <v>215300</v>
       </c>
-      <c r="I33" s="150">
+      <c r="I33" s="149">
         <v>259700</v>
       </c>
-      <c r="J33" s="150">
+      <c r="J33" s="149">
         <v>467600</v>
       </c>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>2504156</v>
       </c>
-      <c r="E34" s="150">
+      <c r="E34" s="149">
         <v>3108899</v>
       </c>
-      <c r="F34" s="150">
+      <c r="F34" s="149">
         <v>3296593</v>
       </c>
-      <c r="G34" s="150">
+      <c r="G34" s="149">
         <v>2995218</v>
       </c>
-      <c r="H34" s="150">
+      <c r="H34" s="149">
         <v>2922746</v>
       </c>
-      <c r="I34" s="150">
+      <c r="I34" s="149">
         <v>2928529</v>
       </c>
-      <c r="J34" s="150">
+      <c r="J34" s="149">
         <v>2035257</v>
       </c>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <v>372854</v>
       </c>
-      <c r="E35" s="150">
+      <c r="E35" s="149">
         <v>475382</v>
       </c>
-      <c r="F35" s="150">
+      <c r="F35" s="149">
         <v>508545</v>
       </c>
-      <c r="G35" s="150">
+      <c r="G35" s="149">
         <v>421056</v>
       </c>
-      <c r="H35" s="150">
+      <c r="H35" s="149">
         <v>449932</v>
       </c>
-      <c r="I35" s="150">
+      <c r="I35" s="149">
         <v>420626</v>
       </c>
-      <c r="J35" s="150">
+      <c r="J35" s="149">
         <v>296371</v>
       </c>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>415015</v>
       </c>
-      <c r="E36" s="150">
+      <c r="E36" s="149">
         <v>464999</v>
       </c>
-      <c r="F36" s="150">
+      <c r="F36" s="149">
         <v>363144</v>
       </c>
-      <c r="G36" s="150">
+      <c r="G36" s="149">
         <v>326593</v>
       </c>
-      <c r="H36" s="150">
+      <c r="H36" s="149">
         <v>294086</v>
       </c>
-      <c r="I36" s="150">
+      <c r="I36" s="149">
         <v>290728</v>
       </c>
-      <c r="J36" s="150">
+      <c r="J36" s="149">
         <v>215131</v>
       </c>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>903222</v>
+      </c>
+      <c r="D37" s="149">
         <v>896185</v>
       </c>
-      <c r="E37" s="150">
+      <c r="E37" s="149">
         <v>1060434</v>
       </c>
-      <c r="F37" s="150">
+      <c r="F37" s="149">
         <v>1065331</v>
       </c>
-      <c r="G37" s="150">
+      <c r="G37" s="149">
         <v>859227</v>
       </c>
-      <c r="H37" s="150">
+      <c r="H37" s="149">
         <v>796096</v>
       </c>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>112845</v>
       </c>
-      <c r="E38" s="150">
+      <c r="E38" s="149">
         <v>82874</v>
       </c>
-      <c r="F38" s="150">
+      <c r="F38" s="149">
         <v>75361</v>
       </c>
-      <c r="G38" s="150">
+      <c r="G38" s="149">
         <v>62385</v>
       </c>
-      <c r="H38" s="150">
+      <c r="H38" s="149">
         <v>53103</v>
       </c>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <v>8558</v>
       </c>
-      <c r="E39" s="150">
+      <c r="E39" s="149">
         <v>5576</v>
       </c>
-      <c r="F39" s="150">
+      <c r="F39" s="149">
         <v>7278</v>
       </c>
-      <c r="G39" s="150">
+      <c r="G39" s="149">
         <v>1660</v>
       </c>
-      <c r="H39" s="150">
+      <c r="H39" s="149">
         <v>0</v>
       </c>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>1113</v>
       </c>
-      <c r="E40" s="150">
+      <c r="E40" s="149">
         <v>5636</v>
       </c>
-      <c r="F40" s="150">
+      <c r="F40" s="149">
         <v>9396</v>
       </c>
-      <c r="G40" s="150">
+      <c r="G40" s="149">
         <v>131</v>
       </c>
-      <c r="H40" s="150">
+      <c r="H40" s="149">
         <v>0</v>
       </c>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>3666124</v>
+      </c>
+      <c r="D41" s="149">
         <v>3674703</v>
       </c>
-      <c r="E41" s="150">
+      <c r="E41" s="149">
         <v>4116261</v>
       </c>
-      <c r="F41" s="150">
+      <c r="F41" s="149">
         <v>4043183</v>
       </c>
-      <c r="G41" s="150">
+      <c r="G41" s="149">
         <v>3712318</v>
       </c>
-      <c r="H41" s="150">
+      <c r="H41" s="149">
         <v>3595173</v>
       </c>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>45613</v>
+      </c>
+      <c r="D42" s="149">
         <v>43262</v>
       </c>
-      <c r="E42" s="150">
+      <c r="E42" s="149">
         <v>165622</v>
       </c>
-      <c r="F42" s="150">
+      <c r="F42" s="149">
         <v>143504</v>
       </c>
-      <c r="G42" s="150">
+      <c r="G42" s="149">
         <v>122753</v>
       </c>
-      <c r="H42" s="150">
+      <c r="H42" s="149">
         <v>114637</v>
       </c>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <v>1696980</v>
       </c>
-      <c r="E43" s="150">
+      <c r="E43" s="149">
         <v>2130407</v>
       </c>
-      <c r="F43" s="150">
+      <c r="F43" s="149">
         <v>2344902</v>
       </c>
-      <c r="G43" s="150">
+      <c r="G43" s="149">
         <v>2164713</v>
       </c>
-      <c r="H43" s="150">
+      <c r="H43" s="149">
         <v>2079261</v>
       </c>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.15820000000000001</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="152">
+        <v>236</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.83005366726297E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>2.8555956678700364E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3737,7 +3749,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>63587</v>
@@ -3769,7 +3781,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3781,7 +3793,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3802,8 +3814,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3857,7 +3869,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3875,7 +3887,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3887,7 +3899,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3900,7 +3912,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3954,16 +3966,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>62618</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3989,7 +4001,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -4023,21 +4035,21 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214">
         <v>100207</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59">
+        <v>268</v>
+      </c>
+      <c r="C83" s="214">
         <v>3620511</v>
       </c>
     </row>
@@ -4055,20 +4067,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="197">
+        <v>234</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="269">
+        <v>232</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -4098,10 +4110,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4113,12 +4125,12 @@
         <f>C25</f>
         <v>3833194</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>3833194</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>3833194</v>
       </c>
@@ -4131,75 +4143,75 @@
         <f>C26</f>
         <v>2530133</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>2530133</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>2530133</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>829721</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>829721</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>829721</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>270</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>270</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>281973</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*0.01</f>
         <v>38331.94</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*0</f>
         <v>0</v>
       </c>
@@ -4212,12 +4224,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4230,12 +4242,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>3760.2523659305994</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>9.8097105597332122E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>3760.2523659305989</v>
       </c>
@@ -4244,16 +4256,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.15820000000000001</v>
       </c>
@@ -4334,7 +4346,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4386,11 +4398,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>5.59</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>274</v>
+      <c r="G3" s="131">
+        <v>5.54</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4428,7 +4440,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>5834.2353732000001</v>
+        <v>5782.0507992000003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4438,11 +4450,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4464,11 +4476,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4476,7 +4488,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4486,10 +4498,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4497,7 +4509,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4505,13 +4517,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4520,12 +4532,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="174">
+        <v>237</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4535,7 +4547,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4546,7 +4558,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4554,13 +4566,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4570,129 +4582,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="175">
+        <v>238</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.12969985386981822</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.79234774516965889</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.83889335585442648</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.12250351733673522</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.5771563643782915</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.68646556688832</v>
+        <v>15.546157288114721</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.44393539403966586</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.83005366726297E-2</v>
+        <v>2.8555956678700364E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4709,10 +4721,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4720,22 +4732,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>3.7649563139451825</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>6.7949840170157394</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>4.4293603693472736</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>5.9086817539267305</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4743,23 +4755,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4767,9 +4779,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4777,17 +4789,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4795,26 +4807,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4822,9 +4834,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4837,16 +4849,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5798,10 +5810,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5827,16 +5839,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5850,11 +5862,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85">
@@ -5879,7 +5891,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5887,7 +5899,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93">
@@ -5951,47 +5963,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3833194</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>4067732</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>3866335</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>3518847</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>3087781</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2998828</v>
       </c>
-      <c r="I6" s="200">
+      <c r="I6" s="199">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>2902271</v>
       </c>
-      <c r="J6" s="200">
+      <c r="J6" s="199">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>2629905</v>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6053,47 +6065,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2530133</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2764937</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2639016</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>2360170</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>2074351</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>2065429</v>
       </c>
-      <c r="I8" s="199">
+      <c r="I8" s="198">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>1867706</v>
       </c>
-      <c r="J8" s="199">
+      <c r="J8" s="198">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>1588722</v>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6104,47 +6116,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1303061</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>1302795</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>1227319</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>1158677</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>1013430</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>933399</v>
       </c>
-      <c r="I9" s="151">
+      <c r="I9" s="150">
         <f t="shared" si="2"/>
         <v>1034565</v>
       </c>
-      <c r="J9" s="151">
+      <c r="J9" s="150">
         <f t="shared" si="2"/>
         <v>1041183</v>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6155,47 +6167,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>829721</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>842779</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>769862</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>714686</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>676867</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>648594</v>
       </c>
-      <c r="I10" s="199">
+      <c r="I10" s="198">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>767003</v>
       </c>
-      <c r="J10" s="199">
+      <c r="J10" s="198">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>750812</v>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6206,47 +6218,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6255,49 +6267,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3760.2523659305994</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>38025.236593059941</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>44686.435331230285</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>38677.602523659305</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>35273.186119873819</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>31714.826498422713</v>
       </c>
-      <c r="I12" s="199">
+      <c r="I12" s="198">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>31668.13880126183</v>
       </c>
-      <c r="J12" s="199">
+      <c r="J12" s="198">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>20681.388012618296</v>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6305,50 +6317,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.12250351733673522</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.10374104375778445</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.10676016554922678</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.11518358072298703</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>9.7574864888451018E-2</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>8.4396362012618686E-2</v>
       </c>
-      <c r="I13" s="229">
+      <c r="I13" s="226">
         <f t="shared" si="3"/>
         <v>8.1279060845364945E-2</v>
       </c>
-      <c r="J13" s="229">
+      <c r="J13" s="226">
         <f t="shared" si="3"/>
         <v>0.1025472828818462</v>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6356,50 +6368,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>421990.76340694004</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>412770.56466876972</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>405313.3974763407</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>301289.81388012617</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>253090.17350157729</v>
       </c>
-      <c r="I14" s="230">
+      <c r="I14" s="227">
         <f t="shared" si="4"/>
         <v>235893.86119873816</v>
       </c>
-      <c r="J14" s="230">
+      <c r="J14" s="227">
         <f t="shared" si="4"/>
         <v>269689.61198738171</v>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6407,50 +6419,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.11277257313150643</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>2.2337345555560939E-2</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>1.8398521338945647E-2</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>0.34526087110798337</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>0.19044453489320673</v>
       </c>
-      <c r="H15" s="232">
+      <c r="H15" s="229">
         <f t="shared" si="5"/>
         <v>7.2898515524960655E-2</v>
       </c>
-      <c r="I15" s="232">
+      <c r="I15" s="229">
         <f t="shared" si="5"/>
         <v>-0.12531350592111345</v>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6461,47 +6473,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-212109</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-63909</v>
       </c>
-      <c r="E16" s="199">
+      <c r="E16" s="198">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>-85212</v>
       </c>
-      <c r="F16" s="199">
+      <c r="F16" s="198">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-137953</v>
       </c>
-      <c r="G16" s="199">
+      <c r="G16" s="198">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>-184857</v>
       </c>
-      <c r="H16" s="199">
+      <c r="H16" s="198">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-59025</v>
       </c>
-      <c r="I16" s="199">
+      <c r="I16" s="198">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v>-13114</v>
       </c>
-      <c r="J16" s="199">
+      <c r="J16" s="198">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v>-55207</v>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6510,49 +6522,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="199">
+        <v>240</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>270</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>259</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>365</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>116</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>64</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="199">
+      <c r="I17" s="198">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="199">
+      <c r="J17" s="198">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6563,47 +6575,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.2424886400218721E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>1.1287125110503839E-2</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="151">
         <f t="shared" si="6"/>
         <v>1.3080346115895286E-2</v>
       </c>
-      <c r="F18" s="152">
+      <c r="F18" s="151">
         <f t="shared" si="6"/>
         <v>1.0390619427329464E-2</v>
       </c>
-      <c r="G18" s="152">
+      <c r="G18" s="151">
         <f t="shared" si="6"/>
         <v>7.5050659356994554E-3</v>
       </c>
-      <c r="H18" s="152">
+      <c r="H18" s="151">
         <f t="shared" si="6"/>
         <v>5.8856326538234268E-3</v>
       </c>
-      <c r="I18" s="152">
+      <c r="I18" s="151">
         <f t="shared" si="6"/>
         <v>6.9300902637968679E-3</v>
       </c>
-      <c r="J18" s="152">
+      <c r="J18" s="151">
         <f t="shared" si="6"/>
         <v>8.2200687857546181E-3</v>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6614,47 +6626,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>47627</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>45913</v>
       </c>
-      <c r="E19" s="199">
+      <c r="E19" s="198">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>50573</v>
       </c>
-      <c r="F19" s="199">
+      <c r="F19" s="198">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>36563</v>
       </c>
-      <c r="G19" s="199">
+      <c r="G19" s="198">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>23174</v>
       </c>
-      <c r="H19" s="199">
+      <c r="H19" s="198">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>17650</v>
       </c>
-      <c r="I19" s="199">
+      <c r="I19" s="198">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v>20113</v>
       </c>
-      <c r="J19" s="199">
+      <c r="J19" s="198">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v>21618</v>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6663,49 +6675,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>8.5985734090160845E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0.15586080892251505</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>8.1705284203257095E-2</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>7.3802583630376659E-2</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>9.1845891920443845E-2</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>7.1794714468452342E-2</v>
       </c>
-      <c r="I20" s="152">
+      <c r="I20" s="151">
         <f t="shared" si="7"/>
         <v>8.9481650748672328E-2</v>
       </c>
-      <c r="J20" s="152">
+      <c r="J20" s="151">
         <f t="shared" si="7"/>
         <v>0.17780109927925153</v>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6716,47 +6728,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>329600</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>634000</v>
       </c>
-      <c r="E21" s="199">
+      <c r="E21" s="198">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>315900</v>
       </c>
-      <c r="F21" s="199">
+      <c r="F21" s="198">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>259700</v>
       </c>
-      <c r="G21" s="199">
+      <c r="G21" s="198">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>283600</v>
       </c>
-      <c r="H21" s="199">
+      <c r="H21" s="198">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>215300</v>
       </c>
-      <c r="I21" s="199">
+      <c r="I21" s="198">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v>259700</v>
       </c>
-      <c r="J21" s="199">
+      <c r="J21" s="198">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v>467600</v>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6767,47 +6779,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>187336.74763406941</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-166355.23659305996</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>147078.56466876972</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>182060.3974763407</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>40799.813880126167</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>55440.173501577287</v>
       </c>
-      <c r="I22" s="161">
+      <c r="I22" s="160">
         <f t="shared" si="8"/>
         <v>-3693.1388012618409</v>
       </c>
-      <c r="J22" s="161">
+      <c r="J22" s="160">
         <f t="shared" si="8"/>
         <v>-176292.38801261829</v>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6818,47 +6830,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.8731244100872537E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-3.2410327179863377E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>3.0147352078906769E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>4.1002881057346341E-2</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>1.047154979579186E-2</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>1.4651169556906899E-2</v>
       </c>
-      <c r="I23" s="153">
+      <c r="I23" s="152">
         <f t="shared" si="9"/>
         <v>-1.0084559643120882E-3</v>
       </c>
-      <c r="J23" s="153">
+      <c r="J23" s="152">
         <f t="shared" si="9"/>
         <v>-5.3124244982233199E-2</v>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6869,7 +6881,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>148464.3725</v>
       </c>
@@ -6917,50 +6929,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233" t="str">
+      <c r="C25" s="230" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>-0.19214410872697874</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>3.4622849999083796</v>
       </c>
-      <c r="G25" s="233">
+      <c r="G25" s="230">
         <f t="shared" si="10"/>
         <v>-0.26407492431520979</v>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="I25" s="233">
+      <c r="I25" s="230">
         <f t="shared" si="10"/>
         <v>0.979051059192655</v>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7024,7 +7036,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>4569346</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -7077,43 +7089,43 @@
         <f>Fin_Analysis!C13</f>
         <v>422018</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>372854</v>
       </c>
-      <c r="E28" s="199">
+      <c r="E28" s="198">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v>475382</v>
       </c>
-      <c r="F28" s="199">
+      <c r="F28" s="198">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v>508545</v>
       </c>
-      <c r="G28" s="199">
+      <c r="G28" s="198">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v>421056</v>
       </c>
-      <c r="H28" s="199">
+      <c r="H28" s="198">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v>449932</v>
       </c>
-      <c r="I28" s="199">
+      <c r="I28" s="198">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v>420626</v>
       </c>
-      <c r="J28" s="199">
+      <c r="J28" s="198">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v>296371</v>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7128,43 +7140,43 @@
         <f>Fin_Analysis!C18</f>
         <v>370793</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>415015</v>
       </c>
-      <c r="E29" s="199">
+      <c r="E29" s="198">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v>464999</v>
       </c>
-      <c r="F29" s="199">
+      <c r="F29" s="198">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v>363144</v>
       </c>
-      <c r="G29" s="199">
+      <c r="G29" s="198">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v>326593</v>
       </c>
-      <c r="H29" s="199">
+      <c r="H29" s="198">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v>294086</v>
       </c>
-      <c r="I29" s="199">
+      <c r="I29" s="198">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v>290728</v>
       </c>
-      <c r="J29" s="199">
+      <c r="J29" s="198">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v>215131</v>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7173,49 +7185,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>903222</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>896185</v>
       </c>
-      <c r="E30" s="199">
+      <c r="E30" s="198">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>1060434</v>
       </c>
-      <c r="F30" s="199">
+      <c r="F30" s="198">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>1065331</v>
       </c>
-      <c r="G30" s="199">
+      <c r="G30" s="198">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>859227</v>
       </c>
-      <c r="H30" s="199">
+      <c r="H30" s="198">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v>796096</v>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7230,43 +7242,43 @@
         <f>Fin_Analysis!I15</f>
         <v>5523</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>8558</v>
       </c>
-      <c r="E31" s="199">
+      <c r="E31" s="198">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>5576</v>
       </c>
-      <c r="F31" s="199">
+      <c r="F31" s="198">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>7278</v>
       </c>
-      <c r="G31" s="199">
+      <c r="G31" s="198">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>1660</v>
       </c>
-      <c r="H31" s="199">
+      <c r="H31" s="198">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7281,43 +7293,43 @@
         <f>Fin_Analysis!I34</f>
         <v>2115</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1113</v>
       </c>
-      <c r="E32" s="199">
+      <c r="E32" s="198">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>5636</v>
       </c>
-      <c r="F32" s="199">
+      <c r="F32" s="198">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>9396</v>
       </c>
-      <c r="G32" s="199">
+      <c r="G32" s="198">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>131</v>
       </c>
-      <c r="H32" s="199">
+      <c r="H32" s="198">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7381,45 +7393,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>3666124</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>3674703</v>
       </c>
-      <c r="E34" s="199">
+      <c r="E34" s="198">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>4116261</v>
       </c>
-      <c r="F34" s="199">
+      <c r="F34" s="198">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>4043183</v>
       </c>
-      <c r="G34" s="199">
+      <c r="G34" s="198">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>3712318</v>
       </c>
-      <c r="H34" s="199">
+      <c r="H34" s="198">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v>3595173</v>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7432,45 +7444,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>45613</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>43262</v>
       </c>
-      <c r="E35" s="199">
+      <c r="E35" s="198">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>165622</v>
       </c>
-      <c r="F35" s="199">
+      <c r="F35" s="198">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>143504</v>
       </c>
-      <c r="G35" s="199">
+      <c r="G35" s="198">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>122753</v>
       </c>
-      <c r="H35" s="199">
+      <c r="H35" s="198">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v>114637</v>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7485,43 +7497,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>1696980</v>
       </c>
-      <c r="E36" s="199">
+      <c r="E36" s="198">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v>2130407</v>
       </c>
-      <c r="F36" s="199">
+      <c r="F36" s="198">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v>2344902</v>
       </c>
-      <c r="G36" s="199">
+      <c r="G36" s="198">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v>2164713</v>
       </c>
-      <c r="H36" s="199">
+      <c r="H36" s="198">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v>2079261</v>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7583,47 +7595,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.1618841939033181</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>0.14683516779484243</v>
       </c>
-      <c r="E38" s="155">
+      <c r="E38" s="154">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>0.13549952094771398</v>
       </c>
-      <c r="F38" s="155">
+      <c r="F38" s="154">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v>0.14666074596446271</v>
       </c>
-      <c r="G38" s="155">
+      <c r="G38" s="154">
         <f t="shared" si="33"/>
         <v>0.12518107366036607</v>
       </c>
-      <c r="H38" s="155">
+      <c r="H38" s="154">
         <f t="shared" si="33"/>
         <v>0.1094676893425876</v>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7632,7 +7644,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7652,47 +7664,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.67972447545708514</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.68256268533378506</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.67072254065038917</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.67179343353689913</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.68874540320418509</v>
       </c>
-      <c r="I40" s="156">
+      <c r="I40" s="155">
         <f t="shared" si="34"/>
         <v>0.64353259912668392</v>
       </c>
-      <c r="J40" s="156">
+      <c r="J40" s="155">
         <f t="shared" si="34"/>
         <v>0.60409862713672169</v>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7701,49 +7713,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.20718646164496579</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.19911932101072463</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.2031023230052344</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.21920822752649879</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>0.21628249436113042</v>
       </c>
-      <c r="I41" s="153">
+      <c r="I41" s="152">
         <f t="shared" si="35"/>
         <v>0.26427683700109328</v>
       </c>
-      <c r="J41" s="153">
+      <c r="J41" s="152">
         <f t="shared" si="35"/>
         <v>0.28549016029096108</v>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7754,47 +7766,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153">
+      <c r="I42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J42" s="153">
+      <c r="J42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7805,47 +7817,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>6.3671844654465925E-5</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>9.440464936432048E-5</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>3.2965343477565238E-5</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>2.0726858543400585E-5</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I43" s="153">
+      <c r="I43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="J43" s="153">
+      <c r="J43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7856,47 +7868,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.8097105597332122E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>9.3480191401645787E-3</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>1.1557828106263499E-2</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>1.0991555621389423E-2</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>1.1423474048151024E-2</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>1.0575740422065792E-2</v>
       </c>
-      <c r="I44" s="153">
+      <c r="I44" s="152">
         <f t="shared" si="38"/>
         <v>1.0911503026857875E-2</v>
       </c>
-      <c r="J44" s="153">
+      <c r="J44" s="152">
         <f t="shared" si="38"/>
         <v>7.8639296904710609E-3</v>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7905,49 +7917,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0.14457368381201122</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>6.8624938087361809E-2</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>6.3411964203047191E-2</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>8.4340825984744378E-2</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>6.5909081814628914E-2</v>
       </c>
-      <c r="I45" s="153">
+      <c r="I45" s="152">
         <f t="shared" si="39"/>
         <v>8.2551560484875469E-2</v>
       </c>
-      <c r="J45" s="153">
+      <c r="J45" s="152">
         <f t="shared" si="39"/>
         <v>0.1695810304934969</v>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7958,47 +7970,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.8872232303940111E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-4.0896311898881238E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>3.8040822812500652E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>5.1738651176462265E-2</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>1.321331204516323E-2</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>1.8487280197989776E-2</v>
       </c>
-      <c r="I46" s="153">
+      <c r="I46" s="152">
         <f t="shared" si="40"/>
         <v>-1.2724996395105214E-3</v>
       </c>
-      <c r="J46" s="153">
+      <c r="J46" s="152">
         <f t="shared" si="40"/>
         <v>-6.7033747611650721E-2</v>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8007,9 +8019,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -8024,50 +8038,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>0.83889335585442648</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>0.88992160823017319</v>
       </c>
-      <c r="E48" s="272">
+      <c r="E48" s="269">
         <f t="shared" si="41"/>
         <v>0.74687324634733165</v>
       </c>
-      <c r="F48" s="272">
+      <c r="F48" s="269">
         <f t="shared" si="41"/>
         <v>0.68882007566192438</v>
       </c>
-      <c r="G48" s="272">
+      <c r="G48" s="269">
         <f t="shared" si="41"/>
         <v>0.67543489126761302</v>
       </c>
-      <c r="H48" s="272">
+      <c r="H48" s="269">
         <f t="shared" si="41"/>
         <v>0.68290692280523013</v>
       </c>
-      <c r="I48" s="272" t="e">
+      <c r="I48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="272" t="e">
+      <c r="J48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8076,49 +8090,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.11009565391159436</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>9.1661397555197838E-2</v>
       </c>
-      <c r="E49" s="153">
+      <c r="E49" s="152">
         <f t="shared" si="42"/>
         <v>0.12295416718934081</v>
       </c>
-      <c r="F49" s="153">
+      <c r="F49" s="152">
         <f t="shared" si="42"/>
         <v>0.1445203499896415</v>
       </c>
-      <c r="G49" s="153">
+      <c r="G49" s="152">
         <f t="shared" si="42"/>
         <v>0.13636200235703244</v>
       </c>
-      <c r="H49" s="153">
+      <c r="H49" s="152">
         <f t="shared" si="42"/>
         <v>0.1500359473767752</v>
       </c>
-      <c r="I49" s="153">
+      <c r="I49" s="152">
         <f t="shared" si="42"/>
         <v>0.14492995312980766</v>
       </c>
-      <c r="J49" s="153">
+      <c r="J49" s="152">
         <f t="shared" si="42"/>
         <v>0.11269266380344538</v>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8127,49 +8141,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>9.6732124698097721E-2</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>0.10202614134854508</v>
       </c>
-      <c r="E50" s="153">
+      <c r="E50" s="152">
         <f t="shared" si="43"/>
         <v>0.12026867821851961</v>
       </c>
-      <c r="F50" s="153">
+      <c r="F50" s="152">
         <f t="shared" si="43"/>
         <v>0.10319971286049096</v>
       </c>
-      <c r="G50" s="153">
+      <c r="G50" s="152">
         <f t="shared" si="43"/>
         <v>0.10576948300413792</v>
       </c>
-      <c r="H50" s="153">
+      <c r="H50" s="152">
         <f t="shared" si="43"/>
         <v>9.8066978166136909E-2</v>
       </c>
-      <c r="I50" s="153">
+      <c r="I50" s="152">
         <f t="shared" si="43"/>
         <v>0.10017258898290339</v>
       </c>
-      <c r="J50" s="153">
+      <c r="J50" s="152">
         <f t="shared" si="43"/>
         <v>8.1801814133970613E-2</v>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8178,49 +8192,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.90436944119929397</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>-0.31732846070199655</v>
       </c>
-      <c r="E51" s="153">
+      <c r="E51" s="152">
         <f t="shared" si="44"/>
         <v>-0.24522285661663137</v>
       </c>
-      <c r="F51" s="153">
+      <c r="F51" s="152">
         <f t="shared" si="44"/>
         <v>-0.32002755958484314</v>
       </c>
-      <c r="G51" s="153">
+      <c r="G51" s="152">
         <f t="shared" si="44"/>
         <v>-2.0781423898013558</v>
       </c>
-      <c r="H51" s="153">
+      <c r="H51" s="152">
         <f t="shared" si="44"/>
         <v>-0.61129695413072072</v>
       </c>
-      <c r="I51" s="153">
+      <c r="I51" s="152">
         <f t="shared" si="44"/>
         <v>-4.8148447309869807E-2</v>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8229,7 +8243,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8246,49 +8260,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.79234774516965889</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.79447166502438915</v>
       </c>
-      <c r="E53" s="156">
+      <c r="E53" s="155">
         <f t="shared" si="45"/>
         <v>0.76315854034282493</v>
       </c>
-      <c r="F53" s="156">
+      <c r="F53" s="155">
         <f t="shared" si="45"/>
         <v>0.76336856471373082</v>
       </c>
-      <c r="G53" s="156">
+      <c r="G53" s="155">
         <f t="shared" si="45"/>
         <v>0.78519734575510025</v>
       </c>
-      <c r="H53" s="156">
+      <c r="H53" s="155">
         <f t="shared" si="45"/>
         <v>0.79260368699799533</v>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8298,47 +8312,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>24.526937370263081</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>-17.20145141071864</v>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <f t="shared" si="46"/>
         <v>13.117959745698334</v>
       </c>
-      <c r="F54" s="157">
+      <c r="F54" s="156">
         <f t="shared" si="46"/>
         <v>10.918819567970536</v>
       </c>
-      <c r="G54" s="157">
+      <c r="G54" s="156">
         <f t="shared" si="46"/>
         <v>22.780465594710311</v>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8348,47 +8362,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.4412548707603233E-3</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-1.5569092100994012E-3</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>2.4816668616667779E-3</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>6.3715119602040062E-4</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>1.5686346067175269E-3</v>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8398,47 +8412,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8446,149 +8460,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>0.12969985386981822</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>0.11620476923814542</v>
       </c>
-      <c r="E58" s="274">
+      <c r="E58" s="271">
         <f t="shared" si="49"/>
         <v>0.10448197485742679</v>
       </c>
-      <c r="F58" s="274">
+      <c r="F58" s="271">
         <f t="shared" si="49"/>
         <v>0.10393506682892123</v>
       </c>
-      <c r="G58" s="274">
+      <c r="G58" s="271">
         <f t="shared" si="49"/>
         <v>8.3934909628360588E-2</v>
       </c>
-      <c r="H58" s="274">
+      <c r="H58" s="271">
         <f t="shared" si="49"/>
         <v>7.2715861436737694E-2</v>
       </c>
-      <c r="I58" s="274" t="e">
+      <c r="I58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="274" t="e">
+      <c r="J58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>5.1743178693303075E-2</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>-4.5809703804374068E-2</v>
       </c>
-      <c r="E59" s="274">
+      <c r="E59" s="271">
         <f t="shared" si="50"/>
         <v>3.7229057038309428E-2</v>
       </c>
-      <c r="F59" s="274">
+      <c r="F59" s="271">
         <f t="shared" si="50"/>
         <v>4.668599581564039E-2</v>
       </c>
-      <c r="G59" s="274">
+      <c r="G59" s="271">
         <f t="shared" si="50"/>
         <v>1.1366227907873562E-2</v>
       </c>
-      <c r="H59" s="274">
+      <c r="H59" s="271">
         <f t="shared" si="50"/>
         <v>1.5928630964189793E-2</v>
       </c>
-      <c r="I59" s="274" t="e">
+      <c r="I59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J59" s="274" t="e">
+      <c r="J59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9884,8 +9898,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9921,8 +9935,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>3666124</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9934,8 +9948,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>3620511</v>
       </c>
       <c r="K3" s="24"/>
@@ -9945,8 +9959,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>45613</v>
       </c>
       <c r="E4" s="37"/>
@@ -9977,13 +9991,13 @@
         <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>1096998.2667516128</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>0.70077436912891855</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10003,9 +10017,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>1.0510752341789862</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10033,11 +10047,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -10080,7 +10094,7 @@
         <f>Inputs!C48</f>
         <v>1322113</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10108,7 +10122,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10136,7 +10150,7 @@
         <f>Inputs!C50</f>
         <v>422018</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10164,7 +10178,7 @@
         <f>Inputs!C51</f>
         <v>221617</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10177,7 +10191,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10192,7 +10206,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10219,7 +10233,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10241,7 +10255,7 @@
         <f>Inputs!C54</f>
         <v>63587</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10263,7 +10277,7 @@
         <f>Inputs!C55</f>
         <v>370793</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10284,7 +10298,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10292,7 +10306,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10309,7 +10323,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10317,7 +10331,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10336,7 +10350,7 @@
         <f>Inputs!C58</f>
         <v>22411</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10357,7 +10371,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10522,7 +10536,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>803015</v>
       </c>
@@ -10551,7 +10565,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10577,7 +10591,7 @@
         <f>Inputs!C61</f>
         <v>39731</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10604,7 +10618,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10631,7 +10645,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10647,7 +10661,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10661,7 +10675,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10688,7 +10702,7 @@
         <f>Inputs!C65</f>
         <v>85171</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10696,7 +10710,7 @@
         <f t="shared" si="1"/>
         <v>8517.1</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10714,7 +10728,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10722,7 +10736,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10741,7 +10755,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10749,7 +10763,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10768,7 +10782,7 @@
         <f>Inputs!C68</f>
         <v>1863998</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10789,7 +10803,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10810,7 +10824,7 @@
         <f>Inputs!C70</f>
         <v>23958</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10831,7 +10845,7 @@
         <f>Inputs!C71</f>
         <v>71331</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10852,7 +10866,7 @@
         <f>Inputs!C72</f>
         <v>62618</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10998,8 +11012,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>100207</v>
       </c>
       <c r="J48" s="8"/>
@@ -11025,8 +11039,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>903222</v>
       </c>
       <c r="J49" s="87"/>
@@ -11049,9 +11063,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11069,13 +11083,13 @@
         <f>MAX(D4,0)</f>
         <v>45613</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1.5771563643782918</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>71938.833248387018</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11096,7 +11110,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11196,7 +11210,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>1322113</v>
       </c>
@@ -11204,7 +11218,7 @@
         <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>1189901.7</v>
       </c>
@@ -11235,11 +11249,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>7638</v>
@@ -11316,12 +11330,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>895584</v>
       </c>
@@ -11400,17 +11414,17 @@
         <f>Data!C6</f>
         <v>3833194</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>3833194</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>3833194</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11421,23 +11435,23 @@
         <f>Data!C8</f>
         <v>2530133</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>2530133</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>2530133</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.66005868735054896</v>
       </c>
@@ -11447,48 +11461,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>1303061</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>1303061</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>1303061</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>829721</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>829721</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>829721</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.21645682425674254</v>
       </c>
@@ -11502,54 +11516,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>3760.2523659305994</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>9.8097105597332122E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>3760.2523659305989</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>9.8097105597332122E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>3760.2523659305989</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>9.8097105597332122E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.12250351733673522</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.12250351733673522</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.12250351733673522</v>
       </c>
@@ -11563,55 +11577,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>270</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>270</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>270</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>7.0437342852983705E-5</v>
       </c>
@@ -11619,29 +11633,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>281973</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>38331.94</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0.01</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11651,27 +11665,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>187336.74763406941</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>4.8872232303940111E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>430977.80763406941</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.11243307999388223</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>469309.74763406941</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.12243307999388223</v>
       </c>
@@ -11681,49 +11695,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.20750000000000002</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>148464.3725</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>3.8731244100872537E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>341549.91255000001</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>8.9103215895151675E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>371927.97499999998</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>9.7028215895151662E-2</v>
       </c>
@@ -11733,69 +11747,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.14224929047039839</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.32725179719776959</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.35635815959712541</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5447100263040857E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>2.5676767232923895E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8542360858277208E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>5.9070721515842889E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3749223541525124E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>6.4324577544607478E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.1121320849956782</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.48341980503897514</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.44393539403966586</v>
       </c>
@@ -11803,23 +11817,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.83005366726297E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>2.8555956678700364E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.83005366726297E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>2.8555956678700364E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.83005366726297E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>2.8555956678700364E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11841,7 +11855,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11864,27 +11878,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5650398920840436</v>
+        <v>6.5814406210156369</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3265092997203585</v>
+        <v>7.3463443264225337</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11892,27 +11906,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7454965914877381</v>
+        <v>2.7489080611287524</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7454965914877381</v>
+        <v>2.7489080611287524</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11926,25 +11940,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11955,21 +11969,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3801719.247968684</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>3812011.6259228769</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2639851006493821</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>3.2721391615161037</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.642569974767528</v>
-      </c>
-      <c r="I97" s="123">
+        <v>3.6524314885878697</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8444910502371039</v>
+        <v>4.857606519747744</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11977,18 +11991,18 @@
       <c r="B98" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-71938.833248387018</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-6.8927297603681714E-2</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11999,46 +12013,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>1168937.0999999999</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0.95200215201526783</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>1.1200025317826681</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>4909009.8926744899</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>3.7649563139451825</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>4.1552140159276902</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>4.4293603693472736</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>4.7035067227668561</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>5.9086817539267305</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12050,25 +12064,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -12079,27 +12093,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1424635.772657756</v>
+        <v>1426405.9812615449</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.160247477309188</v>
-      </c>
-      <c r="E103" s="123">
+        <v>1.1616891651470733</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3649970321284564</v>
+        <v>1.366693135467145</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3649970321284564</v>
-      </c>
-      <c r="H103" s="123">
+        <v>1.366693135467145</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3649970321284564</v>
+        <v>1.366693135467145</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8153984553635225</v>
+        <v>1.8176542136609535</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12111,25 +12125,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -12138,29 +12152,29 @@
       <c r="B106" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>2881583.7236309298</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>2.4633227395461281</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>2.7609535756974175</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>2.8980267524072092</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>3.0350999291170004</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>3.8631679837938417</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12171,14 +12185,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6DB62F9-7C5C-4347-85A8-E2CE9C17D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{289F642A-5A8E-40DF-943F-515FE440A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8555956678700364E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>5.54</v>
+        <v>5.59</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>276</v>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>5782.0507992000003</v>
+        <v>5834.2353732000001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5771563643782915</v>
+        <v>1.5913906275947021</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.546157288114721</v>
+        <v>15.68646556688832</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8555956678700364E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4734,20 +4734,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7649563139451825</v>
+        <v>3.7567709203082056</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>6.7949840170157394</v>
+        <v>6.7791858264264802</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4293603693472736</v>
+        <v>4.419730494480242</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9086817539267305</v>
+        <v>5.8949441968925917</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -9993,11 +9993,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>1096998.2667516128</v>
+        <v>1096348.9993035228</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70077436912891855</v>
+        <v>0.70095146827998112</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10019,7 +10019,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0510752341789862</v>
+        <v>1.0504531466554876</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11085,11 +11085,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5771563643782918</v>
+        <v>1.5913906275947023</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>71938.833248387018</v>
+        <v>72588.100696477151</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11770,17 +11770,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5676767232923895E-2</v>
+        <v>2.5447100263040857E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9070721515842889E-2</v>
+        <v>5.8542360858277208E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4324577544607478E-2</v>
+        <v>6.3749223541525124E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11821,17 +11821,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8555956678700364E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8555956678700364E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8555956678700364E-2</v>
+        <v>2.83005366726297E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11891,14 +11891,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5814406210156369</v>
+        <v>6.5650398920840436</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3463443264225337</v>
+        <v>7.3265092997203585</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11919,14 +11919,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7489080611287524</v>
+        <v>2.7454965914877381</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7489080611287524</v>
+        <v>2.7454965914877381</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11969,21 +11969,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3812011.6259228769</v>
+        <v>3801719.247968684</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2721391615161037</v>
+        <v>3.2639851006493821</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6524314885878697</v>
+        <v>3.642569974767528</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.857606519747744</v>
+        <v>4.8444910502371039</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11993,14 +11993,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-71938.833248387018</v>
+        <v>-72588.100696477151</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.8927297603681714E-2</v>
+        <v>-6.9549385127180632E-2</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -12032,27 +12032,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4909009.8926744899</v>
+        <v>4898068.2472722065</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7649563139451825</v>
+        <v>3.7567709203082056</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1552140159276902</v>
+        <v>4.1464378675374691</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.4293603693472736</v>
+        <v>4.419730494480242</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7035067227668561</v>
+        <v>4.6930231214230149</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.9086817539267305</v>
+        <v>5.8949441968925917</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12093,27 +12093,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1426405.9812615449</v>
+        <v>1424635.772657756</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1616891651470733</v>
+        <v>1.160247477309188</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.366693135467145</v>
+        <v>1.3649970321284564</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.366693135467145</v>
+        <v>1.3649970321284564</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.366693135467145</v>
+        <v>1.3649970321284564</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8176542136609535</v>
+        <v>1.8153984553635225</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12154,27 +12154,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2881583.7236309298</v>
+        <v>2876118.8236779906</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.4633227395461281</v>
+        <v>2.4585091988086969</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>2.7609535756974175</v>
+        <v>2.7557174498329626</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.8980267524072092</v>
+        <v>2.8923637633043491</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.0350999291170004</v>
+        <v>3.0290100767757355</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>3.8631679837938417</v>
+        <v>3.8551713261280574</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289F642A-5A8E-40DF-943F-515FE440A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5602E2FA-0879-44CE-83B7-E35B5C41F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -850,10 +847,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1690,7 +1687,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1838,7 +1835,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2028,9 +2024,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2366,6 +2359,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2821,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2835,173 +2829,173 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="191" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
+      <c r="C10" s="190">
+        <v>1043691480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="192">
-        <v>1043691480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
         <f>(16.5%+25%)/2</f>
         <v>0.20750000000000002</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>275</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3049,639 +3043,640 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>3833194</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>4067732</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>3866335</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>3518847</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>3087781</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>2998828</v>
       </c>
-      <c r="I25" s="148">
+      <c r="I25" s="147">
         <v>2902271</v>
       </c>
-      <c r="J25" s="148">
+      <c r="J25" s="147">
         <v>2629905</v>
       </c>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
+        <v>2530133</v>
+      </c>
+      <c r="D26" s="148">
+        <v>2764937</v>
+      </c>
+      <c r="E26" s="148">
+        <v>2639016</v>
+      </c>
+      <c r="F26" s="148">
+        <v>2360170</v>
+      </c>
+      <c r="G26" s="148">
+        <v>2074351</v>
+      </c>
+      <c r="H26" s="148">
+        <v>2065429</v>
+      </c>
+      <c r="I26" s="148">
+        <v>1867706</v>
+      </c>
+      <c r="J26" s="148">
+        <v>1588722</v>
+      </c>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
+        <v>829721</v>
+      </c>
+      <c r="D27" s="148">
+        <v>842779</v>
+      </c>
+      <c r="E27" s="148">
+        <v>769862</v>
+      </c>
+      <c r="F27" s="148">
+        <v>714686</v>
+      </c>
+      <c r="G27" s="148">
+        <v>676867</v>
+      </c>
+      <c r="H27" s="148">
+        <v>648594</v>
+      </c>
+      <c r="I27" s="148">
+        <v>767003</v>
+      </c>
+      <c r="J27" s="148">
+        <v>750812</v>
+      </c>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="149">
-        <v>2530133</v>
-      </c>
-      <c r="D26" s="149">
-        <v>2764937</v>
-      </c>
-      <c r="E26" s="149">
-        <v>2639016</v>
-      </c>
-      <c r="F26" s="149">
-        <v>2360170</v>
-      </c>
-      <c r="G26" s="149">
-        <v>2074351</v>
-      </c>
-      <c r="H26" s="149">
-        <v>2065429</v>
-      </c>
-      <c r="I26" s="149">
-        <v>1867706</v>
-      </c>
-      <c r="J26" s="149">
-        <v>1588722</v>
-      </c>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="148">
+        <v>270</v>
+      </c>
+      <c r="D29" s="148">
+        <v>259</v>
+      </c>
+      <c r="E29" s="148">
+        <v>365</v>
+      </c>
+      <c r="F29" s="148">
+        <v>116</v>
+      </c>
+      <c r="G29" s="148">
+        <v>64</v>
+      </c>
+      <c r="H29" s="148">
+        <v>0</v>
+      </c>
+      <c r="I29" s="148">
+        <v>0</v>
+      </c>
+      <c r="J29" s="148">
+        <v>0</v>
+      </c>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>2980</v>
+      </c>
+      <c r="D30" s="148">
+        <v>30135</v>
+      </c>
+      <c r="E30" s="148">
+        <v>35414</v>
+      </c>
+      <c r="F30" s="148">
+        <v>30652</v>
+      </c>
+      <c r="G30" s="148">
+        <v>27954</v>
+      </c>
+      <c r="H30" s="148">
+        <v>25134</v>
+      </c>
+      <c r="I30" s="148">
+        <v>25097</v>
+      </c>
+      <c r="J30" s="148">
+        <v>16390</v>
+      </c>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148">
+        <v>-212109</v>
+      </c>
+      <c r="D31" s="148">
+        <v>-63909</v>
+      </c>
+      <c r="E31" s="148">
+        <v>-85212</v>
+      </c>
+      <c r="F31" s="148">
+        <v>-137953</v>
+      </c>
+      <c r="G31" s="148">
+        <v>-184857</v>
+      </c>
+      <c r="H31" s="148">
+        <v>-59025</v>
+      </c>
+      <c r="I31" s="148">
+        <v>-13114</v>
+      </c>
+      <c r="J31" s="148">
+        <v>-55207</v>
+      </c>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="149">
-        <v>829721</v>
-      </c>
-      <c r="D27" s="149">
-        <v>842779</v>
-      </c>
-      <c r="E27" s="149">
-        <v>769862</v>
-      </c>
-      <c r="F27" s="149">
-        <v>714686</v>
-      </c>
-      <c r="G27" s="149">
-        <v>676867</v>
-      </c>
-      <c r="H27" s="149">
-        <v>648594</v>
-      </c>
-      <c r="I27" s="149">
-        <v>767003</v>
-      </c>
-      <c r="J27" s="149">
-        <v>750812</v>
-      </c>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>47627</v>
+      </c>
+      <c r="D32" s="148">
+        <v>45913</v>
+      </c>
+      <c r="E32" s="148">
+        <v>50573</v>
+      </c>
+      <c r="F32" s="148">
+        <v>36563</v>
+      </c>
+      <c r="G32" s="148">
+        <v>23174</v>
+      </c>
+      <c r="H32" s="148">
+        <v>17650</v>
+      </c>
+      <c r="I32" s="148">
+        <v>20113</v>
+      </c>
+      <c r="J32" s="148">
+        <v>21618</v>
+      </c>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="149">
-        <v>270</v>
-      </c>
-      <c r="D29" s="149">
-        <v>259</v>
-      </c>
-      <c r="E29" s="149">
-        <v>365</v>
-      </c>
-      <c r="F29" s="149">
-        <v>116</v>
-      </c>
-      <c r="G29" s="149">
-        <v>64</v>
-      </c>
-      <c r="H29" s="149">
+      <c r="C33" s="148">
+        <v>329600</v>
+      </c>
+      <c r="D33" s="148">
+        <v>634000</v>
+      </c>
+      <c r="E33" s="148">
+        <v>315900</v>
+      </c>
+      <c r="F33" s="148">
+        <v>259700</v>
+      </c>
+      <c r="G33" s="148">
+        <v>283600</v>
+      </c>
+      <c r="H33" s="148">
+        <v>215300</v>
+      </c>
+      <c r="I33" s="148">
+        <v>259700</v>
+      </c>
+      <c r="J33" s="148">
+        <v>467600</v>
+      </c>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+    </row>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
+        <v>2504156</v>
+      </c>
+      <c r="E34" s="148">
+        <v>3108899</v>
+      </c>
+      <c r="F34" s="148">
+        <v>3296593</v>
+      </c>
+      <c r="G34" s="148">
+        <v>2995218</v>
+      </c>
+      <c r="H34" s="148">
+        <v>2922746</v>
+      </c>
+      <c r="I34" s="148">
+        <v>2928529</v>
+      </c>
+      <c r="J34" s="148">
+        <v>2035257</v>
+      </c>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+    </row>
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
+        <v>372854</v>
+      </c>
+      <c r="E35" s="148">
+        <v>475382</v>
+      </c>
+      <c r="F35" s="148">
+        <v>508545</v>
+      </c>
+      <c r="G35" s="148">
+        <v>421056</v>
+      </c>
+      <c r="H35" s="148">
+        <v>449932</v>
+      </c>
+      <c r="I35" s="148">
+        <v>420626</v>
+      </c>
+      <c r="J35" s="148">
+        <v>296371</v>
+      </c>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+    </row>
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
+        <v>415015</v>
+      </c>
+      <c r="E36" s="148">
+        <v>464999</v>
+      </c>
+      <c r="F36" s="148">
+        <v>363144</v>
+      </c>
+      <c r="G36" s="148">
+        <v>326593</v>
+      </c>
+      <c r="H36" s="148">
+        <v>294086</v>
+      </c>
+      <c r="I36" s="148">
+        <v>290728</v>
+      </c>
+      <c r="J36" s="148">
+        <v>215131</v>
+      </c>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
+    </row>
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148">
+        <v>903222</v>
+      </c>
+      <c r="D37" s="148">
+        <v>896185</v>
+      </c>
+      <c r="E37" s="148">
+        <v>1060434</v>
+      </c>
+      <c r="F37" s="148">
+        <v>1065331</v>
+      </c>
+      <c r="G37" s="148">
+        <v>859227</v>
+      </c>
+      <c r="H37" s="148">
+        <v>796096</v>
+      </c>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
+        <v>112845</v>
+      </c>
+      <c r="E38" s="148">
+        <v>82874</v>
+      </c>
+      <c r="F38" s="148">
+        <v>75361</v>
+      </c>
+      <c r="G38" s="148">
+        <v>62385</v>
+      </c>
+      <c r="H38" s="148">
+        <v>53103</v>
+      </c>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
+    </row>
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B39" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
+        <v>8558</v>
+      </c>
+      <c r="E39" s="148">
+        <v>5576</v>
+      </c>
+      <c r="F39" s="148">
+        <v>7278</v>
+      </c>
+      <c r="G39" s="148">
+        <v>1660</v>
+      </c>
+      <c r="H39" s="148">
         <v>0</v>
       </c>
-      <c r="I29" s="149">
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
+    </row>
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B40" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
+        <v>1113</v>
+      </c>
+      <c r="E40" s="148">
+        <v>5636</v>
+      </c>
+      <c r="F40" s="148">
+        <v>9396</v>
+      </c>
+      <c r="G40" s="148">
+        <v>131</v>
+      </c>
+      <c r="H40" s="148">
         <v>0</v>
       </c>
-      <c r="J29" s="149">
-        <v>0</v>
-      </c>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>2980</v>
-      </c>
-      <c r="D30" s="149">
-        <v>30135</v>
-      </c>
-      <c r="E30" s="149">
-        <v>35414</v>
-      </c>
-      <c r="F30" s="149">
-        <v>30652</v>
-      </c>
-      <c r="G30" s="149">
-        <v>27954</v>
-      </c>
-      <c r="H30" s="149">
-        <v>25134</v>
-      </c>
-      <c r="I30" s="149">
-        <v>25097</v>
-      </c>
-      <c r="J30" s="149">
-        <v>16390</v>
-      </c>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149">
-        <v>-212109</v>
-      </c>
-      <c r="D31" s="149">
-        <v>-63909</v>
-      </c>
-      <c r="E31" s="149">
-        <v>-85212</v>
-      </c>
-      <c r="F31" s="149">
-        <v>-137953</v>
-      </c>
-      <c r="G31" s="149">
-        <v>-184857</v>
-      </c>
-      <c r="H31" s="149">
-        <v>-59025</v>
-      </c>
-      <c r="I31" s="149">
-        <v>-13114</v>
-      </c>
-      <c r="J31" s="149">
-        <v>-55207</v>
-      </c>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149">
-        <v>47627</v>
-      </c>
-      <c r="D32" s="149">
-        <v>45913</v>
-      </c>
-      <c r="E32" s="149">
-        <v>50573</v>
-      </c>
-      <c r="F32" s="149">
-        <v>36563</v>
-      </c>
-      <c r="G32" s="149">
-        <v>23174</v>
-      </c>
-      <c r="H32" s="149">
-        <v>17650</v>
-      </c>
-      <c r="I32" s="149">
-        <v>20113</v>
-      </c>
-      <c r="J32" s="149">
-        <v>21618</v>
-      </c>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149">
-        <v>329600</v>
-      </c>
-      <c r="D33" s="149">
-        <v>634000</v>
-      </c>
-      <c r="E33" s="149">
-        <v>315900</v>
-      </c>
-      <c r="F33" s="149">
-        <v>259700</v>
-      </c>
-      <c r="G33" s="149">
-        <v>283600</v>
-      </c>
-      <c r="H33" s="149">
-        <v>215300</v>
-      </c>
-      <c r="I33" s="149">
-        <v>259700</v>
-      </c>
-      <c r="J33" s="149">
-        <v>467600</v>
-      </c>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
-    </row>
-    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
-        <v>2504156</v>
-      </c>
-      <c r="E34" s="149">
-        <v>3108899</v>
-      </c>
-      <c r="F34" s="149">
-        <v>3296593</v>
-      </c>
-      <c r="G34" s="149">
-        <v>2995218</v>
-      </c>
-      <c r="H34" s="149">
-        <v>2922746</v>
-      </c>
-      <c r="I34" s="149">
-        <v>2928529</v>
-      </c>
-      <c r="J34" s="149">
-        <v>2035257</v>
-      </c>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-    </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
-        <v>372854</v>
-      </c>
-      <c r="E35" s="149">
-        <v>475382</v>
-      </c>
-      <c r="F35" s="149">
-        <v>508545</v>
-      </c>
-      <c r="G35" s="149">
-        <v>421056</v>
-      </c>
-      <c r="H35" s="149">
-        <v>449932</v>
-      </c>
-      <c r="I35" s="149">
-        <v>420626</v>
-      </c>
-      <c r="J35" s="149">
-        <v>296371</v>
-      </c>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
-    </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
-        <v>415015</v>
-      </c>
-      <c r="E36" s="149">
-        <v>464999</v>
-      </c>
-      <c r="F36" s="149">
-        <v>363144</v>
-      </c>
-      <c r="G36" s="149">
-        <v>326593</v>
-      </c>
-      <c r="H36" s="149">
-        <v>294086</v>
-      </c>
-      <c r="I36" s="149">
-        <v>290728</v>
-      </c>
-      <c r="J36" s="149">
-        <v>215131</v>
-      </c>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
-    </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149">
-        <v>903222</v>
-      </c>
-      <c r="D37" s="149">
-        <v>896185</v>
-      </c>
-      <c r="E37" s="149">
-        <v>1060434</v>
-      </c>
-      <c r="F37" s="149">
-        <v>1065331</v>
-      </c>
-      <c r="G37" s="149">
-        <v>859227</v>
-      </c>
-      <c r="H37" s="149">
-        <v>796096</v>
-      </c>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
-        <v>112845</v>
-      </c>
-      <c r="E38" s="149">
-        <v>82874</v>
-      </c>
-      <c r="F38" s="149">
-        <v>75361</v>
-      </c>
-      <c r="G38" s="149">
-        <v>62385</v>
-      </c>
-      <c r="H38" s="149">
-        <v>53103</v>
-      </c>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
-    </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
-        <v>8558</v>
-      </c>
-      <c r="E39" s="149">
-        <v>5576</v>
-      </c>
-      <c r="F39" s="149">
-        <v>7278</v>
-      </c>
-      <c r="G39" s="149">
-        <v>1660</v>
-      </c>
-      <c r="H39" s="149">
-        <v>0</v>
-      </c>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
-    </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
-        <v>1113</v>
-      </c>
-      <c r="E40" s="149">
-        <v>5636</v>
-      </c>
-      <c r="F40" s="149">
-        <v>9396</v>
-      </c>
-      <c r="G40" s="149">
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
+    </row>
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148">
+        <v>3666124</v>
+      </c>
+      <c r="D41" s="148">
+        <v>3674703</v>
+      </c>
+      <c r="E41" s="148">
+        <v>4116261</v>
+      </c>
+      <c r="F41" s="148">
+        <v>4043183</v>
+      </c>
+      <c r="G41" s="148">
+        <v>3712318</v>
+      </c>
+      <c r="H41" s="148">
+        <v>3595173</v>
+      </c>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="148">
+        <v>45613</v>
+      </c>
+      <c r="D42" s="148">
+        <v>43262</v>
+      </c>
+      <c r="E42" s="148">
+        <v>165622</v>
+      </c>
+      <c r="F42" s="148">
+        <v>143504</v>
+      </c>
+      <c r="G42" s="148">
+        <v>122753</v>
+      </c>
+      <c r="H42" s="148">
+        <v>114637</v>
+      </c>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
+    </row>
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B43" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="149">
-        <v>0</v>
-      </c>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
-    </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="149">
-        <v>3666124</v>
-      </c>
-      <c r="D41" s="149">
-        <v>3674703</v>
-      </c>
-      <c r="E41" s="149">
-        <v>4116261</v>
-      </c>
-      <c r="F41" s="149">
-        <v>4043183</v>
-      </c>
-      <c r="G41" s="149">
-        <v>3712318</v>
-      </c>
-      <c r="H41" s="149">
-        <v>3595173</v>
-      </c>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149">
-        <v>45613</v>
-      </c>
-      <c r="D42" s="149">
-        <v>43262</v>
-      </c>
-      <c r="E42" s="149">
-        <v>165622</v>
-      </c>
-      <c r="F42" s="149">
-        <v>143504</v>
-      </c>
-      <c r="G42" s="149">
-        <v>122753</v>
-      </c>
-      <c r="H42" s="149">
-        <v>114637</v>
-      </c>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
-    </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <v>1696980</v>
       </c>
-      <c r="E43" s="149">
+      <c r="E43" s="148">
         <v>2130407</v>
       </c>
-      <c r="F43" s="149">
+      <c r="F43" s="148">
         <v>2344902</v>
       </c>
-      <c r="G43" s="149">
+      <c r="G43" s="148">
         <v>2164713</v>
       </c>
-      <c r="H43" s="149">
+      <c r="H43" s="148">
         <v>2079261</v>
       </c>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.15820000000000001</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="151">
+        <v>234</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.83005366726297E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>2.819964349376114E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>1322113</v>
@@ -3689,21 +3684,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>422018</v>
@@ -3712,11 +3707,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>221617</v>
@@ -3724,32 +3719,32 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59">
         <v>63587</v>
@@ -3757,11 +3752,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>370793</v>
@@ -3770,36 +3765,36 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>68</v>
+      <c r="E56" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>22411</v>
@@ -3808,33 +3803,33 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>39731</v>
@@ -3843,43 +3838,43 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>85171</v>
@@ -3887,38 +3882,38 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>68</v>
+      <c r="E66" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>1863998</v>
@@ -3927,22 +3922,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>23958</v>
@@ -3950,11 +3945,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>71331</v>
@@ -3963,29 +3958,29 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242">
         <v>62618</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>5523</v>
@@ -3993,33 +3988,33 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>803015</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>2115</v>
@@ -4027,77 +4022,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214">
+        <v>264</v>
+      </c>
+      <c r="C82" s="212">
         <v>100207</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214">
+        <v>265</v>
+      </c>
+      <c r="C83" s="212">
         <v>3620511</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="266">
+        <v>231</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4106,166 +4101,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>3833194</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>3833194</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>3833194</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>2530133</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>2530133</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>2530133</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>231</v>
+      <c r="B93" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>829721</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>829721</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>829721</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>240</v>
+      <c r="B94" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>270</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>270</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>281973</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*0.01</f>
         <v>38331.94</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*0</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>3760.2523659305994</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>9.8097105597332122E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>3760.2523659305989</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.15820000000000001</v>
       </c>
@@ -4278,32 +4273,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4362,13 +4357,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4379,82 +4374,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1475.HK : NISSIN FOODS</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1475.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>5.59</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>276</v>
+      <c r="G3" s="130">
+        <v>5.61</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>NISSIN FOODS</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1043691480</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>5834.2353732000001</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>5855.1092028000003</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4465,30 +4460,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4498,280 +4493,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.12969985386981822</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.79234774516965889</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.83889335585442648</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.12250351733673522</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5913906275947021</v>
+        <v>1.5970843328812665</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.68646556688832</v>
+        <v>15.742588878397759</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.44393539403966586</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.83005366726297E-2</v>
+        <v>2.819964349376114E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7567709203082056</v>
-      </c>
-      <c r="D29" s="128">
+        <v>3.753539379118449</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.7791858264264802</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>6.7729508135893424</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.419730494480242</v>
-      </c>
-      <c r="G29" s="286">
+        <v>4.4159286813158225</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8949441968925917</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>5.8895224465994289</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4779,9 +4774,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4789,17 +4784,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4807,26 +4802,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4834,9 +4829,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4849,16 +4844,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5810,10 +5805,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5839,59 +5834,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84">
         <f>H14</f>
         <v>253090.17350157729</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5899,19 +5894,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>0.10850846122502222</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5960,928 +5955,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3833194</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>4067732</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>3866335</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>3518847</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>3087781</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2998828</v>
       </c>
-      <c r="I6" s="199">
+      <c r="I6" s="197">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>2902271</v>
       </c>
-      <c r="J6" s="199">
+      <c r="J6" s="197">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>2629905</v>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-5.7658174137332541E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>5.2089899090482339E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>9.8750528227001588E-2</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>0.13960381257608612</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>2.9662588184450778E-2</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="91">
         <f t="shared" si="1"/>
         <v>3.3269463809547872E-2</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <f t="shared" si="1"/>
         <v>0.10356495766957363</v>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2530133</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2764937</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2639016</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>2360170</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>2074351</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>2065429</v>
       </c>
-      <c r="I8" s="198">
+      <c r="I8" s="196">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>1867706</v>
       </c>
-      <c r="J8" s="198">
+      <c r="J8" s="196">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>1588722</v>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1303061</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>1302795</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>1227319</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>1158677</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>1013430</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>933399</v>
       </c>
-      <c r="I9" s="150">
+      <c r="I9" s="149">
         <f t="shared" si="2"/>
         <v>1034565</v>
       </c>
-      <c r="J9" s="150">
+      <c r="J9" s="149">
         <f t="shared" si="2"/>
         <v>1041183</v>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>829721</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>842779</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>769862</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>714686</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>676867</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>648594</v>
       </c>
-      <c r="I10" s="198">
+      <c r="I10" s="196">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>767003</v>
       </c>
-      <c r="J10" s="198">
+      <c r="J10" s="196">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>750812</v>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3760.2523659305994</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>38025.236593059941</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>44686.435331230285</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>38677.602523659305</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>35273.186119873819</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>31714.826498422713</v>
       </c>
-      <c r="I12" s="198">
+      <c r="I12" s="196">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>31668.13880126183</v>
       </c>
-      <c r="J12" s="198">
+      <c r="J12" s="196">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>20681.388012618296</v>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.12250351733673522</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.10374104375778445</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.10676016554922678</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.11518358072298703</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>9.7574864888451018E-2</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>8.4396362012618686E-2</v>
       </c>
-      <c r="I13" s="226">
+      <c r="I13" s="224">
         <f t="shared" si="3"/>
         <v>8.1279060845364945E-2</v>
       </c>
-      <c r="J13" s="226">
+      <c r="J13" s="224">
         <f t="shared" si="3"/>
         <v>0.1025472828818462</v>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>421990.76340694004</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>412770.56466876972</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>405313.3974763407</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>301289.81388012617</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>253090.17350157729</v>
       </c>
-      <c r="I14" s="227">
+      <c r="I14" s="225">
         <f t="shared" si="4"/>
         <v>235893.86119873816</v>
       </c>
-      <c r="J14" s="227">
+      <c r="J14" s="225">
         <f t="shared" si="4"/>
         <v>269689.61198738171</v>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.11277257313150643</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>2.2337345555560939E-2</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>1.8398521338945647E-2</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>0.34526087110798337</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>0.19044453489320673</v>
       </c>
-      <c r="H15" s="229">
+      <c r="H15" s="227">
         <f t="shared" si="5"/>
         <v>7.2898515524960655E-2</v>
       </c>
-      <c r="I15" s="229">
+      <c r="I15" s="227">
         <f t="shared" si="5"/>
         <v>-0.12531350592111345</v>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-212109</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-63909</v>
       </c>
-      <c r="E16" s="198">
+      <c r="E16" s="196">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>-85212</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="196">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-137953</v>
       </c>
-      <c r="G16" s="198">
+      <c r="G16" s="196">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>-184857</v>
       </c>
-      <c r="H16" s="198">
+      <c r="H16" s="196">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-59025</v>
       </c>
-      <c r="I16" s="198">
+      <c r="I16" s="196">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v>-13114</v>
       </c>
-      <c r="J16" s="198">
+      <c r="J16" s="196">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v>-55207</v>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>270</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>259</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>365</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>116</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>64</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="198">
+      <c r="I17" s="196">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="198">
+      <c r="J17" s="196">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.2424886400218721E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>1.1287125110503839E-2</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="150">
         <f t="shared" si="6"/>
         <v>1.3080346115895286E-2</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="150">
         <f t="shared" si="6"/>
         <v>1.0390619427329464E-2</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="150">
         <f t="shared" si="6"/>
         <v>7.5050659356994554E-3</v>
       </c>
-      <c r="H18" s="151">
+      <c r="H18" s="150">
         <f t="shared" si="6"/>
         <v>5.8856326538234268E-3</v>
       </c>
-      <c r="I18" s="151">
+      <c r="I18" s="150">
         <f t="shared" si="6"/>
         <v>6.9300902637968679E-3</v>
       </c>
-      <c r="J18" s="151">
+      <c r="J18" s="150">
         <f t="shared" si="6"/>
         <v>8.2200687857546181E-3</v>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>47627</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>45913</v>
       </c>
-      <c r="E19" s="198">
+      <c r="E19" s="196">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>50573</v>
       </c>
-      <c r="F19" s="198">
+      <c r="F19" s="196">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>36563</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="196">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>23174</v>
       </c>
-      <c r="H19" s="198">
+      <c r="H19" s="196">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>17650</v>
       </c>
-      <c r="I19" s="198">
+      <c r="I19" s="196">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v>20113</v>
       </c>
-      <c r="J19" s="198">
+      <c r="J19" s="196">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v>21618</v>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>8.5985734090160845E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0.15586080892251505</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>8.1705284203257095E-2</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>7.3802583630376659E-2</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>9.1845891920443845E-2</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>7.1794714468452342E-2</v>
       </c>
-      <c r="I20" s="151">
+      <c r="I20" s="150">
         <f t="shared" si="7"/>
         <v>8.9481650748672328E-2</v>
       </c>
-      <c r="J20" s="151">
+      <c r="J20" s="150">
         <f t="shared" si="7"/>
         <v>0.17780109927925153</v>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>329600</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>634000</v>
       </c>
-      <c r="E21" s="198">
+      <c r="E21" s="196">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>315900</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="196">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>259700</v>
       </c>
-      <c r="G21" s="198">
+      <c r="G21" s="196">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>283600</v>
       </c>
-      <c r="H21" s="198">
+      <c r="H21" s="196">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>215300</v>
       </c>
-      <c r="I21" s="198">
+      <c r="I21" s="196">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v>259700</v>
       </c>
-      <c r="J21" s="198">
+      <c r="J21" s="196">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v>467600</v>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>187336.74763406941</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-166355.23659305996</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>147078.56466876972</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>182060.3974763407</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>40799.813880126167</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>55440.173501577287</v>
       </c>
-      <c r="I22" s="160">
+      <c r="I22" s="158">
         <f t="shared" si="8"/>
         <v>-3693.1388012618409</v>
       </c>
-      <c r="J22" s="160">
+      <c r="J22" s="158">
         <f t="shared" si="8"/>
         <v>-176292.38801261829</v>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.8731244100872537E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-3.2410327179863377E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>3.0147352078906769E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>4.1002881057346341E-2</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>1.047154979579186E-2</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>1.4651169556906899E-2</v>
       </c>
-      <c r="I23" s="152">
+      <c r="I23" s="151">
         <f t="shared" si="9"/>
         <v>-1.0084559643120882E-3</v>
       </c>
-      <c r="J23" s="152">
+      <c r="J23" s="151">
         <f t="shared" si="9"/>
         <v>-5.3124244982233199E-2</v>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>148464.3725</v>
       </c>
@@ -6925,63 +6920,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230" t="str">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>-0.19214410872697874</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>3.4622849999083796</v>
       </c>
-      <c r="G25" s="230">
+      <c r="G25" s="228">
         <f t="shared" si="10"/>
         <v>-0.26407492431520979</v>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="I25" s="230">
+      <c r="I25" s="228">
         <f t="shared" si="10"/>
         <v>0.979051059192655</v>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7027,11 +7022,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
@@ -7078,266 +7073,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>422018</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>372854</v>
       </c>
-      <c r="E28" s="198">
+      <c r="E28" s="196">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v>475382</v>
       </c>
-      <c r="F28" s="198">
+      <c r="F28" s="196">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v>508545</v>
       </c>
-      <c r="G28" s="198">
+      <c r="G28" s="196">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v>421056</v>
       </c>
-      <c r="H28" s="198">
+      <c r="H28" s="196">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v>449932</v>
       </c>
-      <c r="I28" s="198">
+      <c r="I28" s="196">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v>420626</v>
       </c>
-      <c r="J28" s="198">
+      <c r="J28" s="196">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v>296371</v>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>370793</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>415015</v>
       </c>
-      <c r="E29" s="198">
+      <c r="E29" s="196">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v>464999</v>
       </c>
-      <c r="F29" s="198">
+      <c r="F29" s="196">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v>363144</v>
       </c>
-      <c r="G29" s="198">
+      <c r="G29" s="196">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v>326593</v>
       </c>
-      <c r="H29" s="198">
+      <c r="H29" s="196">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v>294086</v>
       </c>
-      <c r="I29" s="198">
+      <c r="I29" s="196">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v>290728</v>
       </c>
-      <c r="J29" s="198">
+      <c r="J29" s="196">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v>215131</v>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>903222</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>896185</v>
       </c>
-      <c r="E30" s="198">
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>1060434</v>
       </c>
-      <c r="F30" s="198">
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>1065331</v>
       </c>
-      <c r="G30" s="198">
+      <c r="G30" s="196">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>859227</v>
       </c>
-      <c r="H30" s="198">
+      <c r="H30" s="196">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v>796096</v>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>5523</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>8558</v>
       </c>
-      <c r="E31" s="198">
+      <c r="E31" s="196">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>5576</v>
       </c>
-      <c r="F31" s="198">
+      <c r="F31" s="196">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>7278</v>
       </c>
-      <c r="G31" s="198">
+      <c r="G31" s="196">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>1660</v>
       </c>
-      <c r="H31" s="198">
+      <c r="H31" s="196">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>2115</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1113</v>
       </c>
-      <c r="E32" s="198">
+      <c r="E32" s="196">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>5636</v>
       </c>
-      <c r="F32" s="198">
+      <c r="F32" s="196">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>9396</v>
       </c>
-      <c r="G32" s="198">
+      <c r="G32" s="196">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>131</v>
       </c>
-      <c r="H32" s="198">
+      <c r="H32" s="196">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7384,165 +7379,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>3666124</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>3674703</v>
       </c>
-      <c r="E34" s="198">
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>4116261</v>
       </c>
-      <c r="F34" s="198">
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>4043183</v>
       </c>
-      <c r="G34" s="198">
+      <c r="G34" s="196">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>3712318</v>
       </c>
-      <c r="H34" s="198">
+      <c r="H34" s="196">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v>3595173</v>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>45613</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>43262</v>
       </c>
-      <c r="E35" s="198">
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>165622</v>
       </c>
-      <c r="F35" s="198">
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>143504</v>
       </c>
-      <c r="G35" s="198">
+      <c r="G35" s="196">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>122753</v>
       </c>
-      <c r="H35" s="198">
+      <c r="H35" s="196">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v>114637</v>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>1696980</v>
       </c>
-      <c r="E36" s="198">
+      <c r="E36" s="196">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v>2130407</v>
       </c>
-      <c r="F36" s="198">
+      <c r="F36" s="196">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v>2344902</v>
       </c>
-      <c r="G36" s="198">
+      <c r="G36" s="196">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v>2164713</v>
       </c>
-      <c r="H36" s="198">
+      <c r="H36" s="196">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v>2079261</v>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7588,63 +7583,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.1618841939033181</v>
       </c>
-      <c r="D38" s="154">
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>0.14683516779484243</v>
       </c>
-      <c r="E38" s="154">
+      <c r="E38" s="153">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>0.13549952094771398</v>
       </c>
-      <c r="F38" s="154">
+      <c r="F38" s="153">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v>0.14666074596446271</v>
       </c>
-      <c r="G38" s="154">
+      <c r="G38" s="153">
         <f t="shared" si="33"/>
         <v>0.12518107366036607</v>
       </c>
-      <c r="H38" s="154">
+      <c r="H38" s="153">
         <f t="shared" si="33"/>
         <v>0.1094676893425876</v>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7657,372 +7652,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.67972447545708514</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.68256268533378506</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.67072254065038917</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.67179343353689913</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.68874540320418509</v>
       </c>
-      <c r="I40" s="155">
+      <c r="I40" s="154">
         <f t="shared" si="34"/>
         <v>0.64353259912668392</v>
       </c>
-      <c r="J40" s="155">
+      <c r="J40" s="154">
         <f t="shared" si="34"/>
         <v>0.60409862713672169</v>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.20718646164496579</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.19911932101072463</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.2031023230052344</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.21920822752649879</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>0.21628249436113042</v>
       </c>
-      <c r="I41" s="152">
+      <c r="I41" s="151">
         <f t="shared" si="35"/>
         <v>0.26427683700109328</v>
       </c>
-      <c r="J41" s="152">
+      <c r="J41" s="151">
         <f t="shared" si="35"/>
         <v>0.28549016029096108</v>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="152">
+      <c r="I42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J42" s="152">
+      <c r="J42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>6.3671844654465925E-5</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>9.440464936432048E-5</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>3.2965343477565238E-5</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>2.0726858543400585E-5</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I43" s="152">
+      <c r="I43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="J43" s="152">
+      <c r="J43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.8097105597332122E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>9.3480191401645787E-3</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>1.1557828106263499E-2</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>1.0991555621389423E-2</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>1.1423474048151024E-2</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>1.0575740422065792E-2</v>
       </c>
-      <c r="I44" s="152">
+      <c r="I44" s="151">
         <f t="shared" si="38"/>
         <v>1.0911503026857875E-2</v>
       </c>
-      <c r="J44" s="152">
+      <c r="J44" s="151">
         <f t="shared" si="38"/>
         <v>7.8639296904710609E-3</v>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0.14457368381201122</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>6.8624938087361809E-2</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>6.3411964203047191E-2</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>8.4340825984744378E-2</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>6.5909081814628914E-2</v>
       </c>
-      <c r="I45" s="152">
+      <c r="I45" s="151">
         <f t="shared" si="39"/>
         <v>8.2551560484875469E-2</v>
       </c>
-      <c r="J45" s="152">
+      <c r="J45" s="151">
         <f t="shared" si="39"/>
         <v>0.1695810304934969</v>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.8872232303940111E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-4.0896311898881238E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>3.8040822812500652E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>5.1738651176462265E-2</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>1.321331204516323E-2</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>1.8487280197989776E-2</v>
       </c>
-      <c r="I46" s="152">
+      <c r="I46" s="151">
         <f t="shared" si="40"/>
         <v>-1.2724996395105214E-3</v>
       </c>
-      <c r="J46" s="152">
+      <c r="J46" s="151">
         <f t="shared" si="40"/>
         <v>-6.7033747611650721E-2</v>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -8034,216 +8029,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.83889335585442648</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>0.88992160823017319</v>
       </c>
-      <c r="E48" s="269">
+      <c r="E48" s="267">
         <f t="shared" si="41"/>
         <v>0.74687324634733165</v>
       </c>
-      <c r="F48" s="269">
+      <c r="F48" s="267">
         <f t="shared" si="41"/>
         <v>0.68882007566192438</v>
       </c>
-      <c r="G48" s="269">
+      <c r="G48" s="267">
         <f t="shared" si="41"/>
         <v>0.67543489126761302</v>
       </c>
-      <c r="H48" s="269">
+      <c r="H48" s="267">
         <f t="shared" si="41"/>
         <v>0.68290692280523013</v>
       </c>
-      <c r="I48" s="269" t="e">
+      <c r="I48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="269" t="e">
+      <c r="J48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.11009565391159436</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>9.1661397555197838E-2</v>
       </c>
-      <c r="E49" s="152">
+      <c r="E49" s="151">
         <f t="shared" si="42"/>
         <v>0.12295416718934081</v>
       </c>
-      <c r="F49" s="152">
+      <c r="F49" s="151">
         <f t="shared" si="42"/>
         <v>0.1445203499896415</v>
       </c>
-      <c r="G49" s="152">
+      <c r="G49" s="151">
         <f t="shared" si="42"/>
         <v>0.13636200235703244</v>
       </c>
-      <c r="H49" s="152">
+      <c r="H49" s="151">
         <f t="shared" si="42"/>
         <v>0.1500359473767752</v>
       </c>
-      <c r="I49" s="152">
+      <c r="I49" s="151">
         <f t="shared" si="42"/>
         <v>0.14492995312980766</v>
       </c>
-      <c r="J49" s="152">
+      <c r="J49" s="151">
         <f t="shared" si="42"/>
         <v>0.11269266380344538</v>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>9.6732124698097721E-2</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>0.10202614134854508</v>
       </c>
-      <c r="E50" s="152">
+      <c r="E50" s="151">
         <f t="shared" si="43"/>
         <v>0.12026867821851961</v>
       </c>
-      <c r="F50" s="152">
+      <c r="F50" s="151">
         <f t="shared" si="43"/>
         <v>0.10319971286049096</v>
       </c>
-      <c r="G50" s="152">
+      <c r="G50" s="151">
         <f t="shared" si="43"/>
         <v>0.10576948300413792</v>
       </c>
-      <c r="H50" s="152">
+      <c r="H50" s="151">
         <f t="shared" si="43"/>
         <v>9.8066978166136909E-2</v>
       </c>
-      <c r="I50" s="152">
+      <c r="I50" s="151">
         <f t="shared" si="43"/>
         <v>0.10017258898290339</v>
       </c>
-      <c r="J50" s="152">
+      <c r="J50" s="151">
         <f t="shared" si="43"/>
         <v>8.1801814133970613E-2</v>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.90436944119929397</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>-0.31732846070199655</v>
       </c>
-      <c r="E51" s="152">
+      <c r="E51" s="151">
         <f t="shared" si="44"/>
         <v>-0.24522285661663137</v>
       </c>
-      <c r="F51" s="152">
+      <c r="F51" s="151">
         <f t="shared" si="44"/>
         <v>-0.32002755958484314</v>
       </c>
-      <c r="G51" s="152">
+      <c r="G51" s="151">
         <f t="shared" si="44"/>
         <v>-2.0781423898013558</v>
       </c>
-      <c r="H51" s="152">
+      <c r="H51" s="151">
         <f t="shared" si="44"/>
         <v>-0.61129695413072072</v>
       </c>
-      <c r="I51" s="152">
+      <c r="I51" s="151">
         <f t="shared" si="44"/>
         <v>-4.8148447309869807E-2</v>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8259,350 +8254,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.79234774516965889</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.79447166502438915</v>
       </c>
-      <c r="E53" s="155">
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
         <v>0.76315854034282493</v>
       </c>
-      <c r="F53" s="155">
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
         <v>0.76336856471373082</v>
       </c>
-      <c r="G53" s="155">
+      <c r="G53" s="154">
         <f t="shared" si="45"/>
         <v>0.78519734575510025</v>
       </c>
-      <c r="H53" s="155">
+      <c r="H53" s="154">
         <f t="shared" si="45"/>
         <v>0.79260368699799533</v>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>24.526937370263081</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>-17.20145141071864</v>
       </c>
-      <c r="E54" s="156">
+      <c r="E54" s="155">
         <f t="shared" si="46"/>
         <v>13.117959745698334</v>
       </c>
-      <c r="F54" s="156">
+      <c r="F54" s="155">
         <f t="shared" si="46"/>
         <v>10.918819567970536</v>
       </c>
-      <c r="G54" s="156">
+      <c r="G54" s="155">
         <f t="shared" si="46"/>
         <v>22.780465594710311</v>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.4412548707603233E-3</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-1.5569092100994012E-3</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>2.4816668616667779E-3</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>6.3715119602040062E-4</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>1.5686346067175269E-3</v>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>2.4687763077983971E-2</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>1.6009055971039438E-2</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>1.4752039438474671E-2</v>
+      </c>
+      <c r="G56" s="151">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v>1.3646371193983653E-2</v>
+      </c>
+      <c r="H56" s="151">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v>1.2092859717771787E-2</v>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.12969985386981822</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>0.11620476923814542</v>
       </c>
-      <c r="E58" s="271">
+      <c r="E58" s="269">
         <f t="shared" si="49"/>
         <v>0.10448197485742679</v>
       </c>
-      <c r="F58" s="271">
+      <c r="F58" s="269">
         <f t="shared" si="49"/>
         <v>0.10393506682892123</v>
       </c>
-      <c r="G58" s="271">
+      <c r="G58" s="269">
         <f t="shared" si="49"/>
         <v>8.3934909628360588E-2</v>
       </c>
-      <c r="H58" s="271">
+      <c r="H58" s="269">
         <f t="shared" si="49"/>
         <v>7.2715861436737694E-2</v>
       </c>
-      <c r="I58" s="271" t="e">
+      <c r="I58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="271" t="e">
+      <c r="J58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>5.1743178693303075E-2</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>-4.5809703804374068E-2</v>
       </c>
-      <c r="E59" s="271">
+      <c r="E59" s="269">
         <f t="shared" si="50"/>
         <v>3.7229057038309428E-2</v>
       </c>
-      <c r="F59" s="271">
+      <c r="F59" s="269">
         <f t="shared" si="50"/>
         <v>4.668599581564039E-2</v>
       </c>
-      <c r="G59" s="271">
+      <c r="G59" s="269">
         <f t="shared" si="50"/>
         <v>1.1366227907873562E-2</v>
       </c>
-      <c r="H59" s="271">
+      <c r="H59" s="269">
         <f t="shared" si="50"/>
         <v>1.5928630964189793E-2</v>
       </c>
-      <c r="I59" s="271" t="e">
+      <c r="I59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J59" s="271" t="e">
+      <c r="J59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9881,7 +9876,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9899,7 +9894,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9917,25 +9912,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>3666124</v>
       </c>
@@ -9943,12 +9938,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>3620511</v>
       </c>
@@ -9956,28 +9951,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>45613</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9990,25 +9985,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>1096348.9993035228</v>
+        <v>1096089.2923242867</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70095146827998112</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>0.7010223079404061</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>2.527144573887163</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -10016,297 +10011,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0504531466554876</v>
+        <v>1.050204311646088</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>2.447959253563134</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>1322113</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>1189901.7</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>5523</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>422018</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>253210.8</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>221617</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>132970.19999999998</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>5523</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>63587</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>6358.7000000000007</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>370793</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>185396.5</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10317,21 +10312,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10344,45 +10339,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>22411</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>20169.900000000001</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10390,17 +10385,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10410,19 +10405,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.80177250593667138</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>1576082.7</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.88147417477709</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10432,17 +10427,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.1</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>6358.7000000000007</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>3.5563043964349605E-3</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10451,7 +10446,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10461,17 +10456,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>185396.5</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.10368886533940178</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10484,7 +10479,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10494,17 +10489,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>20169.900000000001</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>1.128065548707338E-2</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10531,12 +10526,12 @@
         <f>SUM(E24:E27)</f>
         <v>1788007.7999999998</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>803015</v>
       </c>
@@ -10546,171 +10541,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>39731</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>23838.6</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>2115</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>2115</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>85171</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>8517.1</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10718,25 +10713,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10744,26 +10739,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10771,113 +10766,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>1863998</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>186399.80000000002</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>23958</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>1197.9000000000001</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>71331</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>64197.9</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>62618</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10885,17 +10880,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10905,16 +10900,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.6</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>23838.6</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10924,16 +10919,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.1</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>8517.1</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10943,14 +10938,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.1</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>186399.80000000002</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10963,7 +10958,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10973,14 +10968,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.41414123503074596</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>65395.8</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10993,13 +10988,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>2146807</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.13235996528798349</v>
       </c>
@@ -11007,12 +11002,12 @@
         <f>SUM(E30:E42)</f>
         <v>284151.3</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>100207</v>
       </c>
@@ -11023,109 +11018,109 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>4569346</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.45349139679945444</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>2072159.0999999999</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>903222</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>45613</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5913906275947023</v>
-      </c>
-      <c r="E53" s="88">
+        <v>1.5970843328812665</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>72588.100696477151</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>72847.807675713208</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11133,61 +11128,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11201,35 +11196,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>165325.9</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>1322113</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>1189901.7</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11243,29 +11238,29 @@
         <f>E61+E62</f>
         <v>1355227.5999999999</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>7638</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11279,9 +11274,9 @@
         <f>E63-E64</f>
         <v>1347589.5999999999</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11289,28 +11284,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11324,29 +11319,29 @@
         <f>E49-E63</f>
         <v>716931.5</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>895584</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11360,29 +11355,29 @@
         <f>E68-E69</f>
         <v>-178652.5</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11392,66 +11387,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>3833194</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>3833194</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>3833194</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>2530133</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>2530133</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>2530133</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.66005868735054896</v>
       </c>
@@ -11459,50 +11454,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>1303061</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>1303061</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>1303061</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>231</v>
+      <c r="B77" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>829721</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>829721</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.21645682425674254</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>829721</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.21645682425674254</v>
       </c>
@@ -11510,60 +11505,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>3760.2523659305994</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>9.8097105597332122E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>3760.2523659305989</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>9.8097105597332122E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>3760.2523659305989</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>9.8097105597332122E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.12250351733673522</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.12250351733673522</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>469579.74763406941</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.12250351733673522</v>
       </c>
@@ -11571,61 +11566,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>240</v>
+      <c r="B81" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>270</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>270</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>270</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>7.0437342852983705E-5</v>
       </c>
@@ -11633,59 +11628,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>281973</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>7.3560847689942116E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>38331.94</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0.01</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>187336.74763406941</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>4.8872232303940111E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>430977.80763406941</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.11243307999388223</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>469309.74763406941</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.12243307999388223</v>
       </c>
@@ -11693,184 +11688,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.20750000000000002</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.20750000000000002</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>148464.3725</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>3.8731244100872537E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>341549.91255000001</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>8.9103215895151675E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>371927.97499999998</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>9.7028215895151662E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.14224929047039839</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.32725179719776959</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.35635815959712541</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5447100263040857E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>2.5356379762994364E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8542360858277208E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>5.8333653689441989E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3749223541525124E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>6.3521953582375293E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.1121320849956782</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.48341980503897514</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.44393539403966586</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.83005366726297E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>2.819964349376114E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.83005366726297E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>2.819964349376114E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.83005366726297E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>2.819964349376114E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11878,55 +11873,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5650398920840436</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>6.5585704736284756</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3265092997203585</v>
+        <v>7.3186861018776668</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7454965914877381</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>2.7441499641289449</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7454965914877381</v>
+        <v>2.7441499641289449</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11936,123 +11931,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3801719.247968684</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>3797659.7974715196</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2639851006493821</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>3.2607686563023641</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.642569974767528</v>
-      </c>
-      <c r="I97" s="122">
+        <v>3.6386804628045057</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8444910502371039</v>
+        <v>4.8393181349533414</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-72847.807675713208</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-6.9798220136580214E-2</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-72588.100696477151</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.9549385127180632E-2</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>1168937.0999999999</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0.95200215201526783</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>1.1200025317826681</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>4898068.2472722065</v>
-      </c>
-      <c r="D100" s="109">
+        <v>4893749.0897958064</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7567709203082056</v>
-      </c>
-      <c r="E100" s="109">
+        <v>3.753539379118449</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1464378675374691</v>
-      </c>
-      <c r="F100" s="109">
+        <v>4.1429725881810517</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.419730494480242</v>
-      </c>
-      <c r="H100" s="109">
+        <v>4.4159286813158225</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6930231214230149</v>
-      </c>
-      <c r="I100" s="109">
+        <v>4.6888847744505942</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8949441968925917</v>
+        <v>5.8895224465994289</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12062,58 +12057,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1424635.772657756</v>
-      </c>
-      <c r="D103" s="109">
+        <v>1423937.0089026948</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.160247477309188</v>
-      </c>
-      <c r="E103" s="122">
+        <v>1.1596783922843659</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3649970321284564</v>
-      </c>
-      <c r="F103" s="109">
+        <v>1.3643275203345482</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.3649970321284564</v>
-      </c>
-      <c r="H103" s="122">
+        <v>1.3643275203345482</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3649970321284564</v>
-      </c>
-      <c r="I103" s="109">
+        <v>1.3643275203345482</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8153984553635225</v>
+        <v>1.814508028023462</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12123,58 +12118,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2876118.8236779906</v>
-      </c>
-      <c r="D106" s="109">
+        <v>2873961.1005304037</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.4585091988086969</v>
-      </c>
-      <c r="E106" s="122">
+        <v>2.4566088857014075</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.7557174498329626</v>
-      </c>
-      <c r="F106" s="109">
+        <v>2.7536500542578</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.8923637633043491</v>
-      </c>
-      <c r="H106" s="122">
+        <v>2.8901281008251853</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.0290100767757355</v>
-      </c>
-      <c r="I106" s="122">
+        <v>3.0266061473925712</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.8551713261280574</v>
+        <v>3.8520152373114454</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12183,15 +12178,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5602E2FA-0879-44CE-83B7-E35B5C41F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9CEF06F-4329-4211-90DC-2DFF136AC3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="278">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1695,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2339,9 +2347,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2350,9 +2355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2360,6 +2362,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2837,7 +2851,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2845,7 +2859,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2878,7 +2892,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2938,13 +2952,16 @@
         <v>0.20750000000000002</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2962,7 +2979,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2971,7 +2988,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2980,7 +2997,7 @@
         <v>216</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2989,7 +3006,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3616,7 +3633,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.819964349376114E-2</v>
+        <v>2.795053003533569E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4083,11 +4100,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -4101,10 +4118,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4326,8 +4343,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4340,8 +4360,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4384,60 +4404,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1475.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>5.61</v>
+        <v>5.66</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>NISSIN FOODS</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1043691480</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>5855.1092028000003</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>5907.2937768000002</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4460,11 +4480,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4605,7 +4625,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.12969985386981822</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4617,20 +4637,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.79234774516965889</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.12250351733673522</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.83889335585442648</v>
       </c>
@@ -4639,26 +4659,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.12250351733673522</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.2620721218634607</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5970843328812665</v>
+        <v>1.611318596097677</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>7.0437342852983705E-5</v>
       </c>
@@ -4667,7 +4687,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.742588878397759</v>
+        <v>15.882897157171358</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4699,7 +4719,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.819964349376114E-2</v>
+        <v>2.795053003533569E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4718,10 +4738,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4729,22 +4749,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.753539379118449</v>
+        <v>3.745564563542596</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.7729508135893424</v>
+        <v>6.7575689738444504</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4159286813158225</v>
-      </c>
-      <c r="G29" s="285">
+        <v>4.4065465453442307</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8895224465994289</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>5.8761469337777834</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5775,7 +5795,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -8016,7 +8036,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9943,7 +9963,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>3620511</v>
       </c>
@@ -9988,11 +10008,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>1096089.2923242867</v>
+        <v>1095440.0248761964</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.7010223079404061</v>
+        <v>0.70119940709146866</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10014,7 +10034,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.050204311646088</v>
+        <v>1.0495822241225887</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10990,7 +11010,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>2146807</v>
       </c>
@@ -11007,7 +11027,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>100207</v>
       </c>
@@ -11080,11 +11100,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5970843328812665</v>
+        <v>1.611318596097677</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>72847.807675713208</v>
+        <v>73497.075123803341</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11116,11 +11136,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11131,11 +11151,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -11147,11 +11167,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11365,19 +11385,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11387,18 +11407,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11765,17 +11785,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5356379762994364E-2</v>
+        <v>2.5132383475335404E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8333653689441989E-2</v>
+        <v>5.7818338727521131E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3521953582375293E-2</v>
+        <v>6.296080558253099E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11816,17 +11836,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.819964349376114E-2</v>
+        <v>2.795053003533569E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.819964349376114E-2</v>
+        <v>2.795053003533569E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.819964349376114E-2</v>
+        <v>2.795053003533569E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11857,15 +11877,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11886,14 +11906,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5585704736284756</v>
+        <v>6.5426187941884137</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3186861018776668</v>
+        <v>7.299398608499887</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11914,14 +11934,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7441499641289449</v>
+        <v>2.7408272946287968</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7441499641289449</v>
+        <v>2.7408272946287968</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11964,21 +11984,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3797659.7974715196</v>
+        <v>3787651.5340789962</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2607686563023641</v>
+        <v>3.2528378523958295</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6386804628045057</v>
+        <v>3.629091169814854</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8393181349533414</v>
+        <v>4.8265647096551945</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11988,14 +12008,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-72847.807675713208</v>
+        <v>-73497.075123803341</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.9798220136580214E-2</v>
+        <v>-7.0420307660079146E-2</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -12027,27 +12047,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>4893749.0897958064</v>
+        <v>4883091.5589551926</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.753539379118449</v>
+        <v>3.745564563542596</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1429725881810517</v>
+        <v>4.1344196967510181</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.4159286813158225</v>
+        <v>4.4065465453442307</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6888847744505942</v>
+        <v>4.6786733939374425</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8895224465994289</v>
+        <v>5.8761469337777834</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12088,27 +12108,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1423937.0089026948</v>
+        <v>1422212.8786140955</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1596783922843659</v>
+        <v>1.1582742314059908</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3643275203345482</v>
+        <v>1.3626755663599892</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.3643275203345482</v>
+        <v>1.3626755663599892</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3643275203345482</v>
+        <v>1.3626755663599892</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.814508028023462</v>
+        <v>1.812310986840838</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12149,27 +12169,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2873961.1005304037</v>
+        <v>2868635.7454286586</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.4566088857014075</v>
+        <v>2.4519193974742937</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.7536500542578</v>
+        <v>2.7485476315555037</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.8901281008251853</v>
+        <v>2.8846110558521101</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.0266061473925712</v>
+        <v>3.020674480148716</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.8520152373114454</v>
+        <v>3.8442289603093105</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9CEF06F-4329-4211-90DC-2DFF136AC3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBAE4B5-6251-4CBE-94A5-CA652E8DCB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.795053003533569E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>277</v>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>5907.2937768000002</v>
+        <v>5896.8568619999996</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.611318596097677</v>
+        <v>1.6084717434543949</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.882897157171358</v>
+        <v>15.854835501416639</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.795053003533569E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4749,20 +4749,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.745564563542596</v>
+        <v>3.747147776640479</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.7575689738444504</v>
+        <v>6.7606221117622978</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4065465453442307</v>
+        <v>4.4084091489887989</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8761469337777834</v>
+        <v>5.8788018363150423</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9914,7 +9914,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10008,11 +10008,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>1095440.0248761964</v>
+        <v>1095569.8783658145</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70119940709146866</v>
+        <v>0.70116398726125617</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10034,7 +10034,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0495822241225887</v>
+        <v>1.0497066416272887</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11100,11 +11100,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.611318596097677</v>
+        <v>1.6084717434543949</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>73497.075123803341</v>
+        <v>73367.22163418532</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11785,17 +11785,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5132383475335404E-2</v>
+        <v>2.5176865569982013E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7818338727521131E-2</v>
+        <v>5.7920672070401691E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.296080558253099E-2</v>
+        <v>6.3072240636659366E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11836,17 +11836,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.795053003533569E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.795053003533569E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.795053003533569E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11906,14 +11906,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5426187941884137</v>
+        <v>6.5457840711584856</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.299398608499887</v>
+        <v>7.3032255579010927</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11934,14 +11934,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7408272946287968</v>
+        <v>2.7414868676162452</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7408272946287968</v>
+        <v>2.7414868676162452</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11984,21 +11984,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3787651.5340789962</v>
+        <v>3789637.3347658413</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2528378523958295</v>
+        <v>3.2544115544661247</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.629091169814854</v>
+        <v>3.6309938400242969</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8265647096551945</v>
+        <v>4.8290951946877536</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12008,14 +12008,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-73497.075123803341</v>
+        <v>-73367.22163418532</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-7.0420307660079146E-2</v>
+        <v>-7.0295890155379362E-2</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -12025,7 +12025,7 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>1168937.0999999999</v>
       </c>
       <c r="D99" s="209"/>
@@ -12047,27 +12047,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>4883091.5589551926</v>
+        <v>4885207.2131316559</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.745564563542596</v>
+        <v>3.747147776640479</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1344196967510181</v>
+        <v>4.1361178163260135</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.4065465453442307</v>
+        <v>4.4084091489887989</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6786733939374425</v>
+        <v>4.6807004816515851</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8761469337777834</v>
+        <v>5.8788018363150423</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12108,27 +12108,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1422212.8786140955</v>
+        <v>1422555.1304586292</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1582742314059908</v>
+        <v>1.1585529670988928</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3626755663599892</v>
+        <v>1.3630034907045798</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.3626755663599892</v>
+        <v>1.3630034907045798</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3626755663599892</v>
+        <v>1.3630034907045798</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.812310986840838</v>
+        <v>1.8127471147844405</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12169,27 +12169,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2868635.7454286586</v>
+        <v>2869693.0278171473</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.4519193974742937</v>
+        <v>2.4528503718696859</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.7485476315555037</v>
+        <v>2.7495606535152968</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.8846110558521101</v>
+        <v>2.8857063198466895</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.020674480148716</v>
+        <v>3.0218519861780826</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.8442289603093105</v>
+        <v>3.8457744755497414</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{891F9043-70CE-401F-B9BF-70C568D45754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4E9874-B2D9-4D4E-A9BF-330E24185F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7465277777777779E-2</v>
+        <v>2.7560975609756098E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.76</v>
+        <v>5.74</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>6011.6629247999999</v>
+        <v>5990.7890951999998</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4848,7 +4848,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6397871225304981</v>
+        <v>1.6340934172439339</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.163513714718555</v>
+        <v>16.107390403209116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7465277777777779E-2</v>
+        <v>2.7560975609756098E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4967,20 +4967,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0286317732135091</v>
+        <v>3.3702301872586373</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.5898643509113821</v>
+        <v>6.1460029227684485</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7395667920158928</v>
+        <v>3.9649766908925148</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7303168268794629</v>
+        <v>5.3443503676247381</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10213,11 +10213,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>1094141.4899800164</v>
+        <v>1094401.1969592522</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.70155360539359379</v>
+        <v>0.70148276573316881</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10239,7 +10239,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0483380490755914</v>
+        <v>1.0485868840849903</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11305,11 +11305,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.6397871225304981</v>
+        <v>1.6340934172439339</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>74795.610019983607</v>
+        <v>74535.903040747551</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.181926082671712</v>
+        <v>1.225099017668372</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.77713558489140289</v>
+        <v>0.60909073002150316</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -12017,17 +12017,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4696057373333056E-2</v>
+        <v>2.4782106353727941E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6814548124612778E-2</v>
+        <v>5.7012508222607942E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1867736041167611E-2</v>
+        <v>6.2083303065701291E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -12068,17 +12068,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7465277777777779E-2</v>
+        <v>2.7560975609756098E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7465277777777779E-2</v>
+        <v>2.7560975609756098E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7465277777777779E-2</v>
+        <v>2.7560975609756098E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12131,21 +12131,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8303215471929164</v>
+        <v>6.5177363777213992</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.4403890173522491</v>
+        <v>7.2693190705284847</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12166,14 +12166,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5901329648353788</v>
+        <v>2.7356378791812563</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5901329648353788</v>
+        <v>2.7356378791812563</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12216,21 +12216,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4419678.8988550119</v>
+        <v>3772043.2882148642</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8335310575773276</v>
+        <v>3.2404668938104266</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2346603220858068</v>
+        <v>3.6141363233269512</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0248457246951368</v>
+        <v>4.8066752853009129</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12240,14 +12240,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-74795.610019983607</v>
+        <v>-74535.903040747551</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-7.166448270707701E-2</v>
+        <v>-7.1415647697677428E-2</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12263,12 +12263,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.77713558489140289</v>
+        <v>0.60909073002150316</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>0.77713558489140289</v>
+        <v>0.60909073002150316</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12280,23 +12280,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0286317732135091</v>
+        <v>3.3702301872586373</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.5390021597616537</v>
+        <v>3.7781419761342523</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.7395667920158928</v>
+        <v>3.9649766908925148</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.9401314242701329</v>
+        <v>4.1518114056507773</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7303168268794629</v>
+        <v>5.3443503676247381</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12335,23 +12335,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.447596298255986</v>
+        <v>1.1560811832702234</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7030544685364541</v>
+        <v>1.3600955097296745</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.7030544685364541</v>
+        <v>1.3600955097296745</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7030544685364541</v>
+        <v>1.3600955097296745</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0208435421647373</v>
+        <v>1.8088796014889446</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12390,23 +12390,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.7381140357347475</v>
+        <v>2.2631556852644303</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.1210283141490538</v>
+        <v>2.5691187429319635</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.2213106302761734</v>
+        <v>2.6625361003110948</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.3215929464032934</v>
+        <v>2.755953457690226</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.8755801845221001</v>
+        <v>3.5766149845568416</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1475.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4E9874-B2D9-4D4E-A9BF-330E24185F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87220766-E843-4C33-9D42-93F38C4CC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2591,6 +2591,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2607,9 +2610,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2823,11 +2823,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3042,7 +3042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3067,6 +3067,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3846,7 +3847,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7560975609756098E-2</v>
+        <v>2.7513043478260869E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4532,7 +4533,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4555,6 +4556,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4573,8 +4577,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4610,24 +4614,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1475.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4637,7 +4644,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>NISSIN FOODS</v>
       </c>
@@ -4666,11 +4673,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>5990.7890951999998</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>6001.2260100000003</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4693,11 +4700,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4765,10 +4772,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4815,7 +4822,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4889,7 +4896,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6340934172439339</v>
+        <v>1.636940269887216</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4905,7 +4912,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.107390403209116</v>
+        <v>16.135452058963835</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4937,7 +4944,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7560975609756098E-2</v>
+        <v>2.7513043478260869E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4956,10 +4963,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4967,22 +4974,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3702301872586373</v>
+        <v>3.6454374456360505</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.1460029227684485</v>
+        <v>6.8308414763261194</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9649766908925148</v>
-      </c>
-      <c r="G29" s="312">
+        <v>4.2887499360424126</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Anal